--- a/odk_template_form/ODK-Form-GeoNature-monitoring-Template-With-Site-Creation.xlsx
+++ b/odk_template_form/ODK-Form-GeoNature-monitoring-Template-With-Site-Creation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="188">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -218,6 +218,41 @@
   </si>
   <si>
     <t xml:space="preserve">value=id_sites_group, label=sites_group_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple_from_file gn_nomenclatures.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types_site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de site</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">mnemonique=‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TYPE_SITE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">’</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
@@ -590,7 +625,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -639,6 +674,16 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -754,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -796,6 +841,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,23 +940,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,10 +1041,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ68"/>
+  <dimension ref="A1:AMJ69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12545,1104 +12598,79 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="11" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" s="13" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="K23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="10" t="s">
+    </row>
+    <row r="24" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="25" s="15" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="14" t="s">
+    </row>
+    <row r="26" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="N26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
-      <c r="AI26" s="0"/>
-      <c r="AJ26" s="0"/>
-      <c r="AK26" s="0"/>
-      <c r="AL26" s="0"/>
-      <c r="AM26" s="0"/>
-      <c r="AN26" s="0"/>
-      <c r="AO26" s="0"/>
-      <c r="AP26" s="0"/>
-      <c r="AQ26" s="0"/>
-      <c r="AR26" s="0"/>
-      <c r="AS26" s="0"/>
-      <c r="AT26" s="0"/>
-      <c r="AU26" s="0"/>
-      <c r="AV26" s="0"/>
-      <c r="AW26" s="0"/>
-      <c r="AX26" s="0"/>
-      <c r="AY26" s="0"/>
-      <c r="AZ26" s="0"/>
-      <c r="BA26" s="0"/>
-      <c r="BB26" s="0"/>
-      <c r="BC26" s="0"/>
-      <c r="BD26" s="0"/>
-      <c r="BE26" s="0"/>
-      <c r="BF26" s="0"/>
-      <c r="BG26" s="0"/>
-      <c r="BH26" s="0"/>
-      <c r="BI26" s="0"/>
-      <c r="BJ26" s="0"/>
-      <c r="BK26" s="0"/>
-      <c r="BL26" s="0"/>
-      <c r="BM26" s="0"/>
-      <c r="BN26" s="0"/>
-      <c r="BO26" s="0"/>
-      <c r="BP26" s="0"/>
-      <c r="BQ26" s="0"/>
-      <c r="BR26" s="0"/>
-      <c r="BS26" s="0"/>
-      <c r="BT26" s="0"/>
-      <c r="BU26" s="0"/>
-      <c r="BV26" s="0"/>
-      <c r="BW26" s="0"/>
-      <c r="BX26" s="0"/>
-      <c r="BY26" s="0"/>
-      <c r="BZ26" s="0"/>
-      <c r="CA26" s="0"/>
-      <c r="CB26" s="0"/>
-      <c r="CC26" s="0"/>
-      <c r="CD26" s="0"/>
-      <c r="CE26" s="0"/>
-      <c r="CF26" s="0"/>
-      <c r="CG26" s="0"/>
-      <c r="CH26" s="0"/>
-      <c r="CI26" s="0"/>
-      <c r="CJ26" s="0"/>
-      <c r="CK26" s="0"/>
-      <c r="CL26" s="0"/>
-      <c r="CM26" s="0"/>
-      <c r="CN26" s="0"/>
-      <c r="CO26" s="0"/>
-      <c r="CP26" s="0"/>
-      <c r="CQ26" s="0"/>
-      <c r="CR26" s="0"/>
-      <c r="CS26" s="0"/>
-      <c r="CT26" s="0"/>
-      <c r="CU26" s="0"/>
-      <c r="CV26" s="0"/>
-      <c r="CW26" s="0"/>
-      <c r="CX26" s="0"/>
-      <c r="CY26" s="0"/>
-      <c r="CZ26" s="0"/>
-      <c r="DA26" s="0"/>
-      <c r="DB26" s="0"/>
-      <c r="DC26" s="0"/>
-      <c r="DD26" s="0"/>
-      <c r="DE26" s="0"/>
-      <c r="DF26" s="0"/>
-      <c r="DG26" s="0"/>
-      <c r="DH26" s="0"/>
-      <c r="DI26" s="0"/>
-      <c r="DJ26" s="0"/>
-      <c r="DK26" s="0"/>
-      <c r="DL26" s="0"/>
-      <c r="DM26" s="0"/>
-      <c r="DN26" s="0"/>
-      <c r="DO26" s="0"/>
-      <c r="DP26" s="0"/>
-      <c r="DQ26" s="0"/>
-      <c r="DR26" s="0"/>
-      <c r="DS26" s="0"/>
-      <c r="DT26" s="0"/>
-      <c r="DU26" s="0"/>
-      <c r="DV26" s="0"/>
-      <c r="DW26" s="0"/>
-      <c r="DX26" s="0"/>
-      <c r="DY26" s="0"/>
-      <c r="DZ26" s="0"/>
-      <c r="EA26" s="0"/>
-      <c r="EB26" s="0"/>
-      <c r="EC26" s="0"/>
-      <c r="ED26" s="0"/>
-      <c r="EE26" s="0"/>
-      <c r="EF26" s="0"/>
-      <c r="EG26" s="0"/>
-      <c r="EH26" s="0"/>
-      <c r="EI26" s="0"/>
-      <c r="EJ26" s="0"/>
-      <c r="EK26" s="0"/>
-      <c r="EL26" s="0"/>
-      <c r="EM26" s="0"/>
-      <c r="EN26" s="0"/>
-      <c r="EO26" s="0"/>
-      <c r="EP26" s="0"/>
-      <c r="EQ26" s="0"/>
-      <c r="ER26" s="0"/>
-      <c r="ES26" s="0"/>
-      <c r="ET26" s="0"/>
-      <c r="EU26" s="0"/>
-      <c r="EV26" s="0"/>
-      <c r="EW26" s="0"/>
-      <c r="EX26" s="0"/>
-      <c r="EY26" s="0"/>
-      <c r="EZ26" s="0"/>
-      <c r="FA26" s="0"/>
-      <c r="FB26" s="0"/>
-      <c r="FC26" s="0"/>
-      <c r="FD26" s="0"/>
-      <c r="FE26" s="0"/>
-      <c r="FF26" s="0"/>
-      <c r="FG26" s="0"/>
-      <c r="FH26" s="0"/>
-      <c r="FI26" s="0"/>
-      <c r="FJ26" s="0"/>
-      <c r="FK26" s="0"/>
-      <c r="FL26" s="0"/>
-      <c r="FM26" s="0"/>
-      <c r="FN26" s="0"/>
-      <c r="FO26" s="0"/>
-      <c r="FP26" s="0"/>
-      <c r="FQ26" s="0"/>
-      <c r="FR26" s="0"/>
-      <c r="FS26" s="0"/>
-      <c r="FT26" s="0"/>
-      <c r="FU26" s="0"/>
-      <c r="FV26" s="0"/>
-      <c r="FW26" s="0"/>
-      <c r="FX26" s="0"/>
-      <c r="FY26" s="0"/>
-      <c r="FZ26" s="0"/>
-      <c r="GA26" s="0"/>
-      <c r="GB26" s="0"/>
-      <c r="GC26" s="0"/>
-      <c r="GD26" s="0"/>
-      <c r="GE26" s="0"/>
-      <c r="GF26" s="0"/>
-      <c r="GG26" s="0"/>
-      <c r="GH26" s="0"/>
-      <c r="GI26" s="0"/>
-      <c r="GJ26" s="0"/>
-      <c r="GK26" s="0"/>
-      <c r="GL26" s="0"/>
-      <c r="GM26" s="0"/>
-      <c r="GN26" s="0"/>
-      <c r="GO26" s="0"/>
-      <c r="GP26" s="0"/>
-      <c r="GQ26" s="0"/>
-      <c r="GR26" s="0"/>
-      <c r="GS26" s="0"/>
-      <c r="GT26" s="0"/>
-      <c r="GU26" s="0"/>
-      <c r="GV26" s="0"/>
-      <c r="GW26" s="0"/>
-      <c r="GX26" s="0"/>
-      <c r="GY26" s="0"/>
-      <c r="GZ26" s="0"/>
-      <c r="HA26" s="0"/>
-      <c r="HB26" s="0"/>
-      <c r="HC26" s="0"/>
-      <c r="HD26" s="0"/>
-      <c r="HE26" s="0"/>
-      <c r="HF26" s="0"/>
-      <c r="HG26" s="0"/>
-      <c r="HH26" s="0"/>
-      <c r="HI26" s="0"/>
-      <c r="HJ26" s="0"/>
-      <c r="HK26" s="0"/>
-      <c r="HL26" s="0"/>
-      <c r="HM26" s="0"/>
-      <c r="HN26" s="0"/>
-      <c r="HO26" s="0"/>
-      <c r="HP26" s="0"/>
-      <c r="HQ26" s="0"/>
-      <c r="HR26" s="0"/>
-      <c r="HS26" s="0"/>
-      <c r="HT26" s="0"/>
-      <c r="HU26" s="0"/>
-      <c r="HV26" s="0"/>
-      <c r="HW26" s="0"/>
-      <c r="HX26" s="0"/>
-      <c r="HY26" s="0"/>
-      <c r="HZ26" s="0"/>
-      <c r="IA26" s="0"/>
-      <c r="IB26" s="0"/>
-      <c r="IC26" s="0"/>
-      <c r="ID26" s="0"/>
-      <c r="IE26" s="0"/>
-      <c r="IF26" s="0"/>
-      <c r="IG26" s="0"/>
-      <c r="IH26" s="0"/>
-      <c r="II26" s="0"/>
-      <c r="IJ26" s="0"/>
-      <c r="IK26" s="0"/>
-      <c r="IL26" s="0"/>
-      <c r="IM26" s="0"/>
-      <c r="IN26" s="0"/>
-      <c r="IO26" s="0"/>
-      <c r="IP26" s="0"/>
-      <c r="IQ26" s="0"/>
-      <c r="IR26" s="0"/>
-      <c r="IS26" s="0"/>
-      <c r="IT26" s="0"/>
-      <c r="IU26" s="0"/>
-      <c r="IV26" s="0"/>
-      <c r="IW26" s="0"/>
-      <c r="IX26" s="0"/>
-      <c r="IY26" s="0"/>
-      <c r="IZ26" s="0"/>
-      <c r="JA26" s="0"/>
-      <c r="JB26" s="0"/>
-      <c r="JC26" s="0"/>
-      <c r="JD26" s="0"/>
-      <c r="JE26" s="0"/>
-      <c r="JF26" s="0"/>
-      <c r="JG26" s="0"/>
-      <c r="JH26" s="0"/>
-      <c r="JI26" s="0"/>
-      <c r="JJ26" s="0"/>
-      <c r="JK26" s="0"/>
-      <c r="JL26" s="0"/>
-      <c r="JM26" s="0"/>
-      <c r="JN26" s="0"/>
-      <c r="JO26" s="0"/>
-      <c r="JP26" s="0"/>
-      <c r="JQ26" s="0"/>
-      <c r="JR26" s="0"/>
-      <c r="JS26" s="0"/>
-      <c r="JT26" s="0"/>
-      <c r="JU26" s="0"/>
-      <c r="JV26" s="0"/>
-      <c r="JW26" s="0"/>
-      <c r="JX26" s="0"/>
-      <c r="JY26" s="0"/>
-      <c r="JZ26" s="0"/>
-      <c r="KA26" s="0"/>
-      <c r="KB26" s="0"/>
-      <c r="KC26" s="0"/>
-      <c r="KD26" s="0"/>
-      <c r="KE26" s="0"/>
-      <c r="KF26" s="0"/>
-      <c r="KG26" s="0"/>
-      <c r="KH26" s="0"/>
-      <c r="KI26" s="0"/>
-      <c r="KJ26" s="0"/>
-      <c r="KK26" s="0"/>
-      <c r="KL26" s="0"/>
-      <c r="KM26" s="0"/>
-      <c r="KN26" s="0"/>
-      <c r="KO26" s="0"/>
-      <c r="KP26" s="0"/>
-      <c r="KQ26" s="0"/>
-      <c r="KR26" s="0"/>
-      <c r="KS26" s="0"/>
-      <c r="KT26" s="0"/>
-      <c r="KU26" s="0"/>
-      <c r="KV26" s="0"/>
-      <c r="KW26" s="0"/>
-      <c r="KX26" s="0"/>
-      <c r="KY26" s="0"/>
-      <c r="KZ26" s="0"/>
-      <c r="LA26" s="0"/>
-      <c r="LB26" s="0"/>
-      <c r="LC26" s="0"/>
-      <c r="LD26" s="0"/>
-      <c r="LE26" s="0"/>
-      <c r="LF26" s="0"/>
-      <c r="LG26" s="0"/>
-      <c r="LH26" s="0"/>
-      <c r="LI26" s="0"/>
-      <c r="LJ26" s="0"/>
-      <c r="LK26" s="0"/>
-      <c r="LL26" s="0"/>
-      <c r="LM26" s="0"/>
-      <c r="LN26" s="0"/>
-      <c r="LO26" s="0"/>
-      <c r="LP26" s="0"/>
-      <c r="LQ26" s="0"/>
-      <c r="LR26" s="0"/>
-      <c r="LS26" s="0"/>
-      <c r="LT26" s="0"/>
-      <c r="LU26" s="0"/>
-      <c r="LV26" s="0"/>
-      <c r="LW26" s="0"/>
-      <c r="LX26" s="0"/>
-      <c r="LY26" s="0"/>
-      <c r="LZ26" s="0"/>
-      <c r="MA26" s="0"/>
-      <c r="MB26" s="0"/>
-      <c r="MC26" s="0"/>
-      <c r="MD26" s="0"/>
-      <c r="ME26" s="0"/>
-      <c r="MF26" s="0"/>
-      <c r="MG26" s="0"/>
-      <c r="MH26" s="0"/>
-      <c r="MI26" s="0"/>
-      <c r="MJ26" s="0"/>
-      <c r="MK26" s="0"/>
-      <c r="ML26" s="0"/>
-      <c r="MM26" s="0"/>
-      <c r="MN26" s="0"/>
-      <c r="MO26" s="0"/>
-      <c r="MP26" s="0"/>
-      <c r="MQ26" s="0"/>
-      <c r="MR26" s="0"/>
-      <c r="MS26" s="0"/>
-      <c r="MT26" s="0"/>
-      <c r="MU26" s="0"/>
-      <c r="MV26" s="0"/>
-      <c r="MW26" s="0"/>
-      <c r="MX26" s="0"/>
-      <c r="MY26" s="0"/>
-      <c r="MZ26" s="0"/>
-      <c r="NA26" s="0"/>
-      <c r="NB26" s="0"/>
-      <c r="NC26" s="0"/>
-      <c r="ND26" s="0"/>
-      <c r="NE26" s="0"/>
-      <c r="NF26" s="0"/>
-      <c r="NG26" s="0"/>
-      <c r="NH26" s="0"/>
-      <c r="NI26" s="0"/>
-      <c r="NJ26" s="0"/>
-      <c r="NK26" s="0"/>
-      <c r="NL26" s="0"/>
-      <c r="NM26" s="0"/>
-      <c r="NN26" s="0"/>
-      <c r="NO26" s="0"/>
-      <c r="NP26" s="0"/>
-      <c r="NQ26" s="0"/>
-      <c r="NR26" s="0"/>
-      <c r="NS26" s="0"/>
-      <c r="NT26" s="0"/>
-      <c r="NU26" s="0"/>
-      <c r="NV26" s="0"/>
-      <c r="NW26" s="0"/>
-      <c r="NX26" s="0"/>
-      <c r="NY26" s="0"/>
-      <c r="NZ26" s="0"/>
-      <c r="OA26" s="0"/>
-      <c r="OB26" s="0"/>
-      <c r="OC26" s="0"/>
-      <c r="OD26" s="0"/>
-      <c r="OE26" s="0"/>
-      <c r="OF26" s="0"/>
-      <c r="OG26" s="0"/>
-      <c r="OH26" s="0"/>
-      <c r="OI26" s="0"/>
-      <c r="OJ26" s="0"/>
-      <c r="OK26" s="0"/>
-      <c r="OL26" s="0"/>
-      <c r="OM26" s="0"/>
-      <c r="ON26" s="0"/>
-      <c r="OO26" s="0"/>
-      <c r="OP26" s="0"/>
-      <c r="OQ26" s="0"/>
-      <c r="OR26" s="0"/>
-      <c r="OS26" s="0"/>
-      <c r="OT26" s="0"/>
-      <c r="OU26" s="0"/>
-      <c r="OV26" s="0"/>
-      <c r="OW26" s="0"/>
-      <c r="OX26" s="0"/>
-      <c r="OY26" s="0"/>
-      <c r="OZ26" s="0"/>
-      <c r="PA26" s="0"/>
-      <c r="PB26" s="0"/>
-      <c r="PC26" s="0"/>
-      <c r="PD26" s="0"/>
-      <c r="PE26" s="0"/>
-      <c r="PF26" s="0"/>
-      <c r="PG26" s="0"/>
-      <c r="PH26" s="0"/>
-      <c r="PI26" s="0"/>
-      <c r="PJ26" s="0"/>
-      <c r="PK26" s="0"/>
-      <c r="PL26" s="0"/>
-      <c r="PM26" s="0"/>
-      <c r="PN26" s="0"/>
-      <c r="PO26" s="0"/>
-      <c r="PP26" s="0"/>
-      <c r="PQ26" s="0"/>
-      <c r="PR26" s="0"/>
-      <c r="PS26" s="0"/>
-      <c r="PT26" s="0"/>
-      <c r="PU26" s="0"/>
-      <c r="PV26" s="0"/>
-      <c r="PW26" s="0"/>
-      <c r="PX26" s="0"/>
-      <c r="PY26" s="0"/>
-      <c r="PZ26" s="0"/>
-      <c r="QA26" s="0"/>
-      <c r="QB26" s="0"/>
-      <c r="QC26" s="0"/>
-      <c r="QD26" s="0"/>
-      <c r="QE26" s="0"/>
-      <c r="QF26" s="0"/>
-      <c r="QG26" s="0"/>
-      <c r="QH26" s="0"/>
-      <c r="QI26" s="0"/>
-      <c r="QJ26" s="0"/>
-      <c r="QK26" s="0"/>
-      <c r="QL26" s="0"/>
-      <c r="QM26" s="0"/>
-      <c r="QN26" s="0"/>
-      <c r="QO26" s="0"/>
-      <c r="QP26" s="0"/>
-      <c r="QQ26" s="0"/>
-      <c r="QR26" s="0"/>
-      <c r="QS26" s="0"/>
-      <c r="QT26" s="0"/>
-      <c r="QU26" s="0"/>
-      <c r="QV26" s="0"/>
-      <c r="QW26" s="0"/>
-      <c r="QX26" s="0"/>
-      <c r="QY26" s="0"/>
-      <c r="QZ26" s="0"/>
-      <c r="RA26" s="0"/>
-      <c r="RB26" s="0"/>
-      <c r="RC26" s="0"/>
-      <c r="RD26" s="0"/>
-      <c r="RE26" s="0"/>
-      <c r="RF26" s="0"/>
-      <c r="RG26" s="0"/>
-      <c r="RH26" s="0"/>
-      <c r="RI26" s="0"/>
-      <c r="RJ26" s="0"/>
-      <c r="RK26" s="0"/>
-      <c r="RL26" s="0"/>
-      <c r="RM26" s="0"/>
-      <c r="RN26" s="0"/>
-      <c r="RO26" s="0"/>
-      <c r="RP26" s="0"/>
-      <c r="RQ26" s="0"/>
-      <c r="RR26" s="0"/>
-      <c r="RS26" s="0"/>
-      <c r="RT26" s="0"/>
-      <c r="RU26" s="0"/>
-      <c r="RV26" s="0"/>
-      <c r="RW26" s="0"/>
-      <c r="RX26" s="0"/>
-      <c r="RY26" s="0"/>
-      <c r="RZ26" s="0"/>
-      <c r="SA26" s="0"/>
-      <c r="SB26" s="0"/>
-      <c r="SC26" s="0"/>
-      <c r="SD26" s="0"/>
-      <c r="SE26" s="0"/>
-      <c r="SF26" s="0"/>
-      <c r="SG26" s="0"/>
-      <c r="SH26" s="0"/>
-      <c r="SI26" s="0"/>
-      <c r="SJ26" s="0"/>
-      <c r="SK26" s="0"/>
-      <c r="SL26" s="0"/>
-      <c r="SM26" s="0"/>
-      <c r="SN26" s="0"/>
-      <c r="SO26" s="0"/>
-      <c r="SP26" s="0"/>
-      <c r="SQ26" s="0"/>
-      <c r="SR26" s="0"/>
-      <c r="SS26" s="0"/>
-      <c r="ST26" s="0"/>
-      <c r="SU26" s="0"/>
-      <c r="SV26" s="0"/>
-      <c r="SW26" s="0"/>
-      <c r="SX26" s="0"/>
-      <c r="SY26" s="0"/>
-      <c r="SZ26" s="0"/>
-      <c r="TA26" s="0"/>
-      <c r="TB26" s="0"/>
-      <c r="TC26" s="0"/>
-      <c r="TD26" s="0"/>
-      <c r="TE26" s="0"/>
-      <c r="TF26" s="0"/>
-      <c r="TG26" s="0"/>
-      <c r="TH26" s="0"/>
-      <c r="TI26" s="0"/>
-      <c r="TJ26" s="0"/>
-      <c r="TK26" s="0"/>
-      <c r="TL26" s="0"/>
-      <c r="TM26" s="0"/>
-      <c r="TN26" s="0"/>
-      <c r="TO26" s="0"/>
-      <c r="TP26" s="0"/>
-      <c r="TQ26" s="0"/>
-      <c r="TR26" s="0"/>
-      <c r="TS26" s="0"/>
-      <c r="TT26" s="0"/>
-      <c r="TU26" s="0"/>
-      <c r="TV26" s="0"/>
-      <c r="TW26" s="0"/>
-      <c r="TX26" s="0"/>
-      <c r="TY26" s="0"/>
-      <c r="TZ26" s="0"/>
-      <c r="UA26" s="0"/>
-      <c r="UB26" s="0"/>
-      <c r="UC26" s="0"/>
-      <c r="UD26" s="0"/>
-      <c r="UE26" s="0"/>
-      <c r="UF26" s="0"/>
-      <c r="UG26" s="0"/>
-      <c r="UH26" s="0"/>
-      <c r="UI26" s="0"/>
-      <c r="UJ26" s="0"/>
-      <c r="UK26" s="0"/>
-      <c r="UL26" s="0"/>
-      <c r="UM26" s="0"/>
-      <c r="UN26" s="0"/>
-      <c r="UO26" s="0"/>
-      <c r="UP26" s="0"/>
-      <c r="UQ26" s="0"/>
-      <c r="UR26" s="0"/>
-      <c r="US26" s="0"/>
-      <c r="UT26" s="0"/>
-      <c r="UU26" s="0"/>
-      <c r="UV26" s="0"/>
-      <c r="UW26" s="0"/>
-      <c r="UX26" s="0"/>
-      <c r="UY26" s="0"/>
-      <c r="UZ26" s="0"/>
-      <c r="VA26" s="0"/>
-      <c r="VB26" s="0"/>
-      <c r="VC26" s="0"/>
-      <c r="VD26" s="0"/>
-      <c r="VE26" s="0"/>
-      <c r="VF26" s="0"/>
-      <c r="VG26" s="0"/>
-      <c r="VH26" s="0"/>
-      <c r="VI26" s="0"/>
-      <c r="VJ26" s="0"/>
-      <c r="VK26" s="0"/>
-      <c r="VL26" s="0"/>
-      <c r="VM26" s="0"/>
-      <c r="VN26" s="0"/>
-      <c r="VO26" s="0"/>
-      <c r="VP26" s="0"/>
-      <c r="VQ26" s="0"/>
-      <c r="VR26" s="0"/>
-      <c r="VS26" s="0"/>
-      <c r="VT26" s="0"/>
-      <c r="VU26" s="0"/>
-      <c r="VV26" s="0"/>
-      <c r="VW26" s="0"/>
-      <c r="VX26" s="0"/>
-      <c r="VY26" s="0"/>
-      <c r="VZ26" s="0"/>
-      <c r="WA26" s="0"/>
-      <c r="WB26" s="0"/>
-      <c r="WC26" s="0"/>
-      <c r="WD26" s="0"/>
-      <c r="WE26" s="0"/>
-      <c r="WF26" s="0"/>
-      <c r="WG26" s="0"/>
-      <c r="WH26" s="0"/>
-      <c r="WI26" s="0"/>
-      <c r="WJ26" s="0"/>
-      <c r="WK26" s="0"/>
-      <c r="WL26" s="0"/>
-      <c r="WM26" s="0"/>
-      <c r="WN26" s="0"/>
-      <c r="WO26" s="0"/>
-      <c r="WP26" s="0"/>
-      <c r="WQ26" s="0"/>
-      <c r="WR26" s="0"/>
-      <c r="WS26" s="0"/>
-      <c r="WT26" s="0"/>
-      <c r="WU26" s="0"/>
-      <c r="WV26" s="0"/>
-      <c r="WW26" s="0"/>
-      <c r="WX26" s="0"/>
-      <c r="WY26" s="0"/>
-      <c r="WZ26" s="0"/>
-      <c r="XA26" s="0"/>
-      <c r="XB26" s="0"/>
-      <c r="XC26" s="0"/>
-      <c r="XD26" s="0"/>
-      <c r="XE26" s="0"/>
-      <c r="XF26" s="0"/>
-      <c r="XG26" s="0"/>
-      <c r="XH26" s="0"/>
-      <c r="XI26" s="0"/>
-      <c r="XJ26" s="0"/>
-      <c r="XK26" s="0"/>
-      <c r="XL26" s="0"/>
-      <c r="XM26" s="0"/>
-      <c r="XN26" s="0"/>
-      <c r="XO26" s="0"/>
-      <c r="XP26" s="0"/>
-      <c r="XQ26" s="0"/>
-      <c r="XR26" s="0"/>
-      <c r="XS26" s="0"/>
-      <c r="XT26" s="0"/>
-      <c r="XU26" s="0"/>
-      <c r="XV26" s="0"/>
-      <c r="XW26" s="0"/>
-      <c r="XX26" s="0"/>
-      <c r="XY26" s="0"/>
-      <c r="XZ26" s="0"/>
-      <c r="YA26" s="0"/>
-      <c r="YB26" s="0"/>
-      <c r="YC26" s="0"/>
-      <c r="YD26" s="0"/>
-      <c r="YE26" s="0"/>
-      <c r="YF26" s="0"/>
-      <c r="YG26" s="0"/>
-      <c r="YH26" s="0"/>
-      <c r="YI26" s="0"/>
-      <c r="YJ26" s="0"/>
-      <c r="YK26" s="0"/>
-      <c r="YL26" s="0"/>
-      <c r="YM26" s="0"/>
-      <c r="YN26" s="0"/>
-      <c r="YO26" s="0"/>
-      <c r="YP26" s="0"/>
-      <c r="YQ26" s="0"/>
-      <c r="YR26" s="0"/>
-      <c r="YS26" s="0"/>
-      <c r="YT26" s="0"/>
-      <c r="YU26" s="0"/>
-      <c r="YV26" s="0"/>
-      <c r="YW26" s="0"/>
-      <c r="YX26" s="0"/>
-      <c r="YY26" s="0"/>
-      <c r="YZ26" s="0"/>
-      <c r="ZA26" s="0"/>
-      <c r="ZB26" s="0"/>
-      <c r="ZC26" s="0"/>
-      <c r="ZD26" s="0"/>
-      <c r="ZE26" s="0"/>
-      <c r="ZF26" s="0"/>
-      <c r="ZG26" s="0"/>
-      <c r="ZH26" s="0"/>
-      <c r="ZI26" s="0"/>
-      <c r="ZJ26" s="0"/>
-      <c r="ZK26" s="0"/>
-      <c r="ZL26" s="0"/>
-      <c r="ZM26" s="0"/>
-      <c r="ZN26" s="0"/>
-      <c r="ZO26" s="0"/>
-      <c r="ZP26" s="0"/>
-      <c r="ZQ26" s="0"/>
-      <c r="ZR26" s="0"/>
-      <c r="ZS26" s="0"/>
-      <c r="ZT26" s="0"/>
-      <c r="ZU26" s="0"/>
-      <c r="ZV26" s="0"/>
-      <c r="ZW26" s="0"/>
-      <c r="ZX26" s="0"/>
-      <c r="ZY26" s="0"/>
-      <c r="ZZ26" s="0"/>
-      <c r="AAA26" s="0"/>
-      <c r="AAB26" s="0"/>
-      <c r="AAC26" s="0"/>
-      <c r="AAD26" s="0"/>
-      <c r="AAE26" s="0"/>
-      <c r="AAF26" s="0"/>
-      <c r="AAG26" s="0"/>
-      <c r="AAH26" s="0"/>
-      <c r="AAI26" s="0"/>
-      <c r="AAJ26" s="0"/>
-      <c r="AAK26" s="0"/>
-      <c r="AAL26" s="0"/>
-      <c r="AAM26" s="0"/>
-      <c r="AAN26" s="0"/>
-      <c r="AAO26" s="0"/>
-      <c r="AAP26" s="0"/>
-      <c r="AAQ26" s="0"/>
-      <c r="AAR26" s="0"/>
-      <c r="AAS26" s="0"/>
-      <c r="AAT26" s="0"/>
-      <c r="AAU26" s="0"/>
-      <c r="AAV26" s="0"/>
-      <c r="AAW26" s="0"/>
-      <c r="AAX26" s="0"/>
-      <c r="AAY26" s="0"/>
-      <c r="AAZ26" s="0"/>
-      <c r="ABA26" s="0"/>
-      <c r="ABB26" s="0"/>
-      <c r="ABC26" s="0"/>
-      <c r="ABD26" s="0"/>
-      <c r="ABE26" s="0"/>
-      <c r="ABF26" s="0"/>
-      <c r="ABG26" s="0"/>
-      <c r="ABH26" s="0"/>
-      <c r="ABI26" s="0"/>
-      <c r="ABJ26" s="0"/>
-      <c r="ABK26" s="0"/>
-      <c r="ABL26" s="0"/>
-      <c r="ABM26" s="0"/>
-      <c r="ABN26" s="0"/>
-      <c r="ABO26" s="0"/>
-      <c r="ABP26" s="0"/>
-      <c r="ABQ26" s="0"/>
-      <c r="ABR26" s="0"/>
-      <c r="ABS26" s="0"/>
-      <c r="ABT26" s="0"/>
-      <c r="ABU26" s="0"/>
-      <c r="ABV26" s="0"/>
-      <c r="ABW26" s="0"/>
-      <c r="ABX26" s="0"/>
-      <c r="ABY26" s="0"/>
-      <c r="ABZ26" s="0"/>
-      <c r="ACA26" s="0"/>
-      <c r="ACB26" s="0"/>
-      <c r="ACC26" s="0"/>
-      <c r="ACD26" s="0"/>
-      <c r="ACE26" s="0"/>
-      <c r="ACF26" s="0"/>
-      <c r="ACG26" s="0"/>
-      <c r="ACH26" s="0"/>
-      <c r="ACI26" s="0"/>
-      <c r="ACJ26" s="0"/>
-      <c r="ACK26" s="0"/>
-      <c r="ACL26" s="0"/>
-      <c r="ACM26" s="0"/>
-      <c r="ACN26" s="0"/>
-      <c r="ACO26" s="0"/>
-      <c r="ACP26" s="0"/>
-      <c r="ACQ26" s="0"/>
-      <c r="ACR26" s="0"/>
-      <c r="ACS26" s="0"/>
-      <c r="ACT26" s="0"/>
-      <c r="ACU26" s="0"/>
-      <c r="ACV26" s="0"/>
-      <c r="ACW26" s="0"/>
-      <c r="ACX26" s="0"/>
-      <c r="ACY26" s="0"/>
-      <c r="ACZ26" s="0"/>
-      <c r="ADA26" s="0"/>
-      <c r="ADB26" s="0"/>
-      <c r="ADC26" s="0"/>
-      <c r="ADD26" s="0"/>
-      <c r="ADE26" s="0"/>
-      <c r="ADF26" s="0"/>
-      <c r="ADG26" s="0"/>
-      <c r="ADH26" s="0"/>
-      <c r="ADI26" s="0"/>
-      <c r="ADJ26" s="0"/>
-      <c r="ADK26" s="0"/>
-      <c r="ADL26" s="0"/>
-      <c r="ADM26" s="0"/>
-      <c r="ADN26" s="0"/>
-      <c r="ADO26" s="0"/>
-      <c r="ADP26" s="0"/>
-      <c r="ADQ26" s="0"/>
-      <c r="ADR26" s="0"/>
-      <c r="ADS26" s="0"/>
-      <c r="ADT26" s="0"/>
-      <c r="ADU26" s="0"/>
-      <c r="ADV26" s="0"/>
-      <c r="ADW26" s="0"/>
-      <c r="ADX26" s="0"/>
-      <c r="ADY26" s="0"/>
-      <c r="ADZ26" s="0"/>
-      <c r="AEA26" s="0"/>
-      <c r="AEB26" s="0"/>
-      <c r="AEC26" s="0"/>
-      <c r="AED26" s="0"/>
-      <c r="AEE26" s="0"/>
-      <c r="AEF26" s="0"/>
-      <c r="AEG26" s="0"/>
-      <c r="AEH26" s="0"/>
-      <c r="AEI26" s="0"/>
-      <c r="AEJ26" s="0"/>
-      <c r="AEK26" s="0"/>
-      <c r="AEL26" s="0"/>
-      <c r="AEM26" s="0"/>
-      <c r="AEN26" s="0"/>
-      <c r="AEO26" s="0"/>
-      <c r="AEP26" s="0"/>
-      <c r="AEQ26" s="0"/>
-      <c r="AER26" s="0"/>
-      <c r="AES26" s="0"/>
-      <c r="AET26" s="0"/>
-      <c r="AEU26" s="0"/>
-      <c r="AEV26" s="0"/>
-      <c r="AEW26" s="0"/>
-      <c r="AEX26" s="0"/>
-      <c r="AEY26" s="0"/>
-      <c r="AEZ26" s="0"/>
-      <c r="AFA26" s="0"/>
-      <c r="AFB26" s="0"/>
-      <c r="AFC26" s="0"/>
-      <c r="AFD26" s="0"/>
-      <c r="AFE26" s="0"/>
-      <c r="AFF26" s="0"/>
-      <c r="AFG26" s="0"/>
-      <c r="AFH26" s="0"/>
-      <c r="AFI26" s="0"/>
-      <c r="AFJ26" s="0"/>
-      <c r="AFK26" s="0"/>
-      <c r="AFL26" s="0"/>
-      <c r="AFM26" s="0"/>
-      <c r="AFN26" s="0"/>
-      <c r="AFO26" s="0"/>
-      <c r="AFP26" s="0"/>
-      <c r="AFQ26" s="0"/>
-      <c r="AFR26" s="0"/>
-      <c r="AFS26" s="0"/>
-      <c r="AFT26" s="0"/>
-      <c r="AFU26" s="0"/>
-      <c r="AFV26" s="0"/>
-      <c r="AFW26" s="0"/>
-      <c r="AFX26" s="0"/>
-      <c r="AFY26" s="0"/>
-      <c r="AFZ26" s="0"/>
-      <c r="AGA26" s="0"/>
-      <c r="AGB26" s="0"/>
-      <c r="AGC26" s="0"/>
-      <c r="AGD26" s="0"/>
-      <c r="AGE26" s="0"/>
-      <c r="AGF26" s="0"/>
-      <c r="AGG26" s="0"/>
-      <c r="AGH26" s="0"/>
-      <c r="AGI26" s="0"/>
-      <c r="AGJ26" s="0"/>
-      <c r="AGK26" s="0"/>
-      <c r="AGL26" s="0"/>
-      <c r="AGM26" s="0"/>
-      <c r="AGN26" s="0"/>
-      <c r="AGO26" s="0"/>
-      <c r="AGP26" s="0"/>
-      <c r="AGQ26" s="0"/>
-      <c r="AGR26" s="0"/>
-      <c r="AGS26" s="0"/>
-      <c r="AGT26" s="0"/>
-      <c r="AGU26" s="0"/>
-      <c r="AGV26" s="0"/>
-      <c r="AGW26" s="0"/>
-      <c r="AGX26" s="0"/>
-      <c r="AGY26" s="0"/>
-      <c r="AGZ26" s="0"/>
-      <c r="AHA26" s="0"/>
-      <c r="AHB26" s="0"/>
-      <c r="AHC26" s="0"/>
-      <c r="AHD26" s="0"/>
-      <c r="AHE26" s="0"/>
-      <c r="AHF26" s="0"/>
-      <c r="AHG26" s="0"/>
-      <c r="AHH26" s="0"/>
-      <c r="AHI26" s="0"/>
-      <c r="AHJ26" s="0"/>
-      <c r="AHK26" s="0"/>
-      <c r="AHL26" s="0"/>
-      <c r="AHM26" s="0"/>
-      <c r="AHN26" s="0"/>
-      <c r="AHO26" s="0"/>
-      <c r="AHP26" s="0"/>
-      <c r="AHQ26" s="0"/>
-      <c r="AHR26" s="0"/>
-      <c r="AHS26" s="0"/>
-      <c r="AHT26" s="0"/>
-      <c r="AHU26" s="0"/>
-      <c r="AHV26" s="0"/>
-      <c r="AHW26" s="0"/>
-      <c r="AHX26" s="0"/>
-      <c r="AHY26" s="0"/>
-      <c r="AHZ26" s="0"/>
-      <c r="AIA26" s="0"/>
-      <c r="AIB26" s="0"/>
-      <c r="AIC26" s="0"/>
-      <c r="AID26" s="0"/>
-      <c r="AIE26" s="0"/>
-      <c r="AIF26" s="0"/>
-      <c r="AIG26" s="0"/>
-      <c r="AIH26" s="0"/>
-      <c r="AII26" s="0"/>
-      <c r="AIJ26" s="0"/>
-      <c r="AIK26" s="0"/>
-      <c r="AIL26" s="0"/>
-      <c r="AIM26" s="0"/>
-      <c r="AIN26" s="0"/>
-      <c r="AIO26" s="0"/>
-      <c r="AIP26" s="0"/>
-      <c r="AIQ26" s="0"/>
-      <c r="AIR26" s="0"/>
-      <c r="AIS26" s="0"/>
-      <c r="AIT26" s="0"/>
-      <c r="AIU26" s="0"/>
-      <c r="AIV26" s="0"/>
-      <c r="AIW26" s="0"/>
-      <c r="AIX26" s="0"/>
-      <c r="AIY26" s="0"/>
-      <c r="AIZ26" s="0"/>
-      <c r="AJA26" s="0"/>
-      <c r="AJB26" s="0"/>
-      <c r="AJC26" s="0"/>
-      <c r="AJD26" s="0"/>
-      <c r="AJE26" s="0"/>
-      <c r="AJF26" s="0"/>
-      <c r="AJG26" s="0"/>
-      <c r="AJH26" s="0"/>
-      <c r="AJI26" s="0"/>
-      <c r="AJJ26" s="0"/>
-      <c r="AJK26" s="0"/>
-      <c r="AJL26" s="0"/>
-      <c r="AJM26" s="0"/>
-      <c r="AJN26" s="0"/>
-      <c r="AJO26" s="0"/>
-      <c r="AJP26" s="0"/>
-      <c r="AJQ26" s="0"/>
-      <c r="AJR26" s="0"/>
-      <c r="AJS26" s="0"/>
-      <c r="AJT26" s="0"/>
-      <c r="AJU26" s="0"/>
-      <c r="AJV26" s="0"/>
-      <c r="AJW26" s="0"/>
-      <c r="AJX26" s="0"/>
-      <c r="AJY26" s="0"/>
-      <c r="AJZ26" s="0"/>
-      <c r="AKA26" s="0"/>
-      <c r="AKB26" s="0"/>
-      <c r="AKC26" s="0"/>
-      <c r="AKD26" s="0"/>
-      <c r="AKE26" s="0"/>
-      <c r="AKF26" s="0"/>
-      <c r="AKG26" s="0"/>
-      <c r="AKH26" s="0"/>
-      <c r="AKI26" s="0"/>
-      <c r="AKJ26" s="0"/>
-      <c r="AKK26" s="0"/>
-      <c r="AKL26" s="0"/>
-      <c r="AKM26" s="0"/>
-      <c r="AKN26" s="0"/>
-      <c r="AKO26" s="0"/>
-      <c r="AKP26" s="0"/>
-      <c r="AKQ26" s="0"/>
-      <c r="AKR26" s="0"/>
-      <c r="AKS26" s="0"/>
-      <c r="AKT26" s="0"/>
-      <c r="AKU26" s="0"/>
-      <c r="AKV26" s="0"/>
-      <c r="AKW26" s="0"/>
-      <c r="AKX26" s="0"/>
-      <c r="AKY26" s="0"/>
-      <c r="AKZ26" s="0"/>
-      <c r="ALA26" s="0"/>
-      <c r="ALB26" s="0"/>
-      <c r="ALC26" s="0"/>
-      <c r="ALD26" s="0"/>
-      <c r="ALE26" s="0"/>
-      <c r="ALF26" s="0"/>
-      <c r="ALG26" s="0"/>
-      <c r="ALH26" s="0"/>
-      <c r="ALI26" s="0"/>
-      <c r="ALJ26" s="0"/>
-      <c r="ALK26" s="0"/>
-      <c r="ALL26" s="0"/>
-      <c r="ALM26" s="0"/>
-      <c r="ALN26" s="0"/>
-      <c r="ALO26" s="0"/>
-      <c r="ALP26" s="0"/>
-      <c r="ALQ26" s="0"/>
-      <c r="ALR26" s="0"/>
-      <c r="ALS26" s="0"/>
-      <c r="ALT26" s="0"/>
-      <c r="ALU26" s="0"/>
-      <c r="ALV26" s="0"/>
-      <c r="ALW26" s="0"/>
-      <c r="ALX26" s="0"/>
-      <c r="ALY26" s="0"/>
-      <c r="ALZ26" s="0"/>
-      <c r="AMA26" s="0"/>
-      <c r="AMB26" s="0"/>
-      <c r="AMC26" s="0"/>
-      <c r="AMD26" s="0"/>
-      <c r="AME26" s="0"/>
-      <c r="AMF26" s="0"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="0"/>
       <c r="W27" s="0"/>
       <c r="X27" s="0"/>
@@ -14647,44 +13675,44 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="M28" s="16"/>
+      <c r="N28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="0"/>
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
@@ -15689,37 +14717,41 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>87</v>
+      <c r="D29" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>89</v>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>34</v>
       </c>
-      <c r="K29" s="5"/>
       <c r="L29" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
+      <c r="R29" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -16727,19 +15759,19 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>92</v>
+      <c r="D30" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -16750,7 +15782,7 @@
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -17765,1081 +16797,1081 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="11" t="s">
-        <v>64</v>
+    <row r="31" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+      <c r="AX31" s="0"/>
+      <c r="AY31" s="0"/>
+      <c r="AZ31" s="0"/>
+      <c r="BA31" s="0"/>
+      <c r="BB31" s="0"/>
+      <c r="BC31" s="0"/>
+      <c r="BD31" s="0"/>
+      <c r="BE31" s="0"/>
+      <c r="BF31" s="0"/>
+      <c r="BG31" s="0"/>
+      <c r="BH31" s="0"/>
+      <c r="BI31" s="0"/>
+      <c r="BJ31" s="0"/>
+      <c r="BK31" s="0"/>
+      <c r="BL31" s="0"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="0"/>
+      <c r="BR31" s="0"/>
+      <c r="BS31" s="0"/>
+      <c r="BT31" s="0"/>
+      <c r="BU31" s="0"/>
+      <c r="BV31" s="0"/>
+      <c r="BW31" s="0"/>
+      <c r="BX31" s="0"/>
+      <c r="BY31" s="0"/>
+      <c r="BZ31" s="0"/>
+      <c r="CA31" s="0"/>
+      <c r="CB31" s="0"/>
+      <c r="CC31" s="0"/>
+      <c r="CD31" s="0"/>
+      <c r="CE31" s="0"/>
+      <c r="CF31" s="0"/>
+      <c r="CG31" s="0"/>
+      <c r="CH31" s="0"/>
+      <c r="CI31" s="0"/>
+      <c r="CJ31" s="0"/>
+      <c r="CK31" s="0"/>
+      <c r="CL31" s="0"/>
+      <c r="CM31" s="0"/>
+      <c r="CN31" s="0"/>
+      <c r="CO31" s="0"/>
+      <c r="CP31" s="0"/>
+      <c r="CQ31" s="0"/>
+      <c r="CR31" s="0"/>
+      <c r="CS31" s="0"/>
+      <c r="CT31" s="0"/>
+      <c r="CU31" s="0"/>
+      <c r="CV31" s="0"/>
+      <c r="CW31" s="0"/>
+      <c r="CX31" s="0"/>
+      <c r="CY31" s="0"/>
+      <c r="CZ31" s="0"/>
+      <c r="DA31" s="0"/>
+      <c r="DB31" s="0"/>
+      <c r="DC31" s="0"/>
+      <c r="DD31" s="0"/>
+      <c r="DE31" s="0"/>
+      <c r="DF31" s="0"/>
+      <c r="DG31" s="0"/>
+      <c r="DH31" s="0"/>
+      <c r="DI31" s="0"/>
+      <c r="DJ31" s="0"/>
+      <c r="DK31" s="0"/>
+      <c r="DL31" s="0"/>
+      <c r="DM31" s="0"/>
+      <c r="DN31" s="0"/>
+      <c r="DO31" s="0"/>
+      <c r="DP31" s="0"/>
+      <c r="DQ31" s="0"/>
+      <c r="DR31" s="0"/>
+      <c r="DS31" s="0"/>
+      <c r="DT31" s="0"/>
+      <c r="DU31" s="0"/>
+      <c r="DV31" s="0"/>
+      <c r="DW31" s="0"/>
+      <c r="DX31" s="0"/>
+      <c r="DY31" s="0"/>
+      <c r="DZ31" s="0"/>
+      <c r="EA31" s="0"/>
+      <c r="EB31" s="0"/>
+      <c r="EC31" s="0"/>
+      <c r="ED31" s="0"/>
+      <c r="EE31" s="0"/>
+      <c r="EF31" s="0"/>
+      <c r="EG31" s="0"/>
+      <c r="EH31" s="0"/>
+      <c r="EI31" s="0"/>
+      <c r="EJ31" s="0"/>
+      <c r="EK31" s="0"/>
+      <c r="EL31" s="0"/>
+      <c r="EM31" s="0"/>
+      <c r="EN31" s="0"/>
+      <c r="EO31" s="0"/>
+      <c r="EP31" s="0"/>
+      <c r="EQ31" s="0"/>
+      <c r="ER31" s="0"/>
+      <c r="ES31" s="0"/>
+      <c r="ET31" s="0"/>
+      <c r="EU31" s="0"/>
+      <c r="EV31" s="0"/>
+      <c r="EW31" s="0"/>
+      <c r="EX31" s="0"/>
+      <c r="EY31" s="0"/>
+      <c r="EZ31" s="0"/>
+      <c r="FA31" s="0"/>
+      <c r="FB31" s="0"/>
+      <c r="FC31" s="0"/>
+      <c r="FD31" s="0"/>
+      <c r="FE31" s="0"/>
+      <c r="FF31" s="0"/>
+      <c r="FG31" s="0"/>
+      <c r="FH31" s="0"/>
+      <c r="FI31" s="0"/>
+      <c r="FJ31" s="0"/>
+      <c r="FK31" s="0"/>
+      <c r="FL31" s="0"/>
+      <c r="FM31" s="0"/>
+      <c r="FN31" s="0"/>
+      <c r="FO31" s="0"/>
+      <c r="FP31" s="0"/>
+      <c r="FQ31" s="0"/>
+      <c r="FR31" s="0"/>
+      <c r="FS31" s="0"/>
+      <c r="FT31" s="0"/>
+      <c r="FU31" s="0"/>
+      <c r="FV31" s="0"/>
+      <c r="FW31" s="0"/>
+      <c r="FX31" s="0"/>
+      <c r="FY31" s="0"/>
+      <c r="FZ31" s="0"/>
+      <c r="GA31" s="0"/>
+      <c r="GB31" s="0"/>
+      <c r="GC31" s="0"/>
+      <c r="GD31" s="0"/>
+      <c r="GE31" s="0"/>
+      <c r="GF31" s="0"/>
+      <c r="GG31" s="0"/>
+      <c r="GH31" s="0"/>
+      <c r="GI31" s="0"/>
+      <c r="GJ31" s="0"/>
+      <c r="GK31" s="0"/>
+      <c r="GL31" s="0"/>
+      <c r="GM31" s="0"/>
+      <c r="GN31" s="0"/>
+      <c r="GO31" s="0"/>
+      <c r="GP31" s="0"/>
+      <c r="GQ31" s="0"/>
+      <c r="GR31" s="0"/>
+      <c r="GS31" s="0"/>
+      <c r="GT31" s="0"/>
+      <c r="GU31" s="0"/>
+      <c r="GV31" s="0"/>
+      <c r="GW31" s="0"/>
+      <c r="GX31" s="0"/>
+      <c r="GY31" s="0"/>
+      <c r="GZ31" s="0"/>
+      <c r="HA31" s="0"/>
+      <c r="HB31" s="0"/>
+      <c r="HC31" s="0"/>
+      <c r="HD31" s="0"/>
+      <c r="HE31" s="0"/>
+      <c r="HF31" s="0"/>
+      <c r="HG31" s="0"/>
+      <c r="HH31" s="0"/>
+      <c r="HI31" s="0"/>
+      <c r="HJ31" s="0"/>
+      <c r="HK31" s="0"/>
+      <c r="HL31" s="0"/>
+      <c r="HM31" s="0"/>
+      <c r="HN31" s="0"/>
+      <c r="HO31" s="0"/>
+      <c r="HP31" s="0"/>
+      <c r="HQ31" s="0"/>
+      <c r="HR31" s="0"/>
+      <c r="HS31" s="0"/>
+      <c r="HT31" s="0"/>
+      <c r="HU31" s="0"/>
+      <c r="HV31" s="0"/>
+      <c r="HW31" s="0"/>
+      <c r="HX31" s="0"/>
+      <c r="HY31" s="0"/>
+      <c r="HZ31" s="0"/>
+      <c r="IA31" s="0"/>
+      <c r="IB31" s="0"/>
+      <c r="IC31" s="0"/>
+      <c r="ID31" s="0"/>
+      <c r="IE31" s="0"/>
+      <c r="IF31" s="0"/>
+      <c r="IG31" s="0"/>
+      <c r="IH31" s="0"/>
+      <c r="II31" s="0"/>
+      <c r="IJ31" s="0"/>
+      <c r="IK31" s="0"/>
+      <c r="IL31" s="0"/>
+      <c r="IM31" s="0"/>
+      <c r="IN31" s="0"/>
+      <c r="IO31" s="0"/>
+      <c r="IP31" s="0"/>
+      <c r="IQ31" s="0"/>
+      <c r="IR31" s="0"/>
+      <c r="IS31" s="0"/>
+      <c r="IT31" s="0"/>
+      <c r="IU31" s="0"/>
+      <c r="IV31" s="0"/>
+      <c r="IW31" s="0"/>
+      <c r="IX31" s="0"/>
+      <c r="IY31" s="0"/>
+      <c r="IZ31" s="0"/>
+      <c r="JA31" s="0"/>
+      <c r="JB31" s="0"/>
+      <c r="JC31" s="0"/>
+      <c r="JD31" s="0"/>
+      <c r="JE31" s="0"/>
+      <c r="JF31" s="0"/>
+      <c r="JG31" s="0"/>
+      <c r="JH31" s="0"/>
+      <c r="JI31" s="0"/>
+      <c r="JJ31" s="0"/>
+      <c r="JK31" s="0"/>
+      <c r="JL31" s="0"/>
+      <c r="JM31" s="0"/>
+      <c r="JN31" s="0"/>
+      <c r="JO31" s="0"/>
+      <c r="JP31" s="0"/>
+      <c r="JQ31" s="0"/>
+      <c r="JR31" s="0"/>
+      <c r="JS31" s="0"/>
+      <c r="JT31" s="0"/>
+      <c r="JU31" s="0"/>
+      <c r="JV31" s="0"/>
+      <c r="JW31" s="0"/>
+      <c r="JX31" s="0"/>
+      <c r="JY31" s="0"/>
+      <c r="JZ31" s="0"/>
+      <c r="KA31" s="0"/>
+      <c r="KB31" s="0"/>
+      <c r="KC31" s="0"/>
+      <c r="KD31" s="0"/>
+      <c r="KE31" s="0"/>
+      <c r="KF31" s="0"/>
+      <c r="KG31" s="0"/>
+      <c r="KH31" s="0"/>
+      <c r="KI31" s="0"/>
+      <c r="KJ31" s="0"/>
+      <c r="KK31" s="0"/>
+      <c r="KL31" s="0"/>
+      <c r="KM31" s="0"/>
+      <c r="KN31" s="0"/>
+      <c r="KO31" s="0"/>
+      <c r="KP31" s="0"/>
+      <c r="KQ31" s="0"/>
+      <c r="KR31" s="0"/>
+      <c r="KS31" s="0"/>
+      <c r="KT31" s="0"/>
+      <c r="KU31" s="0"/>
+      <c r="KV31" s="0"/>
+      <c r="KW31" s="0"/>
+      <c r="KX31" s="0"/>
+      <c r="KY31" s="0"/>
+      <c r="KZ31" s="0"/>
+      <c r="LA31" s="0"/>
+      <c r="LB31" s="0"/>
+      <c r="LC31" s="0"/>
+      <c r="LD31" s="0"/>
+      <c r="LE31" s="0"/>
+      <c r="LF31" s="0"/>
+      <c r="LG31" s="0"/>
+      <c r="LH31" s="0"/>
+      <c r="LI31" s="0"/>
+      <c r="LJ31" s="0"/>
+      <c r="LK31" s="0"/>
+      <c r="LL31" s="0"/>
+      <c r="LM31" s="0"/>
+      <c r="LN31" s="0"/>
+      <c r="LO31" s="0"/>
+      <c r="LP31" s="0"/>
+      <c r="LQ31" s="0"/>
+      <c r="LR31" s="0"/>
+      <c r="LS31" s="0"/>
+      <c r="LT31" s="0"/>
+      <c r="LU31" s="0"/>
+      <c r="LV31" s="0"/>
+      <c r="LW31" s="0"/>
+      <c r="LX31" s="0"/>
+      <c r="LY31" s="0"/>
+      <c r="LZ31" s="0"/>
+      <c r="MA31" s="0"/>
+      <c r="MB31" s="0"/>
+      <c r="MC31" s="0"/>
+      <c r="MD31" s="0"/>
+      <c r="ME31" s="0"/>
+      <c r="MF31" s="0"/>
+      <c r="MG31" s="0"/>
+      <c r="MH31" s="0"/>
+      <c r="MI31" s="0"/>
+      <c r="MJ31" s="0"/>
+      <c r="MK31" s="0"/>
+      <c r="ML31" s="0"/>
+      <c r="MM31" s="0"/>
+      <c r="MN31" s="0"/>
+      <c r="MO31" s="0"/>
+      <c r="MP31" s="0"/>
+      <c r="MQ31" s="0"/>
+      <c r="MR31" s="0"/>
+      <c r="MS31" s="0"/>
+      <c r="MT31" s="0"/>
+      <c r="MU31" s="0"/>
+      <c r="MV31" s="0"/>
+      <c r="MW31" s="0"/>
+      <c r="MX31" s="0"/>
+      <c r="MY31" s="0"/>
+      <c r="MZ31" s="0"/>
+      <c r="NA31" s="0"/>
+      <c r="NB31" s="0"/>
+      <c r="NC31" s="0"/>
+      <c r="ND31" s="0"/>
+      <c r="NE31" s="0"/>
+      <c r="NF31" s="0"/>
+      <c r="NG31" s="0"/>
+      <c r="NH31" s="0"/>
+      <c r="NI31" s="0"/>
+      <c r="NJ31" s="0"/>
+      <c r="NK31" s="0"/>
+      <c r="NL31" s="0"/>
+      <c r="NM31" s="0"/>
+      <c r="NN31" s="0"/>
+      <c r="NO31" s="0"/>
+      <c r="NP31" s="0"/>
+      <c r="NQ31" s="0"/>
+      <c r="NR31" s="0"/>
+      <c r="NS31" s="0"/>
+      <c r="NT31" s="0"/>
+      <c r="NU31" s="0"/>
+      <c r="NV31" s="0"/>
+      <c r="NW31" s="0"/>
+      <c r="NX31" s="0"/>
+      <c r="NY31" s="0"/>
+      <c r="NZ31" s="0"/>
+      <c r="OA31" s="0"/>
+      <c r="OB31" s="0"/>
+      <c r="OC31" s="0"/>
+      <c r="OD31" s="0"/>
+      <c r="OE31" s="0"/>
+      <c r="OF31" s="0"/>
+      <c r="OG31" s="0"/>
+      <c r="OH31" s="0"/>
+      <c r="OI31" s="0"/>
+      <c r="OJ31" s="0"/>
+      <c r="OK31" s="0"/>
+      <c r="OL31" s="0"/>
+      <c r="OM31" s="0"/>
+      <c r="ON31" s="0"/>
+      <c r="OO31" s="0"/>
+      <c r="OP31" s="0"/>
+      <c r="OQ31" s="0"/>
+      <c r="OR31" s="0"/>
+      <c r="OS31" s="0"/>
+      <c r="OT31" s="0"/>
+      <c r="OU31" s="0"/>
+      <c r="OV31" s="0"/>
+      <c r="OW31" s="0"/>
+      <c r="OX31" s="0"/>
+      <c r="OY31" s="0"/>
+      <c r="OZ31" s="0"/>
+      <c r="PA31" s="0"/>
+      <c r="PB31" s="0"/>
+      <c r="PC31" s="0"/>
+      <c r="PD31" s="0"/>
+      <c r="PE31" s="0"/>
+      <c r="PF31" s="0"/>
+      <c r="PG31" s="0"/>
+      <c r="PH31" s="0"/>
+      <c r="PI31" s="0"/>
+      <c r="PJ31" s="0"/>
+      <c r="PK31" s="0"/>
+      <c r="PL31" s="0"/>
+      <c r="PM31" s="0"/>
+      <c r="PN31" s="0"/>
+      <c r="PO31" s="0"/>
+      <c r="PP31" s="0"/>
+      <c r="PQ31" s="0"/>
+      <c r="PR31" s="0"/>
+      <c r="PS31" s="0"/>
+      <c r="PT31" s="0"/>
+      <c r="PU31" s="0"/>
+      <c r="PV31" s="0"/>
+      <c r="PW31" s="0"/>
+      <c r="PX31" s="0"/>
+      <c r="PY31" s="0"/>
+      <c r="PZ31" s="0"/>
+      <c r="QA31" s="0"/>
+      <c r="QB31" s="0"/>
+      <c r="QC31" s="0"/>
+      <c r="QD31" s="0"/>
+      <c r="QE31" s="0"/>
+      <c r="QF31" s="0"/>
+      <c r="QG31" s="0"/>
+      <c r="QH31" s="0"/>
+      <c r="QI31" s="0"/>
+      <c r="QJ31" s="0"/>
+      <c r="QK31" s="0"/>
+      <c r="QL31" s="0"/>
+      <c r="QM31" s="0"/>
+      <c r="QN31" s="0"/>
+      <c r="QO31" s="0"/>
+      <c r="QP31" s="0"/>
+      <c r="QQ31" s="0"/>
+      <c r="QR31" s="0"/>
+      <c r="QS31" s="0"/>
+      <c r="QT31" s="0"/>
+      <c r="QU31" s="0"/>
+      <c r="QV31" s="0"/>
+      <c r="QW31" s="0"/>
+      <c r="QX31" s="0"/>
+      <c r="QY31" s="0"/>
+      <c r="QZ31" s="0"/>
+      <c r="RA31" s="0"/>
+      <c r="RB31" s="0"/>
+      <c r="RC31" s="0"/>
+      <c r="RD31" s="0"/>
+      <c r="RE31" s="0"/>
+      <c r="RF31" s="0"/>
+      <c r="RG31" s="0"/>
+      <c r="RH31" s="0"/>
+      <c r="RI31" s="0"/>
+      <c r="RJ31" s="0"/>
+      <c r="RK31" s="0"/>
+      <c r="RL31" s="0"/>
+      <c r="RM31" s="0"/>
+      <c r="RN31" s="0"/>
+      <c r="RO31" s="0"/>
+      <c r="RP31" s="0"/>
+      <c r="RQ31" s="0"/>
+      <c r="RR31" s="0"/>
+      <c r="RS31" s="0"/>
+      <c r="RT31" s="0"/>
+      <c r="RU31" s="0"/>
+      <c r="RV31" s="0"/>
+      <c r="RW31" s="0"/>
+      <c r="RX31" s="0"/>
+      <c r="RY31" s="0"/>
+      <c r="RZ31" s="0"/>
+      <c r="SA31" s="0"/>
+      <c r="SB31" s="0"/>
+      <c r="SC31" s="0"/>
+      <c r="SD31" s="0"/>
+      <c r="SE31" s="0"/>
+      <c r="SF31" s="0"/>
+      <c r="SG31" s="0"/>
+      <c r="SH31" s="0"/>
+      <c r="SI31" s="0"/>
+      <c r="SJ31" s="0"/>
+      <c r="SK31" s="0"/>
+      <c r="SL31" s="0"/>
+      <c r="SM31" s="0"/>
+      <c r="SN31" s="0"/>
+      <c r="SO31" s="0"/>
+      <c r="SP31" s="0"/>
+      <c r="SQ31" s="0"/>
+      <c r="SR31" s="0"/>
+      <c r="SS31" s="0"/>
+      <c r="ST31" s="0"/>
+      <c r="SU31" s="0"/>
+      <c r="SV31" s="0"/>
+      <c r="SW31" s="0"/>
+      <c r="SX31" s="0"/>
+      <c r="SY31" s="0"/>
+      <c r="SZ31" s="0"/>
+      <c r="TA31" s="0"/>
+      <c r="TB31" s="0"/>
+      <c r="TC31" s="0"/>
+      <c r="TD31" s="0"/>
+      <c r="TE31" s="0"/>
+      <c r="TF31" s="0"/>
+      <c r="TG31" s="0"/>
+      <c r="TH31" s="0"/>
+      <c r="TI31" s="0"/>
+      <c r="TJ31" s="0"/>
+      <c r="TK31" s="0"/>
+      <c r="TL31" s="0"/>
+      <c r="TM31" s="0"/>
+      <c r="TN31" s="0"/>
+      <c r="TO31" s="0"/>
+      <c r="TP31" s="0"/>
+      <c r="TQ31" s="0"/>
+      <c r="TR31" s="0"/>
+      <c r="TS31" s="0"/>
+      <c r="TT31" s="0"/>
+      <c r="TU31" s="0"/>
+      <c r="TV31" s="0"/>
+      <c r="TW31" s="0"/>
+      <c r="TX31" s="0"/>
+      <c r="TY31" s="0"/>
+      <c r="TZ31" s="0"/>
+      <c r="UA31" s="0"/>
+      <c r="UB31" s="0"/>
+      <c r="UC31" s="0"/>
+      <c r="UD31" s="0"/>
+      <c r="UE31" s="0"/>
+      <c r="UF31" s="0"/>
+      <c r="UG31" s="0"/>
+      <c r="UH31" s="0"/>
+      <c r="UI31" s="0"/>
+      <c r="UJ31" s="0"/>
+      <c r="UK31" s="0"/>
+      <c r="UL31" s="0"/>
+      <c r="UM31" s="0"/>
+      <c r="UN31" s="0"/>
+      <c r="UO31" s="0"/>
+      <c r="UP31" s="0"/>
+      <c r="UQ31" s="0"/>
+      <c r="UR31" s="0"/>
+      <c r="US31" s="0"/>
+      <c r="UT31" s="0"/>
+      <c r="UU31" s="0"/>
+      <c r="UV31" s="0"/>
+      <c r="UW31" s="0"/>
+      <c r="UX31" s="0"/>
+      <c r="UY31" s="0"/>
+      <c r="UZ31" s="0"/>
+      <c r="VA31" s="0"/>
+      <c r="VB31" s="0"/>
+      <c r="VC31" s="0"/>
+      <c r="VD31" s="0"/>
+      <c r="VE31" s="0"/>
+      <c r="VF31" s="0"/>
+      <c r="VG31" s="0"/>
+      <c r="VH31" s="0"/>
+      <c r="VI31" s="0"/>
+      <c r="VJ31" s="0"/>
+      <c r="VK31" s="0"/>
+      <c r="VL31" s="0"/>
+      <c r="VM31" s="0"/>
+      <c r="VN31" s="0"/>
+      <c r="VO31" s="0"/>
+      <c r="VP31" s="0"/>
+      <c r="VQ31" s="0"/>
+      <c r="VR31" s="0"/>
+      <c r="VS31" s="0"/>
+      <c r="VT31" s="0"/>
+      <c r="VU31" s="0"/>
+      <c r="VV31" s="0"/>
+      <c r="VW31" s="0"/>
+      <c r="VX31" s="0"/>
+      <c r="VY31" s="0"/>
+      <c r="VZ31" s="0"/>
+      <c r="WA31" s="0"/>
+      <c r="WB31" s="0"/>
+      <c r="WC31" s="0"/>
+      <c r="WD31" s="0"/>
+      <c r="WE31" s="0"/>
+      <c r="WF31" s="0"/>
+      <c r="WG31" s="0"/>
+      <c r="WH31" s="0"/>
+      <c r="WI31" s="0"/>
+      <c r="WJ31" s="0"/>
+      <c r="WK31" s="0"/>
+      <c r="WL31" s="0"/>
+      <c r="WM31" s="0"/>
+      <c r="WN31" s="0"/>
+      <c r="WO31" s="0"/>
+      <c r="WP31" s="0"/>
+      <c r="WQ31" s="0"/>
+      <c r="WR31" s="0"/>
+      <c r="WS31" s="0"/>
+      <c r="WT31" s="0"/>
+      <c r="WU31" s="0"/>
+      <c r="WV31" s="0"/>
+      <c r="WW31" s="0"/>
+      <c r="WX31" s="0"/>
+      <c r="WY31" s="0"/>
+      <c r="WZ31" s="0"/>
+      <c r="XA31" s="0"/>
+      <c r="XB31" s="0"/>
+      <c r="XC31" s="0"/>
+      <c r="XD31" s="0"/>
+      <c r="XE31" s="0"/>
+      <c r="XF31" s="0"/>
+      <c r="XG31" s="0"/>
+      <c r="XH31" s="0"/>
+      <c r="XI31" s="0"/>
+      <c r="XJ31" s="0"/>
+      <c r="XK31" s="0"/>
+      <c r="XL31" s="0"/>
+      <c r="XM31" s="0"/>
+      <c r="XN31" s="0"/>
+      <c r="XO31" s="0"/>
+      <c r="XP31" s="0"/>
+      <c r="XQ31" s="0"/>
+      <c r="XR31" s="0"/>
+      <c r="XS31" s="0"/>
+      <c r="XT31" s="0"/>
+      <c r="XU31" s="0"/>
+      <c r="XV31" s="0"/>
+      <c r="XW31" s="0"/>
+      <c r="XX31" s="0"/>
+      <c r="XY31" s="0"/>
+      <c r="XZ31" s="0"/>
+      <c r="YA31" s="0"/>
+      <c r="YB31" s="0"/>
+      <c r="YC31" s="0"/>
+      <c r="YD31" s="0"/>
+      <c r="YE31" s="0"/>
+      <c r="YF31" s="0"/>
+      <c r="YG31" s="0"/>
+      <c r="YH31" s="0"/>
+      <c r="YI31" s="0"/>
+      <c r="YJ31" s="0"/>
+      <c r="YK31" s="0"/>
+      <c r="YL31" s="0"/>
+      <c r="YM31" s="0"/>
+      <c r="YN31" s="0"/>
+      <c r="YO31" s="0"/>
+      <c r="YP31" s="0"/>
+      <c r="YQ31" s="0"/>
+      <c r="YR31" s="0"/>
+      <c r="YS31" s="0"/>
+      <c r="YT31" s="0"/>
+      <c r="YU31" s="0"/>
+      <c r="YV31" s="0"/>
+      <c r="YW31" s="0"/>
+      <c r="YX31" s="0"/>
+      <c r="YY31" s="0"/>
+      <c r="YZ31" s="0"/>
+      <c r="ZA31" s="0"/>
+      <c r="ZB31" s="0"/>
+      <c r="ZC31" s="0"/>
+      <c r="ZD31" s="0"/>
+      <c r="ZE31" s="0"/>
+      <c r="ZF31" s="0"/>
+      <c r="ZG31" s="0"/>
+      <c r="ZH31" s="0"/>
+      <c r="ZI31" s="0"/>
+      <c r="ZJ31" s="0"/>
+      <c r="ZK31" s="0"/>
+      <c r="ZL31" s="0"/>
+      <c r="ZM31" s="0"/>
+      <c r="ZN31" s="0"/>
+      <c r="ZO31" s="0"/>
+      <c r="ZP31" s="0"/>
+      <c r="ZQ31" s="0"/>
+      <c r="ZR31" s="0"/>
+      <c r="ZS31" s="0"/>
+      <c r="ZT31" s="0"/>
+      <c r="ZU31" s="0"/>
+      <c r="ZV31" s="0"/>
+      <c r="ZW31" s="0"/>
+      <c r="ZX31" s="0"/>
+      <c r="ZY31" s="0"/>
+      <c r="ZZ31" s="0"/>
+      <c r="AAA31" s="0"/>
+      <c r="AAB31" s="0"/>
+      <c r="AAC31" s="0"/>
+      <c r="AAD31" s="0"/>
+      <c r="AAE31" s="0"/>
+      <c r="AAF31" s="0"/>
+      <c r="AAG31" s="0"/>
+      <c r="AAH31" s="0"/>
+      <c r="AAI31" s="0"/>
+      <c r="AAJ31" s="0"/>
+      <c r="AAK31" s="0"/>
+      <c r="AAL31" s="0"/>
+      <c r="AAM31" s="0"/>
+      <c r="AAN31" s="0"/>
+      <c r="AAO31" s="0"/>
+      <c r="AAP31" s="0"/>
+      <c r="AAQ31" s="0"/>
+      <c r="AAR31" s="0"/>
+      <c r="AAS31" s="0"/>
+      <c r="AAT31" s="0"/>
+      <c r="AAU31" s="0"/>
+      <c r="AAV31" s="0"/>
+      <c r="AAW31" s="0"/>
+      <c r="AAX31" s="0"/>
+      <c r="AAY31" s="0"/>
+      <c r="AAZ31" s="0"/>
+      <c r="ABA31" s="0"/>
+      <c r="ABB31" s="0"/>
+      <c r="ABC31" s="0"/>
+      <c r="ABD31" s="0"/>
+      <c r="ABE31" s="0"/>
+      <c r="ABF31" s="0"/>
+      <c r="ABG31" s="0"/>
+      <c r="ABH31" s="0"/>
+      <c r="ABI31" s="0"/>
+      <c r="ABJ31" s="0"/>
+      <c r="ABK31" s="0"/>
+      <c r="ABL31" s="0"/>
+      <c r="ABM31" s="0"/>
+      <c r="ABN31" s="0"/>
+      <c r="ABO31" s="0"/>
+      <c r="ABP31" s="0"/>
+      <c r="ABQ31" s="0"/>
+      <c r="ABR31" s="0"/>
+      <c r="ABS31" s="0"/>
+      <c r="ABT31" s="0"/>
+      <c r="ABU31" s="0"/>
+      <c r="ABV31" s="0"/>
+      <c r="ABW31" s="0"/>
+      <c r="ABX31" s="0"/>
+      <c r="ABY31" s="0"/>
+      <c r="ABZ31" s="0"/>
+      <c r="ACA31" s="0"/>
+      <c r="ACB31" s="0"/>
+      <c r="ACC31" s="0"/>
+      <c r="ACD31" s="0"/>
+      <c r="ACE31" s="0"/>
+      <c r="ACF31" s="0"/>
+      <c r="ACG31" s="0"/>
+      <c r="ACH31" s="0"/>
+      <c r="ACI31" s="0"/>
+      <c r="ACJ31" s="0"/>
+      <c r="ACK31" s="0"/>
+      <c r="ACL31" s="0"/>
+      <c r="ACM31" s="0"/>
+      <c r="ACN31" s="0"/>
+      <c r="ACO31" s="0"/>
+      <c r="ACP31" s="0"/>
+      <c r="ACQ31" s="0"/>
+      <c r="ACR31" s="0"/>
+      <c r="ACS31" s="0"/>
+      <c r="ACT31" s="0"/>
+      <c r="ACU31" s="0"/>
+      <c r="ACV31" s="0"/>
+      <c r="ACW31" s="0"/>
+      <c r="ACX31" s="0"/>
+      <c r="ACY31" s="0"/>
+      <c r="ACZ31" s="0"/>
+      <c r="ADA31" s="0"/>
+      <c r="ADB31" s="0"/>
+      <c r="ADC31" s="0"/>
+      <c r="ADD31" s="0"/>
+      <c r="ADE31" s="0"/>
+      <c r="ADF31" s="0"/>
+      <c r="ADG31" s="0"/>
+      <c r="ADH31" s="0"/>
+      <c r="ADI31" s="0"/>
+      <c r="ADJ31" s="0"/>
+      <c r="ADK31" s="0"/>
+      <c r="ADL31" s="0"/>
+      <c r="ADM31" s="0"/>
+      <c r="ADN31" s="0"/>
+      <c r="ADO31" s="0"/>
+      <c r="ADP31" s="0"/>
+      <c r="ADQ31" s="0"/>
+      <c r="ADR31" s="0"/>
+      <c r="ADS31" s="0"/>
+      <c r="ADT31" s="0"/>
+      <c r="ADU31" s="0"/>
+      <c r="ADV31" s="0"/>
+      <c r="ADW31" s="0"/>
+      <c r="ADX31" s="0"/>
+      <c r="ADY31" s="0"/>
+      <c r="ADZ31" s="0"/>
+      <c r="AEA31" s="0"/>
+      <c r="AEB31" s="0"/>
+      <c r="AEC31" s="0"/>
+      <c r="AED31" s="0"/>
+      <c r="AEE31" s="0"/>
+      <c r="AEF31" s="0"/>
+      <c r="AEG31" s="0"/>
+      <c r="AEH31" s="0"/>
+      <c r="AEI31" s="0"/>
+      <c r="AEJ31" s="0"/>
+      <c r="AEK31" s="0"/>
+      <c r="AEL31" s="0"/>
+      <c r="AEM31" s="0"/>
+      <c r="AEN31" s="0"/>
+      <c r="AEO31" s="0"/>
+      <c r="AEP31" s="0"/>
+      <c r="AEQ31" s="0"/>
+      <c r="AER31" s="0"/>
+      <c r="AES31" s="0"/>
+      <c r="AET31" s="0"/>
+      <c r="AEU31" s="0"/>
+      <c r="AEV31" s="0"/>
+      <c r="AEW31" s="0"/>
+      <c r="AEX31" s="0"/>
+      <c r="AEY31" s="0"/>
+      <c r="AEZ31" s="0"/>
+      <c r="AFA31" s="0"/>
+      <c r="AFB31" s="0"/>
+      <c r="AFC31" s="0"/>
+      <c r="AFD31" s="0"/>
+      <c r="AFE31" s="0"/>
+      <c r="AFF31" s="0"/>
+      <c r="AFG31" s="0"/>
+      <c r="AFH31" s="0"/>
+      <c r="AFI31" s="0"/>
+      <c r="AFJ31" s="0"/>
+      <c r="AFK31" s="0"/>
+      <c r="AFL31" s="0"/>
+      <c r="AFM31" s="0"/>
+      <c r="AFN31" s="0"/>
+      <c r="AFO31" s="0"/>
+      <c r="AFP31" s="0"/>
+      <c r="AFQ31" s="0"/>
+      <c r="AFR31" s="0"/>
+      <c r="AFS31" s="0"/>
+      <c r="AFT31" s="0"/>
+      <c r="AFU31" s="0"/>
+      <c r="AFV31" s="0"/>
+      <c r="AFW31" s="0"/>
+      <c r="AFX31" s="0"/>
+      <c r="AFY31" s="0"/>
+      <c r="AFZ31" s="0"/>
+      <c r="AGA31" s="0"/>
+      <c r="AGB31" s="0"/>
+      <c r="AGC31" s="0"/>
+      <c r="AGD31" s="0"/>
+      <c r="AGE31" s="0"/>
+      <c r="AGF31" s="0"/>
+      <c r="AGG31" s="0"/>
+      <c r="AGH31" s="0"/>
+      <c r="AGI31" s="0"/>
+      <c r="AGJ31" s="0"/>
+      <c r="AGK31" s="0"/>
+      <c r="AGL31" s="0"/>
+      <c r="AGM31" s="0"/>
+      <c r="AGN31" s="0"/>
+      <c r="AGO31" s="0"/>
+      <c r="AGP31" s="0"/>
+      <c r="AGQ31" s="0"/>
+      <c r="AGR31" s="0"/>
+      <c r="AGS31" s="0"/>
+      <c r="AGT31" s="0"/>
+      <c r="AGU31" s="0"/>
+      <c r="AGV31" s="0"/>
+      <c r="AGW31" s="0"/>
+      <c r="AGX31" s="0"/>
+      <c r="AGY31" s="0"/>
+      <c r="AGZ31" s="0"/>
+      <c r="AHA31" s="0"/>
+      <c r="AHB31" s="0"/>
+      <c r="AHC31" s="0"/>
+      <c r="AHD31" s="0"/>
+      <c r="AHE31" s="0"/>
+      <c r="AHF31" s="0"/>
+      <c r="AHG31" s="0"/>
+      <c r="AHH31" s="0"/>
+      <c r="AHI31" s="0"/>
+      <c r="AHJ31" s="0"/>
+      <c r="AHK31" s="0"/>
+      <c r="AHL31" s="0"/>
+      <c r="AHM31" s="0"/>
+      <c r="AHN31" s="0"/>
+      <c r="AHO31" s="0"/>
+      <c r="AHP31" s="0"/>
+      <c r="AHQ31" s="0"/>
+      <c r="AHR31" s="0"/>
+      <c r="AHS31" s="0"/>
+      <c r="AHT31" s="0"/>
+      <c r="AHU31" s="0"/>
+      <c r="AHV31" s="0"/>
+      <c r="AHW31" s="0"/>
+      <c r="AHX31" s="0"/>
+      <c r="AHY31" s="0"/>
+      <c r="AHZ31" s="0"/>
+      <c r="AIA31" s="0"/>
+      <c r="AIB31" s="0"/>
+      <c r="AIC31" s="0"/>
+      <c r="AID31" s="0"/>
+      <c r="AIE31" s="0"/>
+      <c r="AIF31" s="0"/>
+      <c r="AIG31" s="0"/>
+      <c r="AIH31" s="0"/>
+      <c r="AII31" s="0"/>
+      <c r="AIJ31" s="0"/>
+      <c r="AIK31" s="0"/>
+      <c r="AIL31" s="0"/>
+      <c r="AIM31" s="0"/>
+      <c r="AIN31" s="0"/>
+      <c r="AIO31" s="0"/>
+      <c r="AIP31" s="0"/>
+      <c r="AIQ31" s="0"/>
+      <c r="AIR31" s="0"/>
+      <c r="AIS31" s="0"/>
+      <c r="AIT31" s="0"/>
+      <c r="AIU31" s="0"/>
+      <c r="AIV31" s="0"/>
+      <c r="AIW31" s="0"/>
+      <c r="AIX31" s="0"/>
+      <c r="AIY31" s="0"/>
+      <c r="AIZ31" s="0"/>
+      <c r="AJA31" s="0"/>
+      <c r="AJB31" s="0"/>
+      <c r="AJC31" s="0"/>
+      <c r="AJD31" s="0"/>
+      <c r="AJE31" s="0"/>
+      <c r="AJF31" s="0"/>
+      <c r="AJG31" s="0"/>
+      <c r="AJH31" s="0"/>
+      <c r="AJI31" s="0"/>
+      <c r="AJJ31" s="0"/>
+      <c r="AJK31" s="0"/>
+      <c r="AJL31" s="0"/>
+      <c r="AJM31" s="0"/>
+      <c r="AJN31" s="0"/>
+      <c r="AJO31" s="0"/>
+      <c r="AJP31" s="0"/>
+      <c r="AJQ31" s="0"/>
+      <c r="AJR31" s="0"/>
+      <c r="AJS31" s="0"/>
+      <c r="AJT31" s="0"/>
+      <c r="AJU31" s="0"/>
+      <c r="AJV31" s="0"/>
+      <c r="AJW31" s="0"/>
+      <c r="AJX31" s="0"/>
+      <c r="AJY31" s="0"/>
+      <c r="AJZ31" s="0"/>
+      <c r="AKA31" s="0"/>
+      <c r="AKB31" s="0"/>
+      <c r="AKC31" s="0"/>
+      <c r="AKD31" s="0"/>
+      <c r="AKE31" s="0"/>
+      <c r="AKF31" s="0"/>
+      <c r="AKG31" s="0"/>
+      <c r="AKH31" s="0"/>
+      <c r="AKI31" s="0"/>
+      <c r="AKJ31" s="0"/>
+      <c r="AKK31" s="0"/>
+      <c r="AKL31" s="0"/>
+      <c r="AKM31" s="0"/>
+      <c r="AKN31" s="0"/>
+      <c r="AKO31" s="0"/>
+      <c r="AKP31" s="0"/>
+      <c r="AKQ31" s="0"/>
+      <c r="AKR31" s="0"/>
+      <c r="AKS31" s="0"/>
+      <c r="AKT31" s="0"/>
+      <c r="AKU31" s="0"/>
+      <c r="AKV31" s="0"/>
+      <c r="AKW31" s="0"/>
+      <c r="AKX31" s="0"/>
+      <c r="AKY31" s="0"/>
+      <c r="AKZ31" s="0"/>
+      <c r="ALA31" s="0"/>
+      <c r="ALB31" s="0"/>
+      <c r="ALC31" s="0"/>
+      <c r="ALD31" s="0"/>
+      <c r="ALE31" s="0"/>
+      <c r="ALF31" s="0"/>
+      <c r="ALG31" s="0"/>
+      <c r="ALH31" s="0"/>
+      <c r="ALI31" s="0"/>
+      <c r="ALJ31" s="0"/>
+      <c r="ALK31" s="0"/>
+      <c r="ALL31" s="0"/>
+      <c r="ALM31" s="0"/>
+      <c r="ALN31" s="0"/>
+      <c r="ALO31" s="0"/>
+      <c r="ALP31" s="0"/>
+      <c r="ALQ31" s="0"/>
+      <c r="ALR31" s="0"/>
+      <c r="ALS31" s="0"/>
+      <c r="ALT31" s="0"/>
+      <c r="ALU31" s="0"/>
+      <c r="ALV31" s="0"/>
+      <c r="ALW31" s="0"/>
+      <c r="ALX31" s="0"/>
+      <c r="ALY31" s="0"/>
+      <c r="ALZ31" s="0"/>
+      <c r="AMA31" s="0"/>
+      <c r="AMB31" s="0"/>
+      <c r="AMC31" s="0"/>
+      <c r="AMD31" s="0"/>
+      <c r="AME31" s="0"/>
+      <c r="AMF31" s="0"/>
+      <c r="AMG31" s="0"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0"/>
-      <c r="AN33" s="0"/>
-      <c r="AO33" s="0"/>
-      <c r="AP33" s="0"/>
-      <c r="AQ33" s="0"/>
-      <c r="AR33" s="0"/>
-      <c r="AS33" s="0"/>
-      <c r="AT33" s="0"/>
-      <c r="AU33" s="0"/>
-      <c r="AV33" s="0"/>
-      <c r="AW33" s="0"/>
-      <c r="AX33" s="0"/>
-      <c r="AY33" s="0"/>
-      <c r="AZ33" s="0"/>
-      <c r="BA33" s="0"/>
-      <c r="BB33" s="0"/>
-      <c r="BC33" s="0"/>
-      <c r="BD33" s="0"/>
-      <c r="BE33" s="0"/>
-      <c r="BF33" s="0"/>
-      <c r="BG33" s="0"/>
-      <c r="BH33" s="0"/>
-      <c r="BI33" s="0"/>
-      <c r="BJ33" s="0"/>
-      <c r="BK33" s="0"/>
-      <c r="BL33" s="0"/>
-      <c r="BM33" s="0"/>
-      <c r="BN33" s="0"/>
-      <c r="BO33" s="0"/>
-      <c r="BP33" s="0"/>
-      <c r="BQ33" s="0"/>
-      <c r="BR33" s="0"/>
-      <c r="BS33" s="0"/>
-      <c r="BT33" s="0"/>
-      <c r="BU33" s="0"/>
-      <c r="BV33" s="0"/>
-      <c r="BW33" s="0"/>
-      <c r="BX33" s="0"/>
-      <c r="BY33" s="0"/>
-      <c r="BZ33" s="0"/>
-      <c r="CA33" s="0"/>
-      <c r="CB33" s="0"/>
-      <c r="CC33" s="0"/>
-      <c r="CD33" s="0"/>
-      <c r="CE33" s="0"/>
-      <c r="CF33" s="0"/>
-      <c r="CG33" s="0"/>
-      <c r="CH33" s="0"/>
-      <c r="CI33" s="0"/>
-      <c r="CJ33" s="0"/>
-      <c r="CK33" s="0"/>
-      <c r="CL33" s="0"/>
-      <c r="CM33" s="0"/>
-      <c r="CN33" s="0"/>
-      <c r="CO33" s="0"/>
-      <c r="CP33" s="0"/>
-      <c r="CQ33" s="0"/>
-      <c r="CR33" s="0"/>
-      <c r="CS33" s="0"/>
-      <c r="CT33" s="0"/>
-      <c r="CU33" s="0"/>
-      <c r="CV33" s="0"/>
-      <c r="CW33" s="0"/>
-      <c r="CX33" s="0"/>
-      <c r="CY33" s="0"/>
-      <c r="CZ33" s="0"/>
-      <c r="DA33" s="0"/>
-      <c r="DB33" s="0"/>
-      <c r="DC33" s="0"/>
-      <c r="DD33" s="0"/>
-      <c r="DE33" s="0"/>
-      <c r="DF33" s="0"/>
-      <c r="DG33" s="0"/>
-      <c r="DH33" s="0"/>
-      <c r="DI33" s="0"/>
-      <c r="DJ33" s="0"/>
-      <c r="DK33" s="0"/>
-      <c r="DL33" s="0"/>
-      <c r="DM33" s="0"/>
-      <c r="DN33" s="0"/>
-      <c r="DO33" s="0"/>
-      <c r="DP33" s="0"/>
-      <c r="DQ33" s="0"/>
-      <c r="DR33" s="0"/>
-      <c r="DS33" s="0"/>
-      <c r="DT33" s="0"/>
-      <c r="DU33" s="0"/>
-      <c r="DV33" s="0"/>
-      <c r="DW33" s="0"/>
-      <c r="DX33" s="0"/>
-      <c r="DY33" s="0"/>
-      <c r="DZ33" s="0"/>
-      <c r="EA33" s="0"/>
-      <c r="EB33" s="0"/>
-      <c r="EC33" s="0"/>
-      <c r="ED33" s="0"/>
-      <c r="EE33" s="0"/>
-      <c r="EF33" s="0"/>
-      <c r="EG33" s="0"/>
-      <c r="EH33" s="0"/>
-      <c r="EI33" s="0"/>
-      <c r="EJ33" s="0"/>
-      <c r="EK33" s="0"/>
-      <c r="EL33" s="0"/>
-      <c r="EM33" s="0"/>
-      <c r="EN33" s="0"/>
-      <c r="EO33" s="0"/>
-      <c r="EP33" s="0"/>
-      <c r="EQ33" s="0"/>
-      <c r="ER33" s="0"/>
-      <c r="ES33" s="0"/>
-      <c r="ET33" s="0"/>
-      <c r="EU33" s="0"/>
-      <c r="EV33" s="0"/>
-      <c r="EW33" s="0"/>
-      <c r="EX33" s="0"/>
-      <c r="EY33" s="0"/>
-      <c r="EZ33" s="0"/>
-      <c r="FA33" s="0"/>
-      <c r="FB33" s="0"/>
-      <c r="FC33" s="0"/>
-      <c r="FD33" s="0"/>
-      <c r="FE33" s="0"/>
-      <c r="FF33" s="0"/>
-      <c r="FG33" s="0"/>
-      <c r="FH33" s="0"/>
-      <c r="FI33" s="0"/>
-      <c r="FJ33" s="0"/>
-      <c r="FK33" s="0"/>
-      <c r="FL33" s="0"/>
-      <c r="FM33" s="0"/>
-      <c r="FN33" s="0"/>
-      <c r="FO33" s="0"/>
-      <c r="FP33" s="0"/>
-      <c r="FQ33" s="0"/>
-      <c r="FR33" s="0"/>
-      <c r="FS33" s="0"/>
-      <c r="FT33" s="0"/>
-      <c r="FU33" s="0"/>
-      <c r="FV33" s="0"/>
-      <c r="FW33" s="0"/>
-      <c r="FX33" s="0"/>
-      <c r="FY33" s="0"/>
-      <c r="FZ33" s="0"/>
-      <c r="GA33" s="0"/>
-      <c r="GB33" s="0"/>
-      <c r="GC33" s="0"/>
-      <c r="GD33" s="0"/>
-      <c r="GE33" s="0"/>
-      <c r="GF33" s="0"/>
-      <c r="GG33" s="0"/>
-      <c r="GH33" s="0"/>
-      <c r="GI33" s="0"/>
-      <c r="GJ33" s="0"/>
-      <c r="GK33" s="0"/>
-      <c r="GL33" s="0"/>
-      <c r="GM33" s="0"/>
-      <c r="GN33" s="0"/>
-      <c r="GO33" s="0"/>
-      <c r="GP33" s="0"/>
-      <c r="GQ33" s="0"/>
-      <c r="GR33" s="0"/>
-      <c r="GS33" s="0"/>
-      <c r="GT33" s="0"/>
-      <c r="GU33" s="0"/>
-      <c r="GV33" s="0"/>
-      <c r="GW33" s="0"/>
-      <c r="GX33" s="0"/>
-      <c r="GY33" s="0"/>
-      <c r="GZ33" s="0"/>
-      <c r="HA33" s="0"/>
-      <c r="HB33" s="0"/>
-      <c r="HC33" s="0"/>
-      <c r="HD33" s="0"/>
-      <c r="HE33" s="0"/>
-      <c r="HF33" s="0"/>
-      <c r="HG33" s="0"/>
-      <c r="HH33" s="0"/>
-      <c r="HI33" s="0"/>
-      <c r="HJ33" s="0"/>
-      <c r="HK33" s="0"/>
-      <c r="HL33" s="0"/>
-      <c r="HM33" s="0"/>
-      <c r="HN33" s="0"/>
-      <c r="HO33" s="0"/>
-      <c r="HP33" s="0"/>
-      <c r="HQ33" s="0"/>
-      <c r="HR33" s="0"/>
-      <c r="HS33" s="0"/>
-      <c r="HT33" s="0"/>
-      <c r="HU33" s="0"/>
-      <c r="HV33" s="0"/>
-      <c r="HW33" s="0"/>
-      <c r="HX33" s="0"/>
-      <c r="HY33" s="0"/>
-      <c r="HZ33" s="0"/>
-      <c r="IA33" s="0"/>
-      <c r="IB33" s="0"/>
-      <c r="IC33" s="0"/>
-      <c r="ID33" s="0"/>
-      <c r="IE33" s="0"/>
-      <c r="IF33" s="0"/>
-      <c r="IG33" s="0"/>
-      <c r="IH33" s="0"/>
-      <c r="II33" s="0"/>
-      <c r="IJ33" s="0"/>
-      <c r="IK33" s="0"/>
-      <c r="IL33" s="0"/>
-      <c r="IM33" s="0"/>
-      <c r="IN33" s="0"/>
-      <c r="IO33" s="0"/>
-      <c r="IP33" s="0"/>
-      <c r="IQ33" s="0"/>
-      <c r="IR33" s="0"/>
-      <c r="IS33" s="0"/>
-      <c r="IT33" s="0"/>
-      <c r="IU33" s="0"/>
-      <c r="IV33" s="0"/>
-      <c r="IW33" s="0"/>
-      <c r="IX33" s="0"/>
-      <c r="IY33" s="0"/>
-      <c r="IZ33" s="0"/>
-      <c r="JA33" s="0"/>
-      <c r="JB33" s="0"/>
-      <c r="JC33" s="0"/>
-      <c r="JD33" s="0"/>
-      <c r="JE33" s="0"/>
-      <c r="JF33" s="0"/>
-      <c r="JG33" s="0"/>
-      <c r="JH33" s="0"/>
-      <c r="JI33" s="0"/>
-      <c r="JJ33" s="0"/>
-      <c r="JK33" s="0"/>
-      <c r="JL33" s="0"/>
-      <c r="JM33" s="0"/>
-      <c r="JN33" s="0"/>
-      <c r="JO33" s="0"/>
-      <c r="JP33" s="0"/>
-      <c r="JQ33" s="0"/>
-      <c r="JR33" s="0"/>
-      <c r="JS33" s="0"/>
-      <c r="JT33" s="0"/>
-      <c r="JU33" s="0"/>
-      <c r="JV33" s="0"/>
-      <c r="JW33" s="0"/>
-      <c r="JX33" s="0"/>
-      <c r="JY33" s="0"/>
-      <c r="JZ33" s="0"/>
-      <c r="KA33" s="0"/>
-      <c r="KB33" s="0"/>
-      <c r="KC33" s="0"/>
-      <c r="KD33" s="0"/>
-      <c r="KE33" s="0"/>
-      <c r="KF33" s="0"/>
-      <c r="KG33" s="0"/>
-      <c r="KH33" s="0"/>
-      <c r="KI33" s="0"/>
-      <c r="KJ33" s="0"/>
-      <c r="KK33" s="0"/>
-      <c r="KL33" s="0"/>
-      <c r="KM33" s="0"/>
-      <c r="KN33" s="0"/>
-      <c r="KO33" s="0"/>
-      <c r="KP33" s="0"/>
-      <c r="KQ33" s="0"/>
-      <c r="KR33" s="0"/>
-      <c r="KS33" s="0"/>
-      <c r="KT33" s="0"/>
-      <c r="KU33" s="0"/>
-      <c r="KV33" s="0"/>
-      <c r="KW33" s="0"/>
-      <c r="KX33" s="0"/>
-      <c r="KY33" s="0"/>
-      <c r="KZ33" s="0"/>
-      <c r="LA33" s="0"/>
-      <c r="LB33" s="0"/>
-      <c r="LC33" s="0"/>
-      <c r="LD33" s="0"/>
-      <c r="LE33" s="0"/>
-      <c r="LF33" s="0"/>
-      <c r="LG33" s="0"/>
-      <c r="LH33" s="0"/>
-      <c r="LI33" s="0"/>
-      <c r="LJ33" s="0"/>
-      <c r="LK33" s="0"/>
-      <c r="LL33" s="0"/>
-      <c r="LM33" s="0"/>
-      <c r="LN33" s="0"/>
-      <c r="LO33" s="0"/>
-      <c r="LP33" s="0"/>
-      <c r="LQ33" s="0"/>
-      <c r="LR33" s="0"/>
-      <c r="LS33" s="0"/>
-      <c r="LT33" s="0"/>
-      <c r="LU33" s="0"/>
-      <c r="LV33" s="0"/>
-      <c r="LW33" s="0"/>
-      <c r="LX33" s="0"/>
-      <c r="LY33" s="0"/>
-      <c r="LZ33" s="0"/>
-      <c r="MA33" s="0"/>
-      <c r="MB33" s="0"/>
-      <c r="MC33" s="0"/>
-      <c r="MD33" s="0"/>
-      <c r="ME33" s="0"/>
-      <c r="MF33" s="0"/>
-      <c r="MG33" s="0"/>
-      <c r="MH33" s="0"/>
-      <c r="MI33" s="0"/>
-      <c r="MJ33" s="0"/>
-      <c r="MK33" s="0"/>
-      <c r="ML33" s="0"/>
-      <c r="MM33" s="0"/>
-      <c r="MN33" s="0"/>
-      <c r="MO33" s="0"/>
-      <c r="MP33" s="0"/>
-      <c r="MQ33" s="0"/>
-      <c r="MR33" s="0"/>
-      <c r="MS33" s="0"/>
-      <c r="MT33" s="0"/>
-      <c r="MU33" s="0"/>
-      <c r="MV33" s="0"/>
-      <c r="MW33" s="0"/>
-      <c r="MX33" s="0"/>
-      <c r="MY33" s="0"/>
-      <c r="MZ33" s="0"/>
-      <c r="NA33" s="0"/>
-      <c r="NB33" s="0"/>
-      <c r="NC33" s="0"/>
-      <c r="ND33" s="0"/>
-      <c r="NE33" s="0"/>
-      <c r="NF33" s="0"/>
-      <c r="NG33" s="0"/>
-      <c r="NH33" s="0"/>
-      <c r="NI33" s="0"/>
-      <c r="NJ33" s="0"/>
-      <c r="NK33" s="0"/>
-      <c r="NL33" s="0"/>
-      <c r="NM33" s="0"/>
-      <c r="NN33" s="0"/>
-      <c r="NO33" s="0"/>
-      <c r="NP33" s="0"/>
-      <c r="NQ33" s="0"/>
-      <c r="NR33" s="0"/>
-      <c r="NS33" s="0"/>
-      <c r="NT33" s="0"/>
-      <c r="NU33" s="0"/>
-      <c r="NV33" s="0"/>
-      <c r="NW33" s="0"/>
-      <c r="NX33" s="0"/>
-      <c r="NY33" s="0"/>
-      <c r="NZ33" s="0"/>
-      <c r="OA33" s="0"/>
-      <c r="OB33" s="0"/>
-      <c r="OC33" s="0"/>
-      <c r="OD33" s="0"/>
-      <c r="OE33" s="0"/>
-      <c r="OF33" s="0"/>
-      <c r="OG33" s="0"/>
-      <c r="OH33" s="0"/>
-      <c r="OI33" s="0"/>
-      <c r="OJ33" s="0"/>
-      <c r="OK33" s="0"/>
-      <c r="OL33" s="0"/>
-      <c r="OM33" s="0"/>
-      <c r="ON33" s="0"/>
-      <c r="OO33" s="0"/>
-      <c r="OP33" s="0"/>
-      <c r="OQ33" s="0"/>
-      <c r="OR33" s="0"/>
-      <c r="OS33" s="0"/>
-      <c r="OT33" s="0"/>
-      <c r="OU33" s="0"/>
-      <c r="OV33" s="0"/>
-      <c r="OW33" s="0"/>
-      <c r="OX33" s="0"/>
-      <c r="OY33" s="0"/>
-      <c r="OZ33" s="0"/>
-      <c r="PA33" s="0"/>
-      <c r="PB33" s="0"/>
-      <c r="PC33" s="0"/>
-      <c r="PD33" s="0"/>
-      <c r="PE33" s="0"/>
-      <c r="PF33" s="0"/>
-      <c r="PG33" s="0"/>
-      <c r="PH33" s="0"/>
-      <c r="PI33" s="0"/>
-      <c r="PJ33" s="0"/>
-      <c r="PK33" s="0"/>
-      <c r="PL33" s="0"/>
-      <c r="PM33" s="0"/>
-      <c r="PN33" s="0"/>
-      <c r="PO33" s="0"/>
-      <c r="PP33" s="0"/>
-      <c r="PQ33" s="0"/>
-      <c r="PR33" s="0"/>
-      <c r="PS33" s="0"/>
-      <c r="PT33" s="0"/>
-      <c r="PU33" s="0"/>
-      <c r="PV33" s="0"/>
-      <c r="PW33" s="0"/>
-      <c r="PX33" s="0"/>
-      <c r="PY33" s="0"/>
-      <c r="PZ33" s="0"/>
-      <c r="QA33" s="0"/>
-      <c r="QB33" s="0"/>
-      <c r="QC33" s="0"/>
-      <c r="QD33" s="0"/>
-      <c r="QE33" s="0"/>
-      <c r="QF33" s="0"/>
-      <c r="QG33" s="0"/>
-      <c r="QH33" s="0"/>
-      <c r="QI33" s="0"/>
-      <c r="QJ33" s="0"/>
-      <c r="QK33" s="0"/>
-      <c r="QL33" s="0"/>
-      <c r="QM33" s="0"/>
-      <c r="QN33" s="0"/>
-      <c r="QO33" s="0"/>
-      <c r="QP33" s="0"/>
-      <c r="QQ33" s="0"/>
-      <c r="QR33" s="0"/>
-      <c r="QS33" s="0"/>
-      <c r="QT33" s="0"/>
-      <c r="QU33" s="0"/>
-      <c r="QV33" s="0"/>
-      <c r="QW33" s="0"/>
-      <c r="QX33" s="0"/>
-      <c r="QY33" s="0"/>
-      <c r="QZ33" s="0"/>
-      <c r="RA33" s="0"/>
-      <c r="RB33" s="0"/>
-      <c r="RC33" s="0"/>
-      <c r="RD33" s="0"/>
-      <c r="RE33" s="0"/>
-      <c r="RF33" s="0"/>
-      <c r="RG33" s="0"/>
-      <c r="RH33" s="0"/>
-      <c r="RI33" s="0"/>
-      <c r="RJ33" s="0"/>
-      <c r="RK33" s="0"/>
-      <c r="RL33" s="0"/>
-      <c r="RM33" s="0"/>
-      <c r="RN33" s="0"/>
-      <c r="RO33" s="0"/>
-      <c r="RP33" s="0"/>
-      <c r="RQ33" s="0"/>
-      <c r="RR33" s="0"/>
-      <c r="RS33" s="0"/>
-      <c r="RT33" s="0"/>
-      <c r="RU33" s="0"/>
-      <c r="RV33" s="0"/>
-      <c r="RW33" s="0"/>
-      <c r="RX33" s="0"/>
-      <c r="RY33" s="0"/>
-      <c r="RZ33" s="0"/>
-      <c r="SA33" s="0"/>
-      <c r="SB33" s="0"/>
-      <c r="SC33" s="0"/>
-      <c r="SD33" s="0"/>
-      <c r="SE33" s="0"/>
-      <c r="SF33" s="0"/>
-      <c r="SG33" s="0"/>
-      <c r="SH33" s="0"/>
-      <c r="SI33" s="0"/>
-      <c r="SJ33" s="0"/>
-      <c r="SK33" s="0"/>
-      <c r="SL33" s="0"/>
-      <c r="SM33" s="0"/>
-      <c r="SN33" s="0"/>
-      <c r="SO33" s="0"/>
-      <c r="SP33" s="0"/>
-      <c r="SQ33" s="0"/>
-      <c r="SR33" s="0"/>
-      <c r="SS33" s="0"/>
-      <c r="ST33" s="0"/>
-      <c r="SU33" s="0"/>
-      <c r="SV33" s="0"/>
-      <c r="SW33" s="0"/>
-      <c r="SX33" s="0"/>
-      <c r="SY33" s="0"/>
-      <c r="SZ33" s="0"/>
-      <c r="TA33" s="0"/>
-      <c r="TB33" s="0"/>
-      <c r="TC33" s="0"/>
-      <c r="TD33" s="0"/>
-      <c r="TE33" s="0"/>
-      <c r="TF33" s="0"/>
-      <c r="TG33" s="0"/>
-      <c r="TH33" s="0"/>
-      <c r="TI33" s="0"/>
-      <c r="TJ33" s="0"/>
-      <c r="TK33" s="0"/>
-      <c r="TL33" s="0"/>
-      <c r="TM33" s="0"/>
-      <c r="TN33" s="0"/>
-      <c r="TO33" s="0"/>
-      <c r="TP33" s="0"/>
-      <c r="TQ33" s="0"/>
-      <c r="TR33" s="0"/>
-      <c r="TS33" s="0"/>
-      <c r="TT33" s="0"/>
-      <c r="TU33" s="0"/>
-      <c r="TV33" s="0"/>
-      <c r="TW33" s="0"/>
-      <c r="TX33" s="0"/>
-      <c r="TY33" s="0"/>
-      <c r="TZ33" s="0"/>
-      <c r="UA33" s="0"/>
-      <c r="UB33" s="0"/>
-      <c r="UC33" s="0"/>
-      <c r="UD33" s="0"/>
-      <c r="UE33" s="0"/>
-      <c r="UF33" s="0"/>
-      <c r="UG33" s="0"/>
-      <c r="UH33" s="0"/>
-      <c r="UI33" s="0"/>
-      <c r="UJ33" s="0"/>
-      <c r="UK33" s="0"/>
-      <c r="UL33" s="0"/>
-      <c r="UM33" s="0"/>
-      <c r="UN33" s="0"/>
-      <c r="UO33" s="0"/>
-      <c r="UP33" s="0"/>
-      <c r="UQ33" s="0"/>
-      <c r="UR33" s="0"/>
-      <c r="US33" s="0"/>
-      <c r="UT33" s="0"/>
-      <c r="UU33" s="0"/>
-      <c r="UV33" s="0"/>
-      <c r="UW33" s="0"/>
-      <c r="UX33" s="0"/>
-      <c r="UY33" s="0"/>
-      <c r="UZ33" s="0"/>
-      <c r="VA33" s="0"/>
-      <c r="VB33" s="0"/>
-      <c r="VC33" s="0"/>
-      <c r="VD33" s="0"/>
-      <c r="VE33" s="0"/>
-      <c r="VF33" s="0"/>
-      <c r="VG33" s="0"/>
-      <c r="VH33" s="0"/>
-      <c r="VI33" s="0"/>
-      <c r="VJ33" s="0"/>
-      <c r="VK33" s="0"/>
-      <c r="VL33" s="0"/>
-      <c r="VM33" s="0"/>
-      <c r="VN33" s="0"/>
-      <c r="VO33" s="0"/>
-      <c r="VP33" s="0"/>
-      <c r="VQ33" s="0"/>
-      <c r="VR33" s="0"/>
-      <c r="VS33" s="0"/>
-      <c r="VT33" s="0"/>
-      <c r="VU33" s="0"/>
-      <c r="VV33" s="0"/>
-      <c r="VW33" s="0"/>
-      <c r="VX33" s="0"/>
-      <c r="VY33" s="0"/>
-      <c r="VZ33" s="0"/>
-      <c r="WA33" s="0"/>
-      <c r="WB33" s="0"/>
-      <c r="WC33" s="0"/>
-      <c r="WD33" s="0"/>
-      <c r="WE33" s="0"/>
-      <c r="WF33" s="0"/>
-      <c r="WG33" s="0"/>
-      <c r="WH33" s="0"/>
-      <c r="WI33" s="0"/>
-      <c r="WJ33" s="0"/>
-      <c r="WK33" s="0"/>
-      <c r="WL33" s="0"/>
-      <c r="WM33" s="0"/>
-      <c r="WN33" s="0"/>
-      <c r="WO33" s="0"/>
-      <c r="WP33" s="0"/>
-      <c r="WQ33" s="0"/>
-      <c r="WR33" s="0"/>
-      <c r="WS33" s="0"/>
-      <c r="WT33" s="0"/>
-      <c r="WU33" s="0"/>
-      <c r="WV33" s="0"/>
-      <c r="WW33" s="0"/>
-      <c r="WX33" s="0"/>
-      <c r="WY33" s="0"/>
-      <c r="WZ33" s="0"/>
-      <c r="XA33" s="0"/>
-      <c r="XB33" s="0"/>
-      <c r="XC33" s="0"/>
-      <c r="XD33" s="0"/>
-      <c r="XE33" s="0"/>
-      <c r="XF33" s="0"/>
-      <c r="XG33" s="0"/>
-      <c r="XH33" s="0"/>
-      <c r="XI33" s="0"/>
-      <c r="XJ33" s="0"/>
-      <c r="XK33" s="0"/>
-      <c r="XL33" s="0"/>
-      <c r="XM33" s="0"/>
-      <c r="XN33" s="0"/>
-      <c r="XO33" s="0"/>
-      <c r="XP33" s="0"/>
-      <c r="XQ33" s="0"/>
-      <c r="XR33" s="0"/>
-      <c r="XS33" s="0"/>
-      <c r="XT33" s="0"/>
-      <c r="XU33" s="0"/>
-      <c r="XV33" s="0"/>
-      <c r="XW33" s="0"/>
-      <c r="XX33" s="0"/>
-      <c r="XY33" s="0"/>
-      <c r="XZ33" s="0"/>
-      <c r="YA33" s="0"/>
-      <c r="YB33" s="0"/>
-      <c r="YC33" s="0"/>
-      <c r="YD33" s="0"/>
-      <c r="YE33" s="0"/>
-      <c r="YF33" s="0"/>
-      <c r="YG33" s="0"/>
-      <c r="YH33" s="0"/>
-      <c r="YI33" s="0"/>
-      <c r="YJ33" s="0"/>
-      <c r="YK33" s="0"/>
-      <c r="YL33" s="0"/>
-      <c r="YM33" s="0"/>
-      <c r="YN33" s="0"/>
-      <c r="YO33" s="0"/>
-      <c r="YP33" s="0"/>
-      <c r="YQ33" s="0"/>
-      <c r="YR33" s="0"/>
-      <c r="YS33" s="0"/>
-      <c r="YT33" s="0"/>
-      <c r="YU33" s="0"/>
-      <c r="YV33" s="0"/>
-      <c r="YW33" s="0"/>
-      <c r="YX33" s="0"/>
-      <c r="YY33" s="0"/>
-      <c r="YZ33" s="0"/>
-      <c r="ZA33" s="0"/>
-      <c r="ZB33" s="0"/>
-      <c r="ZC33" s="0"/>
-      <c r="ZD33" s="0"/>
-      <c r="ZE33" s="0"/>
-      <c r="ZF33" s="0"/>
-      <c r="ZG33" s="0"/>
-      <c r="ZH33" s="0"/>
-      <c r="ZI33" s="0"/>
-      <c r="ZJ33" s="0"/>
-      <c r="ZK33" s="0"/>
-      <c r="ZL33" s="0"/>
-      <c r="ZM33" s="0"/>
-      <c r="ZN33" s="0"/>
-      <c r="ZO33" s="0"/>
-      <c r="ZP33" s="0"/>
-      <c r="ZQ33" s="0"/>
-      <c r="ZR33" s="0"/>
-      <c r="ZS33" s="0"/>
-      <c r="ZT33" s="0"/>
-      <c r="ZU33" s="0"/>
-      <c r="ZV33" s="0"/>
-      <c r="ZW33" s="0"/>
-      <c r="ZX33" s="0"/>
-      <c r="ZY33" s="0"/>
-      <c r="ZZ33" s="0"/>
-      <c r="AAA33" s="0"/>
-      <c r="AAB33" s="0"/>
-      <c r="AAC33" s="0"/>
-      <c r="AAD33" s="0"/>
-      <c r="AAE33" s="0"/>
-      <c r="AAF33" s="0"/>
-      <c r="AAG33" s="0"/>
-      <c r="AAH33" s="0"/>
-      <c r="AAI33" s="0"/>
-      <c r="AAJ33" s="0"/>
-      <c r="AAK33" s="0"/>
-      <c r="AAL33" s="0"/>
-      <c r="AAM33" s="0"/>
-      <c r="AAN33" s="0"/>
-      <c r="AAO33" s="0"/>
-      <c r="AAP33" s="0"/>
-      <c r="AAQ33" s="0"/>
-      <c r="AAR33" s="0"/>
-      <c r="AAS33" s="0"/>
-      <c r="AAT33" s="0"/>
-      <c r="AAU33" s="0"/>
-      <c r="AAV33" s="0"/>
-      <c r="AAW33" s="0"/>
-      <c r="AAX33" s="0"/>
-      <c r="AAY33" s="0"/>
-      <c r="AAZ33" s="0"/>
-      <c r="ABA33" s="0"/>
-      <c r="ABB33" s="0"/>
-      <c r="ABC33" s="0"/>
-      <c r="ABD33" s="0"/>
-      <c r="ABE33" s="0"/>
-      <c r="ABF33" s="0"/>
-      <c r="ABG33" s="0"/>
-      <c r="ABH33" s="0"/>
-      <c r="ABI33" s="0"/>
-      <c r="ABJ33" s="0"/>
-      <c r="ABK33" s="0"/>
-      <c r="ABL33" s="0"/>
-      <c r="ABM33" s="0"/>
-      <c r="ABN33" s="0"/>
-      <c r="ABO33" s="0"/>
-      <c r="ABP33" s="0"/>
-      <c r="ABQ33" s="0"/>
-      <c r="ABR33" s="0"/>
-      <c r="ABS33" s="0"/>
-      <c r="ABT33" s="0"/>
-      <c r="ABU33" s="0"/>
-      <c r="ABV33" s="0"/>
-      <c r="ABW33" s="0"/>
-      <c r="ABX33" s="0"/>
-      <c r="ABY33" s="0"/>
-      <c r="ABZ33" s="0"/>
-      <c r="ACA33" s="0"/>
-      <c r="ACB33" s="0"/>
-      <c r="ACC33" s="0"/>
-      <c r="ACD33" s="0"/>
-      <c r="ACE33" s="0"/>
-      <c r="ACF33" s="0"/>
-      <c r="ACG33" s="0"/>
-      <c r="ACH33" s="0"/>
-      <c r="ACI33" s="0"/>
-      <c r="ACJ33" s="0"/>
-      <c r="ACK33" s="0"/>
-      <c r="ACL33" s="0"/>
-      <c r="ACM33" s="0"/>
-      <c r="ACN33" s="0"/>
-      <c r="ACO33" s="0"/>
-      <c r="ACP33" s="0"/>
-      <c r="ACQ33" s="0"/>
-      <c r="ACR33" s="0"/>
-      <c r="ACS33" s="0"/>
-      <c r="ACT33" s="0"/>
-      <c r="ACU33" s="0"/>
-      <c r="ACV33" s="0"/>
-      <c r="ACW33" s="0"/>
-      <c r="ACX33" s="0"/>
-      <c r="ACY33" s="0"/>
-      <c r="ACZ33" s="0"/>
-      <c r="ADA33" s="0"/>
-      <c r="ADB33" s="0"/>
-      <c r="ADC33" s="0"/>
-      <c r="ADD33" s="0"/>
-      <c r="ADE33" s="0"/>
-      <c r="ADF33" s="0"/>
-      <c r="ADG33" s="0"/>
-      <c r="ADH33" s="0"/>
-      <c r="ADI33" s="0"/>
-      <c r="ADJ33" s="0"/>
-      <c r="ADK33" s="0"/>
-      <c r="ADL33" s="0"/>
-      <c r="ADM33" s="0"/>
-      <c r="ADN33" s="0"/>
-      <c r="ADO33" s="0"/>
-      <c r="ADP33" s="0"/>
-      <c r="ADQ33" s="0"/>
-      <c r="ADR33" s="0"/>
-      <c r="ADS33" s="0"/>
-      <c r="ADT33" s="0"/>
-      <c r="ADU33" s="0"/>
-      <c r="ADV33" s="0"/>
-      <c r="ADW33" s="0"/>
-      <c r="ADX33" s="0"/>
-      <c r="ADY33" s="0"/>
-      <c r="ADZ33" s="0"/>
-      <c r="AEA33" s="0"/>
-      <c r="AEB33" s="0"/>
-      <c r="AEC33" s="0"/>
-      <c r="AED33" s="0"/>
-      <c r="AEE33" s="0"/>
-      <c r="AEF33" s="0"/>
-      <c r="AEG33" s="0"/>
-      <c r="AEH33" s="0"/>
-      <c r="AEI33" s="0"/>
-      <c r="AEJ33" s="0"/>
-      <c r="AEK33" s="0"/>
-      <c r="AEL33" s="0"/>
-      <c r="AEM33" s="0"/>
-      <c r="AEN33" s="0"/>
-      <c r="AEO33" s="0"/>
-      <c r="AEP33" s="0"/>
-      <c r="AEQ33" s="0"/>
-      <c r="AER33" s="0"/>
-      <c r="AES33" s="0"/>
-      <c r="AET33" s="0"/>
-      <c r="AEU33" s="0"/>
-      <c r="AEV33" s="0"/>
-      <c r="AEW33" s="0"/>
-      <c r="AEX33" s="0"/>
-      <c r="AEY33" s="0"/>
-      <c r="AEZ33" s="0"/>
-      <c r="AFA33" s="0"/>
-      <c r="AFB33" s="0"/>
-      <c r="AFC33" s="0"/>
-      <c r="AFD33" s="0"/>
-      <c r="AFE33" s="0"/>
-      <c r="AFF33" s="0"/>
-      <c r="AFG33" s="0"/>
-      <c r="AFH33" s="0"/>
-      <c r="AFI33" s="0"/>
-      <c r="AFJ33" s="0"/>
-      <c r="AFK33" s="0"/>
-      <c r="AFL33" s="0"/>
-      <c r="AFM33" s="0"/>
-      <c r="AFN33" s="0"/>
-      <c r="AFO33" s="0"/>
-      <c r="AFP33" s="0"/>
-      <c r="AFQ33" s="0"/>
-      <c r="AFR33" s="0"/>
-      <c r="AFS33" s="0"/>
-      <c r="AFT33" s="0"/>
-      <c r="AFU33" s="0"/>
-      <c r="AFV33" s="0"/>
-      <c r="AFW33" s="0"/>
-      <c r="AFX33" s="0"/>
-      <c r="AFY33" s="0"/>
-      <c r="AFZ33" s="0"/>
-      <c r="AGA33" s="0"/>
-      <c r="AGB33" s="0"/>
-      <c r="AGC33" s="0"/>
-      <c r="AGD33" s="0"/>
-      <c r="AGE33" s="0"/>
-      <c r="AGF33" s="0"/>
-      <c r="AGG33" s="0"/>
-      <c r="AGH33" s="0"/>
-      <c r="AGI33" s="0"/>
-      <c r="AGJ33" s="0"/>
-      <c r="AGK33" s="0"/>
-      <c r="AGL33" s="0"/>
-      <c r="AGM33" s="0"/>
-      <c r="AGN33" s="0"/>
-      <c r="AGO33" s="0"/>
-      <c r="AGP33" s="0"/>
-      <c r="AGQ33" s="0"/>
-      <c r="AGR33" s="0"/>
-      <c r="AGS33" s="0"/>
-      <c r="AGT33" s="0"/>
-      <c r="AGU33" s="0"/>
-      <c r="AGV33" s="0"/>
-      <c r="AGW33" s="0"/>
-      <c r="AGX33" s="0"/>
-      <c r="AGY33" s="0"/>
-      <c r="AGZ33" s="0"/>
-      <c r="AHA33" s="0"/>
-      <c r="AHB33" s="0"/>
-      <c r="AHC33" s="0"/>
-      <c r="AHD33" s="0"/>
-      <c r="AHE33" s="0"/>
-      <c r="AHF33" s="0"/>
-      <c r="AHG33" s="0"/>
-      <c r="AHH33" s="0"/>
-      <c r="AHI33" s="0"/>
-      <c r="AHJ33" s="0"/>
-      <c r="AHK33" s="0"/>
-      <c r="AHL33" s="0"/>
-      <c r="AHM33" s="0"/>
-      <c r="AHN33" s="0"/>
-      <c r="AHO33" s="0"/>
-      <c r="AHP33" s="0"/>
-      <c r="AHQ33" s="0"/>
-      <c r="AHR33" s="0"/>
-      <c r="AHS33" s="0"/>
-      <c r="AHT33" s="0"/>
-      <c r="AHU33" s="0"/>
-      <c r="AHV33" s="0"/>
-      <c r="AHW33" s="0"/>
-      <c r="AHX33" s="0"/>
-      <c r="AHY33" s="0"/>
-      <c r="AHZ33" s="0"/>
-      <c r="AIA33" s="0"/>
-      <c r="AIB33" s="0"/>
-      <c r="AIC33" s="0"/>
-      <c r="AID33" s="0"/>
-      <c r="AIE33" s="0"/>
-      <c r="AIF33" s="0"/>
-      <c r="AIG33" s="0"/>
-      <c r="AIH33" s="0"/>
-      <c r="AII33" s="0"/>
-      <c r="AIJ33" s="0"/>
-      <c r="AIK33" s="0"/>
-      <c r="AIL33" s="0"/>
-      <c r="AIM33" s="0"/>
-      <c r="AIN33" s="0"/>
-      <c r="AIO33" s="0"/>
-      <c r="AIP33" s="0"/>
-      <c r="AIQ33" s="0"/>
-      <c r="AIR33" s="0"/>
-      <c r="AIS33" s="0"/>
-      <c r="AIT33" s="0"/>
-      <c r="AIU33" s="0"/>
-      <c r="AIV33" s="0"/>
-      <c r="AIW33" s="0"/>
-      <c r="AIX33" s="0"/>
-      <c r="AIY33" s="0"/>
-      <c r="AIZ33" s="0"/>
-      <c r="AJA33" s="0"/>
-      <c r="AJB33" s="0"/>
-      <c r="AJC33" s="0"/>
-      <c r="AJD33" s="0"/>
-      <c r="AJE33" s="0"/>
-      <c r="AJF33" s="0"/>
-      <c r="AJG33" s="0"/>
-      <c r="AJH33" s="0"/>
-      <c r="AJI33" s="0"/>
-      <c r="AJJ33" s="0"/>
-      <c r="AJK33" s="0"/>
-      <c r="AJL33" s="0"/>
-      <c r="AJM33" s="0"/>
-      <c r="AJN33" s="0"/>
-      <c r="AJO33" s="0"/>
-      <c r="AJP33" s="0"/>
-      <c r="AJQ33" s="0"/>
-      <c r="AJR33" s="0"/>
-      <c r="AJS33" s="0"/>
-      <c r="AJT33" s="0"/>
-      <c r="AJU33" s="0"/>
-      <c r="AJV33" s="0"/>
-      <c r="AJW33" s="0"/>
-      <c r="AJX33" s="0"/>
-      <c r="AJY33" s="0"/>
-      <c r="AJZ33" s="0"/>
-      <c r="AKA33" s="0"/>
-      <c r="AKB33" s="0"/>
-      <c r="AKC33" s="0"/>
-      <c r="AKD33" s="0"/>
-      <c r="AKE33" s="0"/>
-      <c r="AKF33" s="0"/>
-      <c r="AKG33" s="0"/>
-      <c r="AKH33" s="0"/>
-      <c r="AKI33" s="0"/>
-      <c r="AKJ33" s="0"/>
-      <c r="AKK33" s="0"/>
-      <c r="AKL33" s="0"/>
-      <c r="AKM33" s="0"/>
-      <c r="AKN33" s="0"/>
-      <c r="AKO33" s="0"/>
-      <c r="AKP33" s="0"/>
-      <c r="AKQ33" s="0"/>
-      <c r="AKR33" s="0"/>
-      <c r="AKS33" s="0"/>
-      <c r="AKT33" s="0"/>
-      <c r="AKU33" s="0"/>
-      <c r="AKV33" s="0"/>
-      <c r="AKW33" s="0"/>
-      <c r="AKX33" s="0"/>
-      <c r="AKY33" s="0"/>
-      <c r="AKZ33" s="0"/>
-      <c r="ALA33" s="0"/>
-      <c r="ALB33" s="0"/>
-      <c r="ALC33" s="0"/>
-      <c r="ALD33" s="0"/>
-      <c r="ALE33" s="0"/>
-      <c r="ALF33" s="0"/>
-      <c r="ALG33" s="0"/>
-      <c r="ALH33" s="0"/>
-      <c r="ALI33" s="0"/>
-      <c r="ALJ33" s="0"/>
-      <c r="ALK33" s="0"/>
-      <c r="ALL33" s="0"/>
-      <c r="ALM33" s="0"/>
-      <c r="ALN33" s="0"/>
-      <c r="ALO33" s="0"/>
-      <c r="ALP33" s="0"/>
-      <c r="ALQ33" s="0"/>
-      <c r="ALR33" s="0"/>
-      <c r="ALS33" s="0"/>
-      <c r="ALT33" s="0"/>
-      <c r="ALU33" s="0"/>
-      <c r="ALV33" s="0"/>
-      <c r="ALW33" s="0"/>
-      <c r="ALX33" s="0"/>
-      <c r="ALY33" s="0"/>
-      <c r="ALZ33" s="0"/>
-      <c r="AMA33" s="0"/>
-      <c r="AMB33" s="0"/>
-      <c r="AMC33" s="0"/>
-      <c r="AMD33" s="0"/>
-      <c r="AME33" s="0"/>
-      <c r="AMF33" s="0"/>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
       <c r="V34" s="0"/>
       <c r="W34" s="0"/>
       <c r="X34" s="0"/>
@@ -19846,30 +18878,28 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>104</v>
+      <c r="D35" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -20884,38 +19914,42 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="18" t="n">
-        <v>3</v>
+      <c r="B36" s="4"/>
+      <c r="C36" s="7" t="s">
+        <v>102</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
       <c r="V36" s="0"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0"/>
@@ -21920,40 +20954,38 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7" t="s">
+      <c r="E37" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0"/>
@@ -22958,32 +21990,40 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
+    <row r="38" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
+      <c r="D38" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0"/>
@@ -23991,20 +23031,20 @@
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22"/>
       <c r="B39" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>64</v>
+      <c r="C39" s="23" t="s">
+        <v>120</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -25019,27 +24059,31 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0"/>
@@ -27070,20 +26114,12 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>118</v>
-      </c>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -27096,9 +26132,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -28106,12 +27140,20 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
+    <row r="43" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -28124,7 +27166,9 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
+      <c r="R43" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -29132,36 +28176,28 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
+    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
       <c r="V44" s="0"/>
       <c r="W44" s="0"/>
       <c r="X44" s="0"/>
@@ -30166,42 +29202,36 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>124</v>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="n">
+        <v>4</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="7" t="s">
-        <v>125</v>
+      <c r="C45" s="25" t="s">
+        <v>35</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>128</v>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25" t="s">
+        <v>100</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M45" s="7"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0"/>
@@ -31206,38 +30236,42 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="25" t="s">
+      <c r="F46" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24" t="s">
+      <c r="M46" s="7"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0"/>
@@ -32242,32 +31276,38 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22" t="s">
+    <row r="47" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="26" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
+      <c r="D47" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0"/>
@@ -33273,27 +32313,31 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
       <c r="N48" s="24"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0"/>
@@ -34312,7 +33356,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="24"/>
+      <c r="N49" s="26"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -35325,37 +34369,27 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
       <c r="V50" s="0"/>
       <c r="W50" s="0"/>
       <c r="X50" s="0"/>
@@ -36361,27 +35395,37 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
+      <c r="A51" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0"/>
@@ -37389,15 +36433,15 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -38413,37 +37457,27 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
       <c r="V53" s="0"/>
       <c r="W53" s="0"/>
       <c r="X53" s="0"/>
@@ -39448,40 +38482,38 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>142</v>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18" t="n">
+        <v>9</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="E54" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0"/>
@@ -40486,32 +39518,40 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22" t="s">
+    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="31" t="s">
-        <v>64</v>
+      <c r="D55" s="32" t="s">
+        <v>148</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
+      <c r="E55" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0"/>
@@ -41517,27 +40557,31 @@
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0"/>
@@ -43568,26 +42612,18 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>148</v>
-      </c>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K58" s="8"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -44602,28 +43638,36 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
+    <row r="59" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
       <c r="V59" s="0"/>
       <c r="W59" s="0"/>
       <c r="X59" s="0"/>
@@ -46655,37 +45699,27 @@
       <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
       <c r="V61" s="0"/>
       <c r="W61" s="0"/>
       <c r="X61" s="0"/>
@@ -47690,38 +46724,38 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>153</v>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18" t="n">
+        <v>10</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8" t="s">
-        <v>40</v>
+      <c r="C62" s="31" t="s">
+        <v>35</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="D62" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8" t="s">
-        <v>134</v>
+      <c r="E62" s="31" t="s">
+        <v>156</v>
       </c>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0"/>
@@ -48726,32 +47760,38 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22" t="s">
-        <v>156</v>
+    <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>157</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>64</v>
+      <c r="B63" s="4"/>
+      <c r="C63" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
+      <c r="D63" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0"/>
@@ -49757,27 +48797,31 @@
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0"/>
@@ -51808,20 +50852,12 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>157</v>
-      </c>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>159</v>
-      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -51834,9 +50870,7 @@
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
-      <c r="R66" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
@@ -52844,12 +51878,20 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
+    <row r="67" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -52862,7 +51904,9 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
+      <c r="R67" s="7" t="s">
+        <v>126</v>
+      </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -53871,31 +52915,27 @@
       <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
       <c r="V68" s="0"/>
       <c r="W68" s="0"/>
       <c r="X68" s="0"/>
@@ -54900,6 +53940,1036 @@
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="0"/>
+      <c r="W69" s="0"/>
+      <c r="X69" s="0"/>
+      <c r="Y69" s="0"/>
+      <c r="Z69" s="0"/>
+      <c r="AA69" s="0"/>
+      <c r="AB69" s="0"/>
+      <c r="AC69" s="0"/>
+      <c r="AD69" s="0"/>
+      <c r="AE69" s="0"/>
+      <c r="AF69" s="0"/>
+      <c r="AG69" s="0"/>
+      <c r="AH69" s="0"/>
+      <c r="AI69" s="0"/>
+      <c r="AJ69" s="0"/>
+      <c r="AK69" s="0"/>
+      <c r="AL69" s="0"/>
+      <c r="AM69" s="0"/>
+      <c r="AN69" s="0"/>
+      <c r="AO69" s="0"/>
+      <c r="AP69" s="0"/>
+      <c r="AQ69" s="0"/>
+      <c r="AR69" s="0"/>
+      <c r="AS69" s="0"/>
+      <c r="AT69" s="0"/>
+      <c r="AU69" s="0"/>
+      <c r="AV69" s="0"/>
+      <c r="AW69" s="0"/>
+      <c r="AX69" s="0"/>
+      <c r="AY69" s="0"/>
+      <c r="AZ69" s="0"/>
+      <c r="BA69" s="0"/>
+      <c r="BB69" s="0"/>
+      <c r="BC69" s="0"/>
+      <c r="BD69" s="0"/>
+      <c r="BE69" s="0"/>
+      <c r="BF69" s="0"/>
+      <c r="BG69" s="0"/>
+      <c r="BH69" s="0"/>
+      <c r="BI69" s="0"/>
+      <c r="BJ69" s="0"/>
+      <c r="BK69" s="0"/>
+      <c r="BL69" s="0"/>
+      <c r="BM69" s="0"/>
+      <c r="BN69" s="0"/>
+      <c r="BO69" s="0"/>
+      <c r="BP69" s="0"/>
+      <c r="BQ69" s="0"/>
+      <c r="BR69" s="0"/>
+      <c r="BS69" s="0"/>
+      <c r="BT69" s="0"/>
+      <c r="BU69" s="0"/>
+      <c r="BV69" s="0"/>
+      <c r="BW69" s="0"/>
+      <c r="BX69" s="0"/>
+      <c r="BY69" s="0"/>
+      <c r="BZ69" s="0"/>
+      <c r="CA69" s="0"/>
+      <c r="CB69" s="0"/>
+      <c r="CC69" s="0"/>
+      <c r="CD69" s="0"/>
+      <c r="CE69" s="0"/>
+      <c r="CF69" s="0"/>
+      <c r="CG69" s="0"/>
+      <c r="CH69" s="0"/>
+      <c r="CI69" s="0"/>
+      <c r="CJ69" s="0"/>
+      <c r="CK69" s="0"/>
+      <c r="CL69" s="0"/>
+      <c r="CM69" s="0"/>
+      <c r="CN69" s="0"/>
+      <c r="CO69" s="0"/>
+      <c r="CP69" s="0"/>
+      <c r="CQ69" s="0"/>
+      <c r="CR69" s="0"/>
+      <c r="CS69" s="0"/>
+      <c r="CT69" s="0"/>
+      <c r="CU69" s="0"/>
+      <c r="CV69" s="0"/>
+      <c r="CW69" s="0"/>
+      <c r="CX69" s="0"/>
+      <c r="CY69" s="0"/>
+      <c r="CZ69" s="0"/>
+      <c r="DA69" s="0"/>
+      <c r="DB69" s="0"/>
+      <c r="DC69" s="0"/>
+      <c r="DD69" s="0"/>
+      <c r="DE69" s="0"/>
+      <c r="DF69" s="0"/>
+      <c r="DG69" s="0"/>
+      <c r="DH69" s="0"/>
+      <c r="DI69" s="0"/>
+      <c r="DJ69" s="0"/>
+      <c r="DK69" s="0"/>
+      <c r="DL69" s="0"/>
+      <c r="DM69" s="0"/>
+      <c r="DN69" s="0"/>
+      <c r="DO69" s="0"/>
+      <c r="DP69" s="0"/>
+      <c r="DQ69" s="0"/>
+      <c r="DR69" s="0"/>
+      <c r="DS69" s="0"/>
+      <c r="DT69" s="0"/>
+      <c r="DU69" s="0"/>
+      <c r="DV69" s="0"/>
+      <c r="DW69" s="0"/>
+      <c r="DX69" s="0"/>
+      <c r="DY69" s="0"/>
+      <c r="DZ69" s="0"/>
+      <c r="EA69" s="0"/>
+      <c r="EB69" s="0"/>
+      <c r="EC69" s="0"/>
+      <c r="ED69" s="0"/>
+      <c r="EE69" s="0"/>
+      <c r="EF69" s="0"/>
+      <c r="EG69" s="0"/>
+      <c r="EH69" s="0"/>
+      <c r="EI69" s="0"/>
+      <c r="EJ69" s="0"/>
+      <c r="EK69" s="0"/>
+      <c r="EL69" s="0"/>
+      <c r="EM69" s="0"/>
+      <c r="EN69" s="0"/>
+      <c r="EO69" s="0"/>
+      <c r="EP69" s="0"/>
+      <c r="EQ69" s="0"/>
+      <c r="ER69" s="0"/>
+      <c r="ES69" s="0"/>
+      <c r="ET69" s="0"/>
+      <c r="EU69" s="0"/>
+      <c r="EV69" s="0"/>
+      <c r="EW69" s="0"/>
+      <c r="EX69" s="0"/>
+      <c r="EY69" s="0"/>
+      <c r="EZ69" s="0"/>
+      <c r="FA69" s="0"/>
+      <c r="FB69" s="0"/>
+      <c r="FC69" s="0"/>
+      <c r="FD69" s="0"/>
+      <c r="FE69" s="0"/>
+      <c r="FF69" s="0"/>
+      <c r="FG69" s="0"/>
+      <c r="FH69" s="0"/>
+      <c r="FI69" s="0"/>
+      <c r="FJ69" s="0"/>
+      <c r="FK69" s="0"/>
+      <c r="FL69" s="0"/>
+      <c r="FM69" s="0"/>
+      <c r="FN69" s="0"/>
+      <c r="FO69" s="0"/>
+      <c r="FP69" s="0"/>
+      <c r="FQ69" s="0"/>
+      <c r="FR69" s="0"/>
+      <c r="FS69" s="0"/>
+      <c r="FT69" s="0"/>
+      <c r="FU69" s="0"/>
+      <c r="FV69" s="0"/>
+      <c r="FW69" s="0"/>
+      <c r="FX69" s="0"/>
+      <c r="FY69" s="0"/>
+      <c r="FZ69" s="0"/>
+      <c r="GA69" s="0"/>
+      <c r="GB69" s="0"/>
+      <c r="GC69" s="0"/>
+      <c r="GD69" s="0"/>
+      <c r="GE69" s="0"/>
+      <c r="GF69" s="0"/>
+      <c r="GG69" s="0"/>
+      <c r="GH69" s="0"/>
+      <c r="GI69" s="0"/>
+      <c r="GJ69" s="0"/>
+      <c r="GK69" s="0"/>
+      <c r="GL69" s="0"/>
+      <c r="GM69" s="0"/>
+      <c r="GN69" s="0"/>
+      <c r="GO69" s="0"/>
+      <c r="GP69" s="0"/>
+      <c r="GQ69" s="0"/>
+      <c r="GR69" s="0"/>
+      <c r="GS69" s="0"/>
+      <c r="GT69" s="0"/>
+      <c r="GU69" s="0"/>
+      <c r="GV69" s="0"/>
+      <c r="GW69" s="0"/>
+      <c r="GX69" s="0"/>
+      <c r="GY69" s="0"/>
+      <c r="GZ69" s="0"/>
+      <c r="HA69" s="0"/>
+      <c r="HB69" s="0"/>
+      <c r="HC69" s="0"/>
+      <c r="HD69" s="0"/>
+      <c r="HE69" s="0"/>
+      <c r="HF69" s="0"/>
+      <c r="HG69" s="0"/>
+      <c r="HH69" s="0"/>
+      <c r="HI69" s="0"/>
+      <c r="HJ69" s="0"/>
+      <c r="HK69" s="0"/>
+      <c r="HL69" s="0"/>
+      <c r="HM69" s="0"/>
+      <c r="HN69" s="0"/>
+      <c r="HO69" s="0"/>
+      <c r="HP69" s="0"/>
+      <c r="HQ69" s="0"/>
+      <c r="HR69" s="0"/>
+      <c r="HS69" s="0"/>
+      <c r="HT69" s="0"/>
+      <c r="HU69" s="0"/>
+      <c r="HV69" s="0"/>
+      <c r="HW69" s="0"/>
+      <c r="HX69" s="0"/>
+      <c r="HY69" s="0"/>
+      <c r="HZ69" s="0"/>
+      <c r="IA69" s="0"/>
+      <c r="IB69" s="0"/>
+      <c r="IC69" s="0"/>
+      <c r="ID69" s="0"/>
+      <c r="IE69" s="0"/>
+      <c r="IF69" s="0"/>
+      <c r="IG69" s="0"/>
+      <c r="IH69" s="0"/>
+      <c r="II69" s="0"/>
+      <c r="IJ69" s="0"/>
+      <c r="IK69" s="0"/>
+      <c r="IL69" s="0"/>
+      <c r="IM69" s="0"/>
+      <c r="IN69" s="0"/>
+      <c r="IO69" s="0"/>
+      <c r="IP69" s="0"/>
+      <c r="IQ69" s="0"/>
+      <c r="IR69" s="0"/>
+      <c r="IS69" s="0"/>
+      <c r="IT69" s="0"/>
+      <c r="IU69" s="0"/>
+      <c r="IV69" s="0"/>
+      <c r="IW69" s="0"/>
+      <c r="IX69" s="0"/>
+      <c r="IY69" s="0"/>
+      <c r="IZ69" s="0"/>
+      <c r="JA69" s="0"/>
+      <c r="JB69" s="0"/>
+      <c r="JC69" s="0"/>
+      <c r="JD69" s="0"/>
+      <c r="JE69" s="0"/>
+      <c r="JF69" s="0"/>
+      <c r="JG69" s="0"/>
+      <c r="JH69" s="0"/>
+      <c r="JI69" s="0"/>
+      <c r="JJ69" s="0"/>
+      <c r="JK69" s="0"/>
+      <c r="JL69" s="0"/>
+      <c r="JM69" s="0"/>
+      <c r="JN69" s="0"/>
+      <c r="JO69" s="0"/>
+      <c r="JP69" s="0"/>
+      <c r="JQ69" s="0"/>
+      <c r="JR69" s="0"/>
+      <c r="JS69" s="0"/>
+      <c r="JT69" s="0"/>
+      <c r="JU69" s="0"/>
+      <c r="JV69" s="0"/>
+      <c r="JW69" s="0"/>
+      <c r="JX69" s="0"/>
+      <c r="JY69" s="0"/>
+      <c r="JZ69" s="0"/>
+      <c r="KA69" s="0"/>
+      <c r="KB69" s="0"/>
+      <c r="KC69" s="0"/>
+      <c r="KD69" s="0"/>
+      <c r="KE69" s="0"/>
+      <c r="KF69" s="0"/>
+      <c r="KG69" s="0"/>
+      <c r="KH69" s="0"/>
+      <c r="KI69" s="0"/>
+      <c r="KJ69" s="0"/>
+      <c r="KK69" s="0"/>
+      <c r="KL69" s="0"/>
+      <c r="KM69" s="0"/>
+      <c r="KN69" s="0"/>
+      <c r="KO69" s="0"/>
+      <c r="KP69" s="0"/>
+      <c r="KQ69" s="0"/>
+      <c r="KR69" s="0"/>
+      <c r="KS69" s="0"/>
+      <c r="KT69" s="0"/>
+      <c r="KU69" s="0"/>
+      <c r="KV69" s="0"/>
+      <c r="KW69" s="0"/>
+      <c r="KX69" s="0"/>
+      <c r="KY69" s="0"/>
+      <c r="KZ69" s="0"/>
+      <c r="LA69" s="0"/>
+      <c r="LB69" s="0"/>
+      <c r="LC69" s="0"/>
+      <c r="LD69" s="0"/>
+      <c r="LE69" s="0"/>
+      <c r="LF69" s="0"/>
+      <c r="LG69" s="0"/>
+      <c r="LH69" s="0"/>
+      <c r="LI69" s="0"/>
+      <c r="LJ69" s="0"/>
+      <c r="LK69" s="0"/>
+      <c r="LL69" s="0"/>
+      <c r="LM69" s="0"/>
+      <c r="LN69" s="0"/>
+      <c r="LO69" s="0"/>
+      <c r="LP69" s="0"/>
+      <c r="LQ69" s="0"/>
+      <c r="LR69" s="0"/>
+      <c r="LS69" s="0"/>
+      <c r="LT69" s="0"/>
+      <c r="LU69" s="0"/>
+      <c r="LV69" s="0"/>
+      <c r="LW69" s="0"/>
+      <c r="LX69" s="0"/>
+      <c r="LY69" s="0"/>
+      <c r="LZ69" s="0"/>
+      <c r="MA69" s="0"/>
+      <c r="MB69" s="0"/>
+      <c r="MC69" s="0"/>
+      <c r="MD69" s="0"/>
+      <c r="ME69" s="0"/>
+      <c r="MF69" s="0"/>
+      <c r="MG69" s="0"/>
+      <c r="MH69" s="0"/>
+      <c r="MI69" s="0"/>
+      <c r="MJ69" s="0"/>
+      <c r="MK69" s="0"/>
+      <c r="ML69" s="0"/>
+      <c r="MM69" s="0"/>
+      <c r="MN69" s="0"/>
+      <c r="MO69" s="0"/>
+      <c r="MP69" s="0"/>
+      <c r="MQ69" s="0"/>
+      <c r="MR69" s="0"/>
+      <c r="MS69" s="0"/>
+      <c r="MT69" s="0"/>
+      <c r="MU69" s="0"/>
+      <c r="MV69" s="0"/>
+      <c r="MW69" s="0"/>
+      <c r="MX69" s="0"/>
+      <c r="MY69" s="0"/>
+      <c r="MZ69" s="0"/>
+      <c r="NA69" s="0"/>
+      <c r="NB69" s="0"/>
+      <c r="NC69" s="0"/>
+      <c r="ND69" s="0"/>
+      <c r="NE69" s="0"/>
+      <c r="NF69" s="0"/>
+      <c r="NG69" s="0"/>
+      <c r="NH69" s="0"/>
+      <c r="NI69" s="0"/>
+      <c r="NJ69" s="0"/>
+      <c r="NK69" s="0"/>
+      <c r="NL69" s="0"/>
+      <c r="NM69" s="0"/>
+      <c r="NN69" s="0"/>
+      <c r="NO69" s="0"/>
+      <c r="NP69" s="0"/>
+      <c r="NQ69" s="0"/>
+      <c r="NR69" s="0"/>
+      <c r="NS69" s="0"/>
+      <c r="NT69" s="0"/>
+      <c r="NU69" s="0"/>
+      <c r="NV69" s="0"/>
+      <c r="NW69" s="0"/>
+      <c r="NX69" s="0"/>
+      <c r="NY69" s="0"/>
+      <c r="NZ69" s="0"/>
+      <c r="OA69" s="0"/>
+      <c r="OB69" s="0"/>
+      <c r="OC69" s="0"/>
+      <c r="OD69" s="0"/>
+      <c r="OE69" s="0"/>
+      <c r="OF69" s="0"/>
+      <c r="OG69" s="0"/>
+      <c r="OH69" s="0"/>
+      <c r="OI69" s="0"/>
+      <c r="OJ69" s="0"/>
+      <c r="OK69" s="0"/>
+      <c r="OL69" s="0"/>
+      <c r="OM69" s="0"/>
+      <c r="ON69" s="0"/>
+      <c r="OO69" s="0"/>
+      <c r="OP69" s="0"/>
+      <c r="OQ69" s="0"/>
+      <c r="OR69" s="0"/>
+      <c r="OS69" s="0"/>
+      <c r="OT69" s="0"/>
+      <c r="OU69" s="0"/>
+      <c r="OV69" s="0"/>
+      <c r="OW69" s="0"/>
+      <c r="OX69" s="0"/>
+      <c r="OY69" s="0"/>
+      <c r="OZ69" s="0"/>
+      <c r="PA69" s="0"/>
+      <c r="PB69" s="0"/>
+      <c r="PC69" s="0"/>
+      <c r="PD69" s="0"/>
+      <c r="PE69" s="0"/>
+      <c r="PF69" s="0"/>
+      <c r="PG69" s="0"/>
+      <c r="PH69" s="0"/>
+      <c r="PI69" s="0"/>
+      <c r="PJ69" s="0"/>
+      <c r="PK69" s="0"/>
+      <c r="PL69" s="0"/>
+      <c r="PM69" s="0"/>
+      <c r="PN69" s="0"/>
+      <c r="PO69" s="0"/>
+      <c r="PP69" s="0"/>
+      <c r="PQ69" s="0"/>
+      <c r="PR69" s="0"/>
+      <c r="PS69" s="0"/>
+      <c r="PT69" s="0"/>
+      <c r="PU69" s="0"/>
+      <c r="PV69" s="0"/>
+      <c r="PW69" s="0"/>
+      <c r="PX69" s="0"/>
+      <c r="PY69" s="0"/>
+      <c r="PZ69" s="0"/>
+      <c r="QA69" s="0"/>
+      <c r="QB69" s="0"/>
+      <c r="QC69" s="0"/>
+      <c r="QD69" s="0"/>
+      <c r="QE69" s="0"/>
+      <c r="QF69" s="0"/>
+      <c r="QG69" s="0"/>
+      <c r="QH69" s="0"/>
+      <c r="QI69" s="0"/>
+      <c r="QJ69" s="0"/>
+      <c r="QK69" s="0"/>
+      <c r="QL69" s="0"/>
+      <c r="QM69" s="0"/>
+      <c r="QN69" s="0"/>
+      <c r="QO69" s="0"/>
+      <c r="QP69" s="0"/>
+      <c r="QQ69" s="0"/>
+      <c r="QR69" s="0"/>
+      <c r="QS69" s="0"/>
+      <c r="QT69" s="0"/>
+      <c r="QU69" s="0"/>
+      <c r="QV69" s="0"/>
+      <c r="QW69" s="0"/>
+      <c r="QX69" s="0"/>
+      <c r="QY69" s="0"/>
+      <c r="QZ69" s="0"/>
+      <c r="RA69" s="0"/>
+      <c r="RB69" s="0"/>
+      <c r="RC69" s="0"/>
+      <c r="RD69" s="0"/>
+      <c r="RE69" s="0"/>
+      <c r="RF69" s="0"/>
+      <c r="RG69" s="0"/>
+      <c r="RH69" s="0"/>
+      <c r="RI69" s="0"/>
+      <c r="RJ69" s="0"/>
+      <c r="RK69" s="0"/>
+      <c r="RL69" s="0"/>
+      <c r="RM69" s="0"/>
+      <c r="RN69" s="0"/>
+      <c r="RO69" s="0"/>
+      <c r="RP69" s="0"/>
+      <c r="RQ69" s="0"/>
+      <c r="RR69" s="0"/>
+      <c r="RS69" s="0"/>
+      <c r="RT69" s="0"/>
+      <c r="RU69" s="0"/>
+      <c r="RV69" s="0"/>
+      <c r="RW69" s="0"/>
+      <c r="RX69" s="0"/>
+      <c r="RY69" s="0"/>
+      <c r="RZ69" s="0"/>
+      <c r="SA69" s="0"/>
+      <c r="SB69" s="0"/>
+      <c r="SC69" s="0"/>
+      <c r="SD69" s="0"/>
+      <c r="SE69" s="0"/>
+      <c r="SF69" s="0"/>
+      <c r="SG69" s="0"/>
+      <c r="SH69" s="0"/>
+      <c r="SI69" s="0"/>
+      <c r="SJ69" s="0"/>
+      <c r="SK69" s="0"/>
+      <c r="SL69" s="0"/>
+      <c r="SM69" s="0"/>
+      <c r="SN69" s="0"/>
+      <c r="SO69" s="0"/>
+      <c r="SP69" s="0"/>
+      <c r="SQ69" s="0"/>
+      <c r="SR69" s="0"/>
+      <c r="SS69" s="0"/>
+      <c r="ST69" s="0"/>
+      <c r="SU69" s="0"/>
+      <c r="SV69" s="0"/>
+      <c r="SW69" s="0"/>
+      <c r="SX69" s="0"/>
+      <c r="SY69" s="0"/>
+      <c r="SZ69" s="0"/>
+      <c r="TA69" s="0"/>
+      <c r="TB69" s="0"/>
+      <c r="TC69" s="0"/>
+      <c r="TD69" s="0"/>
+      <c r="TE69" s="0"/>
+      <c r="TF69" s="0"/>
+      <c r="TG69" s="0"/>
+      <c r="TH69" s="0"/>
+      <c r="TI69" s="0"/>
+      <c r="TJ69" s="0"/>
+      <c r="TK69" s="0"/>
+      <c r="TL69" s="0"/>
+      <c r="TM69" s="0"/>
+      <c r="TN69" s="0"/>
+      <c r="TO69" s="0"/>
+      <c r="TP69" s="0"/>
+      <c r="TQ69" s="0"/>
+      <c r="TR69" s="0"/>
+      <c r="TS69" s="0"/>
+      <c r="TT69" s="0"/>
+      <c r="TU69" s="0"/>
+      <c r="TV69" s="0"/>
+      <c r="TW69" s="0"/>
+      <c r="TX69" s="0"/>
+      <c r="TY69" s="0"/>
+      <c r="TZ69" s="0"/>
+      <c r="UA69" s="0"/>
+      <c r="UB69" s="0"/>
+      <c r="UC69" s="0"/>
+      <c r="UD69" s="0"/>
+      <c r="UE69" s="0"/>
+      <c r="UF69" s="0"/>
+      <c r="UG69" s="0"/>
+      <c r="UH69" s="0"/>
+      <c r="UI69" s="0"/>
+      <c r="UJ69" s="0"/>
+      <c r="UK69" s="0"/>
+      <c r="UL69" s="0"/>
+      <c r="UM69" s="0"/>
+      <c r="UN69" s="0"/>
+      <c r="UO69" s="0"/>
+      <c r="UP69" s="0"/>
+      <c r="UQ69" s="0"/>
+      <c r="UR69" s="0"/>
+      <c r="US69" s="0"/>
+      <c r="UT69" s="0"/>
+      <c r="UU69" s="0"/>
+      <c r="UV69" s="0"/>
+      <c r="UW69" s="0"/>
+      <c r="UX69" s="0"/>
+      <c r="UY69" s="0"/>
+      <c r="UZ69" s="0"/>
+      <c r="VA69" s="0"/>
+      <c r="VB69" s="0"/>
+      <c r="VC69" s="0"/>
+      <c r="VD69" s="0"/>
+      <c r="VE69" s="0"/>
+      <c r="VF69" s="0"/>
+      <c r="VG69" s="0"/>
+      <c r="VH69" s="0"/>
+      <c r="VI69" s="0"/>
+      <c r="VJ69" s="0"/>
+      <c r="VK69" s="0"/>
+      <c r="VL69" s="0"/>
+      <c r="VM69" s="0"/>
+      <c r="VN69" s="0"/>
+      <c r="VO69" s="0"/>
+      <c r="VP69" s="0"/>
+      <c r="VQ69" s="0"/>
+      <c r="VR69" s="0"/>
+      <c r="VS69" s="0"/>
+      <c r="VT69" s="0"/>
+      <c r="VU69" s="0"/>
+      <c r="VV69" s="0"/>
+      <c r="VW69" s="0"/>
+      <c r="VX69" s="0"/>
+      <c r="VY69" s="0"/>
+      <c r="VZ69" s="0"/>
+      <c r="WA69" s="0"/>
+      <c r="WB69" s="0"/>
+      <c r="WC69" s="0"/>
+      <c r="WD69" s="0"/>
+      <c r="WE69" s="0"/>
+      <c r="WF69" s="0"/>
+      <c r="WG69" s="0"/>
+      <c r="WH69" s="0"/>
+      <c r="WI69" s="0"/>
+      <c r="WJ69" s="0"/>
+      <c r="WK69" s="0"/>
+      <c r="WL69" s="0"/>
+      <c r="WM69" s="0"/>
+      <c r="WN69" s="0"/>
+      <c r="WO69" s="0"/>
+      <c r="WP69" s="0"/>
+      <c r="WQ69" s="0"/>
+      <c r="WR69" s="0"/>
+      <c r="WS69" s="0"/>
+      <c r="WT69" s="0"/>
+      <c r="WU69" s="0"/>
+      <c r="WV69" s="0"/>
+      <c r="WW69" s="0"/>
+      <c r="WX69" s="0"/>
+      <c r="WY69" s="0"/>
+      <c r="WZ69" s="0"/>
+      <c r="XA69" s="0"/>
+      <c r="XB69" s="0"/>
+      <c r="XC69" s="0"/>
+      <c r="XD69" s="0"/>
+      <c r="XE69" s="0"/>
+      <c r="XF69" s="0"/>
+      <c r="XG69" s="0"/>
+      <c r="XH69" s="0"/>
+      <c r="XI69" s="0"/>
+      <c r="XJ69" s="0"/>
+      <c r="XK69" s="0"/>
+      <c r="XL69" s="0"/>
+      <c r="XM69" s="0"/>
+      <c r="XN69" s="0"/>
+      <c r="XO69" s="0"/>
+      <c r="XP69" s="0"/>
+      <c r="XQ69" s="0"/>
+      <c r="XR69" s="0"/>
+      <c r="XS69" s="0"/>
+      <c r="XT69" s="0"/>
+      <c r="XU69" s="0"/>
+      <c r="XV69" s="0"/>
+      <c r="XW69" s="0"/>
+      <c r="XX69" s="0"/>
+      <c r="XY69" s="0"/>
+      <c r="XZ69" s="0"/>
+      <c r="YA69" s="0"/>
+      <c r="YB69" s="0"/>
+      <c r="YC69" s="0"/>
+      <c r="YD69" s="0"/>
+      <c r="YE69" s="0"/>
+      <c r="YF69" s="0"/>
+      <c r="YG69" s="0"/>
+      <c r="YH69" s="0"/>
+      <c r="YI69" s="0"/>
+      <c r="YJ69" s="0"/>
+      <c r="YK69" s="0"/>
+      <c r="YL69" s="0"/>
+      <c r="YM69" s="0"/>
+      <c r="YN69" s="0"/>
+      <c r="YO69" s="0"/>
+      <c r="YP69" s="0"/>
+      <c r="YQ69" s="0"/>
+      <c r="YR69" s="0"/>
+      <c r="YS69" s="0"/>
+      <c r="YT69" s="0"/>
+      <c r="YU69" s="0"/>
+      <c r="YV69" s="0"/>
+      <c r="YW69" s="0"/>
+      <c r="YX69" s="0"/>
+      <c r="YY69" s="0"/>
+      <c r="YZ69" s="0"/>
+      <c r="ZA69" s="0"/>
+      <c r="ZB69" s="0"/>
+      <c r="ZC69" s="0"/>
+      <c r="ZD69" s="0"/>
+      <c r="ZE69" s="0"/>
+      <c r="ZF69" s="0"/>
+      <c r="ZG69" s="0"/>
+      <c r="ZH69" s="0"/>
+      <c r="ZI69" s="0"/>
+      <c r="ZJ69" s="0"/>
+      <c r="ZK69" s="0"/>
+      <c r="ZL69" s="0"/>
+      <c r="ZM69" s="0"/>
+      <c r="ZN69" s="0"/>
+      <c r="ZO69" s="0"/>
+      <c r="ZP69" s="0"/>
+      <c r="ZQ69" s="0"/>
+      <c r="ZR69" s="0"/>
+      <c r="ZS69" s="0"/>
+      <c r="ZT69" s="0"/>
+      <c r="ZU69" s="0"/>
+      <c r="ZV69" s="0"/>
+      <c r="ZW69" s="0"/>
+      <c r="ZX69" s="0"/>
+      <c r="ZY69" s="0"/>
+      <c r="ZZ69" s="0"/>
+      <c r="AAA69" s="0"/>
+      <c r="AAB69" s="0"/>
+      <c r="AAC69" s="0"/>
+      <c r="AAD69" s="0"/>
+      <c r="AAE69" s="0"/>
+      <c r="AAF69" s="0"/>
+      <c r="AAG69" s="0"/>
+      <c r="AAH69" s="0"/>
+      <c r="AAI69" s="0"/>
+      <c r="AAJ69" s="0"/>
+      <c r="AAK69" s="0"/>
+      <c r="AAL69" s="0"/>
+      <c r="AAM69" s="0"/>
+      <c r="AAN69" s="0"/>
+      <c r="AAO69" s="0"/>
+      <c r="AAP69" s="0"/>
+      <c r="AAQ69" s="0"/>
+      <c r="AAR69" s="0"/>
+      <c r="AAS69" s="0"/>
+      <c r="AAT69" s="0"/>
+      <c r="AAU69" s="0"/>
+      <c r="AAV69" s="0"/>
+      <c r="AAW69" s="0"/>
+      <c r="AAX69" s="0"/>
+      <c r="AAY69" s="0"/>
+      <c r="AAZ69" s="0"/>
+      <c r="ABA69" s="0"/>
+      <c r="ABB69" s="0"/>
+      <c r="ABC69" s="0"/>
+      <c r="ABD69" s="0"/>
+      <c r="ABE69" s="0"/>
+      <c r="ABF69" s="0"/>
+      <c r="ABG69" s="0"/>
+      <c r="ABH69" s="0"/>
+      <c r="ABI69" s="0"/>
+      <c r="ABJ69" s="0"/>
+      <c r="ABK69" s="0"/>
+      <c r="ABL69" s="0"/>
+      <c r="ABM69" s="0"/>
+      <c r="ABN69" s="0"/>
+      <c r="ABO69" s="0"/>
+      <c r="ABP69" s="0"/>
+      <c r="ABQ69" s="0"/>
+      <c r="ABR69" s="0"/>
+      <c r="ABS69" s="0"/>
+      <c r="ABT69" s="0"/>
+      <c r="ABU69" s="0"/>
+      <c r="ABV69" s="0"/>
+      <c r="ABW69" s="0"/>
+      <c r="ABX69" s="0"/>
+      <c r="ABY69" s="0"/>
+      <c r="ABZ69" s="0"/>
+      <c r="ACA69" s="0"/>
+      <c r="ACB69" s="0"/>
+      <c r="ACC69" s="0"/>
+      <c r="ACD69" s="0"/>
+      <c r="ACE69" s="0"/>
+      <c r="ACF69" s="0"/>
+      <c r="ACG69" s="0"/>
+      <c r="ACH69" s="0"/>
+      <c r="ACI69" s="0"/>
+      <c r="ACJ69" s="0"/>
+      <c r="ACK69" s="0"/>
+      <c r="ACL69" s="0"/>
+      <c r="ACM69" s="0"/>
+      <c r="ACN69" s="0"/>
+      <c r="ACO69" s="0"/>
+      <c r="ACP69" s="0"/>
+      <c r="ACQ69" s="0"/>
+      <c r="ACR69" s="0"/>
+      <c r="ACS69" s="0"/>
+      <c r="ACT69" s="0"/>
+      <c r="ACU69" s="0"/>
+      <c r="ACV69" s="0"/>
+      <c r="ACW69" s="0"/>
+      <c r="ACX69" s="0"/>
+      <c r="ACY69" s="0"/>
+      <c r="ACZ69" s="0"/>
+      <c r="ADA69" s="0"/>
+      <c r="ADB69" s="0"/>
+      <c r="ADC69" s="0"/>
+      <c r="ADD69" s="0"/>
+      <c r="ADE69" s="0"/>
+      <c r="ADF69" s="0"/>
+      <c r="ADG69" s="0"/>
+      <c r="ADH69" s="0"/>
+      <c r="ADI69" s="0"/>
+      <c r="ADJ69" s="0"/>
+      <c r="ADK69" s="0"/>
+      <c r="ADL69" s="0"/>
+      <c r="ADM69" s="0"/>
+      <c r="ADN69" s="0"/>
+      <c r="ADO69" s="0"/>
+      <c r="ADP69" s="0"/>
+      <c r="ADQ69" s="0"/>
+      <c r="ADR69" s="0"/>
+      <c r="ADS69" s="0"/>
+      <c r="ADT69" s="0"/>
+      <c r="ADU69" s="0"/>
+      <c r="ADV69" s="0"/>
+      <c r="ADW69" s="0"/>
+      <c r="ADX69" s="0"/>
+      <c r="ADY69" s="0"/>
+      <c r="ADZ69" s="0"/>
+      <c r="AEA69" s="0"/>
+      <c r="AEB69" s="0"/>
+      <c r="AEC69" s="0"/>
+      <c r="AED69" s="0"/>
+      <c r="AEE69" s="0"/>
+      <c r="AEF69" s="0"/>
+      <c r="AEG69" s="0"/>
+      <c r="AEH69" s="0"/>
+      <c r="AEI69" s="0"/>
+      <c r="AEJ69" s="0"/>
+      <c r="AEK69" s="0"/>
+      <c r="AEL69" s="0"/>
+      <c r="AEM69" s="0"/>
+      <c r="AEN69" s="0"/>
+      <c r="AEO69" s="0"/>
+      <c r="AEP69" s="0"/>
+      <c r="AEQ69" s="0"/>
+      <c r="AER69" s="0"/>
+      <c r="AES69" s="0"/>
+      <c r="AET69" s="0"/>
+      <c r="AEU69" s="0"/>
+      <c r="AEV69" s="0"/>
+      <c r="AEW69" s="0"/>
+      <c r="AEX69" s="0"/>
+      <c r="AEY69" s="0"/>
+      <c r="AEZ69" s="0"/>
+      <c r="AFA69" s="0"/>
+      <c r="AFB69" s="0"/>
+      <c r="AFC69" s="0"/>
+      <c r="AFD69" s="0"/>
+      <c r="AFE69" s="0"/>
+      <c r="AFF69" s="0"/>
+      <c r="AFG69" s="0"/>
+      <c r="AFH69" s="0"/>
+      <c r="AFI69" s="0"/>
+      <c r="AFJ69" s="0"/>
+      <c r="AFK69" s="0"/>
+      <c r="AFL69" s="0"/>
+      <c r="AFM69" s="0"/>
+      <c r="AFN69" s="0"/>
+      <c r="AFO69" s="0"/>
+      <c r="AFP69" s="0"/>
+      <c r="AFQ69" s="0"/>
+      <c r="AFR69" s="0"/>
+      <c r="AFS69" s="0"/>
+      <c r="AFT69" s="0"/>
+      <c r="AFU69" s="0"/>
+      <c r="AFV69" s="0"/>
+      <c r="AFW69" s="0"/>
+      <c r="AFX69" s="0"/>
+      <c r="AFY69" s="0"/>
+      <c r="AFZ69" s="0"/>
+      <c r="AGA69" s="0"/>
+      <c r="AGB69" s="0"/>
+      <c r="AGC69" s="0"/>
+      <c r="AGD69" s="0"/>
+      <c r="AGE69" s="0"/>
+      <c r="AGF69" s="0"/>
+      <c r="AGG69" s="0"/>
+      <c r="AGH69" s="0"/>
+      <c r="AGI69" s="0"/>
+      <c r="AGJ69" s="0"/>
+      <c r="AGK69" s="0"/>
+      <c r="AGL69" s="0"/>
+      <c r="AGM69" s="0"/>
+      <c r="AGN69" s="0"/>
+      <c r="AGO69" s="0"/>
+      <c r="AGP69" s="0"/>
+      <c r="AGQ69" s="0"/>
+      <c r="AGR69" s="0"/>
+      <c r="AGS69" s="0"/>
+      <c r="AGT69" s="0"/>
+      <c r="AGU69" s="0"/>
+      <c r="AGV69" s="0"/>
+      <c r="AGW69" s="0"/>
+      <c r="AGX69" s="0"/>
+      <c r="AGY69" s="0"/>
+      <c r="AGZ69" s="0"/>
+      <c r="AHA69" s="0"/>
+      <c r="AHB69" s="0"/>
+      <c r="AHC69" s="0"/>
+      <c r="AHD69" s="0"/>
+      <c r="AHE69" s="0"/>
+      <c r="AHF69" s="0"/>
+      <c r="AHG69" s="0"/>
+      <c r="AHH69" s="0"/>
+      <c r="AHI69" s="0"/>
+      <c r="AHJ69" s="0"/>
+      <c r="AHK69" s="0"/>
+      <c r="AHL69" s="0"/>
+      <c r="AHM69" s="0"/>
+      <c r="AHN69" s="0"/>
+      <c r="AHO69" s="0"/>
+      <c r="AHP69" s="0"/>
+      <c r="AHQ69" s="0"/>
+      <c r="AHR69" s="0"/>
+      <c r="AHS69" s="0"/>
+      <c r="AHT69" s="0"/>
+      <c r="AHU69" s="0"/>
+      <c r="AHV69" s="0"/>
+      <c r="AHW69" s="0"/>
+      <c r="AHX69" s="0"/>
+      <c r="AHY69" s="0"/>
+      <c r="AHZ69" s="0"/>
+      <c r="AIA69" s="0"/>
+      <c r="AIB69" s="0"/>
+      <c r="AIC69" s="0"/>
+      <c r="AID69" s="0"/>
+      <c r="AIE69" s="0"/>
+      <c r="AIF69" s="0"/>
+      <c r="AIG69" s="0"/>
+      <c r="AIH69" s="0"/>
+      <c r="AII69" s="0"/>
+      <c r="AIJ69" s="0"/>
+      <c r="AIK69" s="0"/>
+      <c r="AIL69" s="0"/>
+      <c r="AIM69" s="0"/>
+      <c r="AIN69" s="0"/>
+      <c r="AIO69" s="0"/>
+      <c r="AIP69" s="0"/>
+      <c r="AIQ69" s="0"/>
+      <c r="AIR69" s="0"/>
+      <c r="AIS69" s="0"/>
+      <c r="AIT69" s="0"/>
+      <c r="AIU69" s="0"/>
+      <c r="AIV69" s="0"/>
+      <c r="AIW69" s="0"/>
+      <c r="AIX69" s="0"/>
+      <c r="AIY69" s="0"/>
+      <c r="AIZ69" s="0"/>
+      <c r="AJA69" s="0"/>
+      <c r="AJB69" s="0"/>
+      <c r="AJC69" s="0"/>
+      <c r="AJD69" s="0"/>
+      <c r="AJE69" s="0"/>
+      <c r="AJF69" s="0"/>
+      <c r="AJG69" s="0"/>
+      <c r="AJH69" s="0"/>
+      <c r="AJI69" s="0"/>
+      <c r="AJJ69" s="0"/>
+      <c r="AJK69" s="0"/>
+      <c r="AJL69" s="0"/>
+      <c r="AJM69" s="0"/>
+      <c r="AJN69" s="0"/>
+      <c r="AJO69" s="0"/>
+      <c r="AJP69" s="0"/>
+      <c r="AJQ69" s="0"/>
+      <c r="AJR69" s="0"/>
+      <c r="AJS69" s="0"/>
+      <c r="AJT69" s="0"/>
+      <c r="AJU69" s="0"/>
+      <c r="AJV69" s="0"/>
+      <c r="AJW69" s="0"/>
+      <c r="AJX69" s="0"/>
+      <c r="AJY69" s="0"/>
+      <c r="AJZ69" s="0"/>
+      <c r="AKA69" s="0"/>
+      <c r="AKB69" s="0"/>
+      <c r="AKC69" s="0"/>
+      <c r="AKD69" s="0"/>
+      <c r="AKE69" s="0"/>
+      <c r="AKF69" s="0"/>
+      <c r="AKG69" s="0"/>
+      <c r="AKH69" s="0"/>
+      <c r="AKI69" s="0"/>
+      <c r="AKJ69" s="0"/>
+      <c r="AKK69" s="0"/>
+      <c r="AKL69" s="0"/>
+      <c r="AKM69" s="0"/>
+      <c r="AKN69" s="0"/>
+      <c r="AKO69" s="0"/>
+      <c r="AKP69" s="0"/>
+      <c r="AKQ69" s="0"/>
+      <c r="AKR69" s="0"/>
+      <c r="AKS69" s="0"/>
+      <c r="AKT69" s="0"/>
+      <c r="AKU69" s="0"/>
+      <c r="AKV69" s="0"/>
+      <c r="AKW69" s="0"/>
+      <c r="AKX69" s="0"/>
+      <c r="AKY69" s="0"/>
+      <c r="AKZ69" s="0"/>
+      <c r="ALA69" s="0"/>
+      <c r="ALB69" s="0"/>
+      <c r="ALC69" s="0"/>
+      <c r="ALD69" s="0"/>
+      <c r="ALE69" s="0"/>
+      <c r="ALF69" s="0"/>
+      <c r="ALG69" s="0"/>
+      <c r="ALH69" s="0"/>
+      <c r="ALI69" s="0"/>
+      <c r="ALJ69" s="0"/>
+      <c r="ALK69" s="0"/>
+      <c r="ALL69" s="0"/>
+      <c r="ALM69" s="0"/>
+      <c r="ALN69" s="0"/>
+      <c r="ALO69" s="0"/>
+      <c r="ALP69" s="0"/>
+      <c r="ALQ69" s="0"/>
+      <c r="ALR69" s="0"/>
+      <c r="ALS69" s="0"/>
+      <c r="ALT69" s="0"/>
+      <c r="ALU69" s="0"/>
+      <c r="ALV69" s="0"/>
+      <c r="ALW69" s="0"/>
+      <c r="ALX69" s="0"/>
+      <c r="ALY69" s="0"/>
+      <c r="ALZ69" s="0"/>
+      <c r="AMA69" s="0"/>
+      <c r="AMB69" s="0"/>
+      <c r="AMC69" s="0"/>
+      <c r="AMD69" s="0"/>
+      <c r="AME69" s="0"/>
+      <c r="AMF69" s="0"/>
+      <c r="AMG69" s="0"/>
+      <c r="AMH69" s="0"/>
+      <c r="AMI69" s="0"/>
+      <c r="AMJ69" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -54918,11 +54988,11 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.98"/>
@@ -54930,84 +55000,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>161</v>
+    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="35" t="s">
+        <v>165</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>162</v>
+      <c r="D1" s="36" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55033,39 +55103,39 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>177</v>
+      <c r="A1" s="38" t="s">
+        <v>181</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>178</v>
+      <c r="B1" s="38" t="s">
+        <v>182</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>179</v>
+      <c r="C1" s="39" t="s">
+        <v>183</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>180</v>
+      <c r="D1" s="39" t="s">
+        <v>184</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>181</v>
+      <c r="E1" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>

--- a/odk_template_form/ODK-Form-GeoNature-monitoring-Template-With-Site-Creation.xlsx
+++ b/odk_template_form/ODK-Form-GeoNature-monitoring-Template-With-Site-Creation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="191">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -234,6 +234,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">mnemonique=‘</t>
     </r>
@@ -242,6 +243,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">TYPE_SITE</t>
     </r>
@@ -250,9 +252,25 @@
         <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo du site - Import d'une photo prise avec l'appareil du téléphone ou d'une image stockée dans le téléphone propre à la visite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medias_site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photo du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max-pixels=1024</t>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
@@ -420,16 +438,10 @@
     <t xml:space="preserve">Import d'une photo prise avec l'appareil du téléphone ou d'une image stockée dans le téléphone propre à la visite</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
     <t xml:space="preserve">medias_visit</t>
   </si>
   <si>
     <t xml:space="preserve">Photo de la visite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max-pixels=1024</t>
   </si>
   <si>
     <t xml:space="preserve">dataset</t>
@@ -625,7 +637,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -674,16 +686,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -799,7 +801,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -844,12 +846,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -873,10 +875,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,23 +938,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,10 +1039,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ69"/>
+  <dimension ref="A1:AMJ70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12605,1089 +12603,1089 @@
       <c r="D23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="13" t="s">
+    <row r="24" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" s="15" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="D24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
+      <c r="AE24" s="0"/>
+      <c r="AF24" s="0"/>
+      <c r="AG24" s="0"/>
+      <c r="AH24" s="0"/>
+      <c r="AI24" s="0"/>
+      <c r="AJ24" s="0"/>
+      <c r="AK24" s="0"/>
+      <c r="AL24" s="0"/>
+      <c r="AM24" s="0"/>
+      <c r="AN24" s="0"/>
+      <c r="AO24" s="0"/>
+      <c r="AP24" s="0"/>
+      <c r="AQ24" s="0"/>
+      <c r="AR24" s="0"/>
+      <c r="AS24" s="0"/>
+      <c r="AT24" s="0"/>
+      <c r="AU24" s="0"/>
+      <c r="AV24" s="0"/>
+      <c r="AW24" s="0"/>
+      <c r="AX24" s="0"/>
+      <c r="AY24" s="0"/>
+      <c r="AZ24" s="0"/>
+      <c r="BA24" s="0"/>
+      <c r="BB24" s="0"/>
+      <c r="BC24" s="0"/>
+      <c r="BD24" s="0"/>
+      <c r="BE24" s="0"/>
+      <c r="BF24" s="0"/>
+      <c r="BG24" s="0"/>
+      <c r="BH24" s="0"/>
+      <c r="BI24" s="0"/>
+      <c r="BJ24" s="0"/>
+      <c r="BK24" s="0"/>
+      <c r="BL24" s="0"/>
+      <c r="BM24" s="0"/>
+      <c r="BN24" s="0"/>
+      <c r="BO24" s="0"/>
+      <c r="BP24" s="0"/>
+      <c r="BQ24" s="0"/>
+      <c r="BR24" s="0"/>
+      <c r="BS24" s="0"/>
+      <c r="BT24" s="0"/>
+      <c r="BU24" s="0"/>
+      <c r="BV24" s="0"/>
+      <c r="BW24" s="0"/>
+      <c r="BX24" s="0"/>
+      <c r="BY24" s="0"/>
+      <c r="BZ24" s="0"/>
+      <c r="CA24" s="0"/>
+      <c r="CB24" s="0"/>
+      <c r="CC24" s="0"/>
+      <c r="CD24" s="0"/>
+      <c r="CE24" s="0"/>
+      <c r="CF24" s="0"/>
+      <c r="CG24" s="0"/>
+      <c r="CH24" s="0"/>
+      <c r="CI24" s="0"/>
+      <c r="CJ24" s="0"/>
+      <c r="CK24" s="0"/>
+      <c r="CL24" s="0"/>
+      <c r="CM24" s="0"/>
+      <c r="CN24" s="0"/>
+      <c r="CO24" s="0"/>
+      <c r="CP24" s="0"/>
+      <c r="CQ24" s="0"/>
+      <c r="CR24" s="0"/>
+      <c r="CS24" s="0"/>
+      <c r="CT24" s="0"/>
+      <c r="CU24" s="0"/>
+      <c r="CV24" s="0"/>
+      <c r="CW24" s="0"/>
+      <c r="CX24" s="0"/>
+      <c r="CY24" s="0"/>
+      <c r="CZ24" s="0"/>
+      <c r="DA24" s="0"/>
+      <c r="DB24" s="0"/>
+      <c r="DC24" s="0"/>
+      <c r="DD24" s="0"/>
+      <c r="DE24" s="0"/>
+      <c r="DF24" s="0"/>
+      <c r="DG24" s="0"/>
+      <c r="DH24" s="0"/>
+      <c r="DI24" s="0"/>
+      <c r="DJ24" s="0"/>
+      <c r="DK24" s="0"/>
+      <c r="DL24" s="0"/>
+      <c r="DM24" s="0"/>
+      <c r="DN24" s="0"/>
+      <c r="DO24" s="0"/>
+      <c r="DP24" s="0"/>
+      <c r="DQ24" s="0"/>
+      <c r="DR24" s="0"/>
+      <c r="DS24" s="0"/>
+      <c r="DT24" s="0"/>
+      <c r="DU24" s="0"/>
+      <c r="DV24" s="0"/>
+      <c r="DW24" s="0"/>
+      <c r="DX24" s="0"/>
+      <c r="DY24" s="0"/>
+      <c r="DZ24" s="0"/>
+      <c r="EA24" s="0"/>
+      <c r="EB24" s="0"/>
+      <c r="EC24" s="0"/>
+      <c r="ED24" s="0"/>
+      <c r="EE24" s="0"/>
+      <c r="EF24" s="0"/>
+      <c r="EG24" s="0"/>
+      <c r="EH24" s="0"/>
+      <c r="EI24" s="0"/>
+      <c r="EJ24" s="0"/>
+      <c r="EK24" s="0"/>
+      <c r="EL24" s="0"/>
+      <c r="EM24" s="0"/>
+      <c r="EN24" s="0"/>
+      <c r="EO24" s="0"/>
+      <c r="EP24" s="0"/>
+      <c r="EQ24" s="0"/>
+      <c r="ER24" s="0"/>
+      <c r="ES24" s="0"/>
+      <c r="ET24" s="0"/>
+      <c r="EU24" s="0"/>
+      <c r="EV24" s="0"/>
+      <c r="EW24" s="0"/>
+      <c r="EX24" s="0"/>
+      <c r="EY24" s="0"/>
+      <c r="EZ24" s="0"/>
+      <c r="FA24" s="0"/>
+      <c r="FB24" s="0"/>
+      <c r="FC24" s="0"/>
+      <c r="FD24" s="0"/>
+      <c r="FE24" s="0"/>
+      <c r="FF24" s="0"/>
+      <c r="FG24" s="0"/>
+      <c r="FH24" s="0"/>
+      <c r="FI24" s="0"/>
+      <c r="FJ24" s="0"/>
+      <c r="FK24" s="0"/>
+      <c r="FL24" s="0"/>
+      <c r="FM24" s="0"/>
+      <c r="FN24" s="0"/>
+      <c r="FO24" s="0"/>
+      <c r="FP24" s="0"/>
+      <c r="FQ24" s="0"/>
+      <c r="FR24" s="0"/>
+      <c r="FS24" s="0"/>
+      <c r="FT24" s="0"/>
+      <c r="FU24" s="0"/>
+      <c r="FV24" s="0"/>
+      <c r="FW24" s="0"/>
+      <c r="FX24" s="0"/>
+      <c r="FY24" s="0"/>
+      <c r="FZ24" s="0"/>
+      <c r="GA24" s="0"/>
+      <c r="GB24" s="0"/>
+      <c r="GC24" s="0"/>
+      <c r="GD24" s="0"/>
+      <c r="GE24" s="0"/>
+      <c r="GF24" s="0"/>
+      <c r="GG24" s="0"/>
+      <c r="GH24" s="0"/>
+      <c r="GI24" s="0"/>
+      <c r="GJ24" s="0"/>
+      <c r="GK24" s="0"/>
+      <c r="GL24" s="0"/>
+      <c r="GM24" s="0"/>
+      <c r="GN24" s="0"/>
+      <c r="GO24" s="0"/>
+      <c r="GP24" s="0"/>
+      <c r="GQ24" s="0"/>
+      <c r="GR24" s="0"/>
+      <c r="GS24" s="0"/>
+      <c r="GT24" s="0"/>
+      <c r="GU24" s="0"/>
+      <c r="GV24" s="0"/>
+      <c r="GW24" s="0"/>
+      <c r="GX24" s="0"/>
+      <c r="GY24" s="0"/>
+      <c r="GZ24" s="0"/>
+      <c r="HA24" s="0"/>
+      <c r="HB24" s="0"/>
+      <c r="HC24" s="0"/>
+      <c r="HD24" s="0"/>
+      <c r="HE24" s="0"/>
+      <c r="HF24" s="0"/>
+      <c r="HG24" s="0"/>
+      <c r="HH24" s="0"/>
+      <c r="HI24" s="0"/>
+      <c r="HJ24" s="0"/>
+      <c r="HK24" s="0"/>
+      <c r="HL24" s="0"/>
+      <c r="HM24" s="0"/>
+      <c r="HN24" s="0"/>
+      <c r="HO24" s="0"/>
+      <c r="HP24" s="0"/>
+      <c r="HQ24" s="0"/>
+      <c r="HR24" s="0"/>
+      <c r="HS24" s="0"/>
+      <c r="HT24" s="0"/>
+      <c r="HU24" s="0"/>
+      <c r="HV24" s="0"/>
+      <c r="HW24" s="0"/>
+      <c r="HX24" s="0"/>
+      <c r="HY24" s="0"/>
+      <c r="HZ24" s="0"/>
+      <c r="IA24" s="0"/>
+      <c r="IB24" s="0"/>
+      <c r="IC24" s="0"/>
+      <c r="ID24" s="0"/>
+      <c r="IE24" s="0"/>
+      <c r="IF24" s="0"/>
+      <c r="IG24" s="0"/>
+      <c r="IH24" s="0"/>
+      <c r="II24" s="0"/>
+      <c r="IJ24" s="0"/>
+      <c r="IK24" s="0"/>
+      <c r="IL24" s="0"/>
+      <c r="IM24" s="0"/>
+      <c r="IN24" s="0"/>
+      <c r="IO24" s="0"/>
+      <c r="IP24" s="0"/>
+      <c r="IQ24" s="0"/>
+      <c r="IR24" s="0"/>
+      <c r="IS24" s="0"/>
+      <c r="IT24" s="0"/>
+      <c r="IU24" s="0"/>
+      <c r="IV24" s="0"/>
+      <c r="IW24" s="0"/>
+      <c r="IX24" s="0"/>
+      <c r="IY24" s="0"/>
+      <c r="IZ24" s="0"/>
+      <c r="JA24" s="0"/>
+      <c r="JB24" s="0"/>
+      <c r="JC24" s="0"/>
+      <c r="JD24" s="0"/>
+      <c r="JE24" s="0"/>
+      <c r="JF24" s="0"/>
+      <c r="JG24" s="0"/>
+      <c r="JH24" s="0"/>
+      <c r="JI24" s="0"/>
+      <c r="JJ24" s="0"/>
+      <c r="JK24" s="0"/>
+      <c r="JL24" s="0"/>
+      <c r="JM24" s="0"/>
+      <c r="JN24" s="0"/>
+      <c r="JO24" s="0"/>
+      <c r="JP24" s="0"/>
+      <c r="JQ24" s="0"/>
+      <c r="JR24" s="0"/>
+      <c r="JS24" s="0"/>
+      <c r="JT24" s="0"/>
+      <c r="JU24" s="0"/>
+      <c r="JV24" s="0"/>
+      <c r="JW24" s="0"/>
+      <c r="JX24" s="0"/>
+      <c r="JY24" s="0"/>
+      <c r="JZ24" s="0"/>
+      <c r="KA24" s="0"/>
+      <c r="KB24" s="0"/>
+      <c r="KC24" s="0"/>
+      <c r="KD24" s="0"/>
+      <c r="KE24" s="0"/>
+      <c r="KF24" s="0"/>
+      <c r="KG24" s="0"/>
+      <c r="KH24" s="0"/>
+      <c r="KI24" s="0"/>
+      <c r="KJ24" s="0"/>
+      <c r="KK24" s="0"/>
+      <c r="KL24" s="0"/>
+      <c r="KM24" s="0"/>
+      <c r="KN24" s="0"/>
+      <c r="KO24" s="0"/>
+      <c r="KP24" s="0"/>
+      <c r="KQ24" s="0"/>
+      <c r="KR24" s="0"/>
+      <c r="KS24" s="0"/>
+      <c r="KT24" s="0"/>
+      <c r="KU24" s="0"/>
+      <c r="KV24" s="0"/>
+      <c r="KW24" s="0"/>
+      <c r="KX24" s="0"/>
+      <c r="KY24" s="0"/>
+      <c r="KZ24" s="0"/>
+      <c r="LA24" s="0"/>
+      <c r="LB24" s="0"/>
+      <c r="LC24" s="0"/>
+      <c r="LD24" s="0"/>
+      <c r="LE24" s="0"/>
+      <c r="LF24" s="0"/>
+      <c r="LG24" s="0"/>
+      <c r="LH24" s="0"/>
+      <c r="LI24" s="0"/>
+      <c r="LJ24" s="0"/>
+      <c r="LK24" s="0"/>
+      <c r="LL24" s="0"/>
+      <c r="LM24" s="0"/>
+      <c r="LN24" s="0"/>
+      <c r="LO24" s="0"/>
+      <c r="LP24" s="0"/>
+      <c r="LQ24" s="0"/>
+      <c r="LR24" s="0"/>
+      <c r="LS24" s="0"/>
+      <c r="LT24" s="0"/>
+      <c r="LU24" s="0"/>
+      <c r="LV24" s="0"/>
+      <c r="LW24" s="0"/>
+      <c r="LX24" s="0"/>
+      <c r="LY24" s="0"/>
+      <c r="LZ24" s="0"/>
+      <c r="MA24" s="0"/>
+      <c r="MB24" s="0"/>
+      <c r="MC24" s="0"/>
+      <c r="MD24" s="0"/>
+      <c r="ME24" s="0"/>
+      <c r="MF24" s="0"/>
+      <c r="MG24" s="0"/>
+      <c r="MH24" s="0"/>
+      <c r="MI24" s="0"/>
+      <c r="MJ24" s="0"/>
+      <c r="MK24" s="0"/>
+      <c r="ML24" s="0"/>
+      <c r="MM24" s="0"/>
+      <c r="MN24" s="0"/>
+      <c r="MO24" s="0"/>
+      <c r="MP24" s="0"/>
+      <c r="MQ24" s="0"/>
+      <c r="MR24" s="0"/>
+      <c r="MS24" s="0"/>
+      <c r="MT24" s="0"/>
+      <c r="MU24" s="0"/>
+      <c r="MV24" s="0"/>
+      <c r="MW24" s="0"/>
+      <c r="MX24" s="0"/>
+      <c r="MY24" s="0"/>
+      <c r="MZ24" s="0"/>
+      <c r="NA24" s="0"/>
+      <c r="NB24" s="0"/>
+      <c r="NC24" s="0"/>
+      <c r="ND24" s="0"/>
+      <c r="NE24" s="0"/>
+      <c r="NF24" s="0"/>
+      <c r="NG24" s="0"/>
+      <c r="NH24" s="0"/>
+      <c r="NI24" s="0"/>
+      <c r="NJ24" s="0"/>
+      <c r="NK24" s="0"/>
+      <c r="NL24" s="0"/>
+      <c r="NM24" s="0"/>
+      <c r="NN24" s="0"/>
+      <c r="NO24" s="0"/>
+      <c r="NP24" s="0"/>
+      <c r="NQ24" s="0"/>
+      <c r="NR24" s="0"/>
+      <c r="NS24" s="0"/>
+      <c r="NT24" s="0"/>
+      <c r="NU24" s="0"/>
+      <c r="NV24" s="0"/>
+      <c r="NW24" s="0"/>
+      <c r="NX24" s="0"/>
+      <c r="NY24" s="0"/>
+      <c r="NZ24" s="0"/>
+      <c r="OA24" s="0"/>
+      <c r="OB24" s="0"/>
+      <c r="OC24" s="0"/>
+      <c r="OD24" s="0"/>
+      <c r="OE24" s="0"/>
+      <c r="OF24" s="0"/>
+      <c r="OG24" s="0"/>
+      <c r="OH24" s="0"/>
+      <c r="OI24" s="0"/>
+      <c r="OJ24" s="0"/>
+      <c r="OK24" s="0"/>
+      <c r="OL24" s="0"/>
+      <c r="OM24" s="0"/>
+      <c r="ON24" s="0"/>
+      <c r="OO24" s="0"/>
+      <c r="OP24" s="0"/>
+      <c r="OQ24" s="0"/>
+      <c r="OR24" s="0"/>
+      <c r="OS24" s="0"/>
+      <c r="OT24" s="0"/>
+      <c r="OU24" s="0"/>
+      <c r="OV24" s="0"/>
+      <c r="OW24" s="0"/>
+      <c r="OX24" s="0"/>
+      <c r="OY24" s="0"/>
+      <c r="OZ24" s="0"/>
+      <c r="PA24" s="0"/>
+      <c r="PB24" s="0"/>
+      <c r="PC24" s="0"/>
+      <c r="PD24" s="0"/>
+      <c r="PE24" s="0"/>
+      <c r="PF24" s="0"/>
+      <c r="PG24" s="0"/>
+      <c r="PH24" s="0"/>
+      <c r="PI24" s="0"/>
+      <c r="PJ24" s="0"/>
+      <c r="PK24" s="0"/>
+      <c r="PL24" s="0"/>
+      <c r="PM24" s="0"/>
+      <c r="PN24" s="0"/>
+      <c r="PO24" s="0"/>
+      <c r="PP24" s="0"/>
+      <c r="PQ24" s="0"/>
+      <c r="PR24" s="0"/>
+      <c r="PS24" s="0"/>
+      <c r="PT24" s="0"/>
+      <c r="PU24" s="0"/>
+      <c r="PV24" s="0"/>
+      <c r="PW24" s="0"/>
+      <c r="PX24" s="0"/>
+      <c r="PY24" s="0"/>
+      <c r="PZ24" s="0"/>
+      <c r="QA24" s="0"/>
+      <c r="QB24" s="0"/>
+      <c r="QC24" s="0"/>
+      <c r="QD24" s="0"/>
+      <c r="QE24" s="0"/>
+      <c r="QF24" s="0"/>
+      <c r="QG24" s="0"/>
+      <c r="QH24" s="0"/>
+      <c r="QI24" s="0"/>
+      <c r="QJ24" s="0"/>
+      <c r="QK24" s="0"/>
+      <c r="QL24" s="0"/>
+      <c r="QM24" s="0"/>
+      <c r="QN24" s="0"/>
+      <c r="QO24" s="0"/>
+      <c r="QP24" s="0"/>
+      <c r="QQ24" s="0"/>
+      <c r="QR24" s="0"/>
+      <c r="QS24" s="0"/>
+      <c r="QT24" s="0"/>
+      <c r="QU24" s="0"/>
+      <c r="QV24" s="0"/>
+      <c r="QW24" s="0"/>
+      <c r="QX24" s="0"/>
+      <c r="QY24" s="0"/>
+      <c r="QZ24" s="0"/>
+      <c r="RA24" s="0"/>
+      <c r="RB24" s="0"/>
+      <c r="RC24" s="0"/>
+      <c r="RD24" s="0"/>
+      <c r="RE24" s="0"/>
+      <c r="RF24" s="0"/>
+      <c r="RG24" s="0"/>
+      <c r="RH24" s="0"/>
+      <c r="RI24" s="0"/>
+      <c r="RJ24" s="0"/>
+      <c r="RK24" s="0"/>
+      <c r="RL24" s="0"/>
+      <c r="RM24" s="0"/>
+      <c r="RN24" s="0"/>
+      <c r="RO24" s="0"/>
+      <c r="RP24" s="0"/>
+      <c r="RQ24" s="0"/>
+      <c r="RR24" s="0"/>
+      <c r="RS24" s="0"/>
+      <c r="RT24" s="0"/>
+      <c r="RU24" s="0"/>
+      <c r="RV24" s="0"/>
+      <c r="RW24" s="0"/>
+      <c r="RX24" s="0"/>
+      <c r="RY24" s="0"/>
+      <c r="RZ24" s="0"/>
+      <c r="SA24" s="0"/>
+      <c r="SB24" s="0"/>
+      <c r="SC24" s="0"/>
+      <c r="SD24" s="0"/>
+      <c r="SE24" s="0"/>
+      <c r="SF24" s="0"/>
+      <c r="SG24" s="0"/>
+      <c r="SH24" s="0"/>
+      <c r="SI24" s="0"/>
+      <c r="SJ24" s="0"/>
+      <c r="SK24" s="0"/>
+      <c r="SL24" s="0"/>
+      <c r="SM24" s="0"/>
+      <c r="SN24" s="0"/>
+      <c r="SO24" s="0"/>
+      <c r="SP24" s="0"/>
+      <c r="SQ24" s="0"/>
+      <c r="SR24" s="0"/>
+      <c r="SS24" s="0"/>
+      <c r="ST24" s="0"/>
+      <c r="SU24" s="0"/>
+      <c r="SV24" s="0"/>
+      <c r="SW24" s="0"/>
+      <c r="SX24" s="0"/>
+      <c r="SY24" s="0"/>
+      <c r="SZ24" s="0"/>
+      <c r="TA24" s="0"/>
+      <c r="TB24" s="0"/>
+      <c r="TC24" s="0"/>
+      <c r="TD24" s="0"/>
+      <c r="TE24" s="0"/>
+      <c r="TF24" s="0"/>
+      <c r="TG24" s="0"/>
+      <c r="TH24" s="0"/>
+      <c r="TI24" s="0"/>
+      <c r="TJ24" s="0"/>
+      <c r="TK24" s="0"/>
+      <c r="TL24" s="0"/>
+      <c r="TM24" s="0"/>
+      <c r="TN24" s="0"/>
+      <c r="TO24" s="0"/>
+      <c r="TP24" s="0"/>
+      <c r="TQ24" s="0"/>
+      <c r="TR24" s="0"/>
+      <c r="TS24" s="0"/>
+      <c r="TT24" s="0"/>
+      <c r="TU24" s="0"/>
+      <c r="TV24" s="0"/>
+      <c r="TW24" s="0"/>
+      <c r="TX24" s="0"/>
+      <c r="TY24" s="0"/>
+      <c r="TZ24" s="0"/>
+      <c r="UA24" s="0"/>
+      <c r="UB24" s="0"/>
+      <c r="UC24" s="0"/>
+      <c r="UD24" s="0"/>
+      <c r="UE24" s="0"/>
+      <c r="UF24" s="0"/>
+      <c r="UG24" s="0"/>
+      <c r="UH24" s="0"/>
+      <c r="UI24" s="0"/>
+      <c r="UJ24" s="0"/>
+      <c r="UK24" s="0"/>
+      <c r="UL24" s="0"/>
+      <c r="UM24" s="0"/>
+      <c r="UN24" s="0"/>
+      <c r="UO24" s="0"/>
+      <c r="UP24" s="0"/>
+      <c r="UQ24" s="0"/>
+      <c r="UR24" s="0"/>
+      <c r="US24" s="0"/>
+      <c r="UT24" s="0"/>
+      <c r="UU24" s="0"/>
+      <c r="UV24" s="0"/>
+      <c r="UW24" s="0"/>
+      <c r="UX24" s="0"/>
+      <c r="UY24" s="0"/>
+      <c r="UZ24" s="0"/>
+      <c r="VA24" s="0"/>
+      <c r="VB24" s="0"/>
+      <c r="VC24" s="0"/>
+      <c r="VD24" s="0"/>
+      <c r="VE24" s="0"/>
+      <c r="VF24" s="0"/>
+      <c r="VG24" s="0"/>
+      <c r="VH24" s="0"/>
+      <c r="VI24" s="0"/>
+      <c r="VJ24" s="0"/>
+      <c r="VK24" s="0"/>
+      <c r="VL24" s="0"/>
+      <c r="VM24" s="0"/>
+      <c r="VN24" s="0"/>
+      <c r="VO24" s="0"/>
+      <c r="VP24" s="0"/>
+      <c r="VQ24" s="0"/>
+      <c r="VR24" s="0"/>
+      <c r="VS24" s="0"/>
+      <c r="VT24" s="0"/>
+      <c r="VU24" s="0"/>
+      <c r="VV24" s="0"/>
+      <c r="VW24" s="0"/>
+      <c r="VX24" s="0"/>
+      <c r="VY24" s="0"/>
+      <c r="VZ24" s="0"/>
+      <c r="WA24" s="0"/>
+      <c r="WB24" s="0"/>
+      <c r="WC24" s="0"/>
+      <c r="WD24" s="0"/>
+      <c r="WE24" s="0"/>
+      <c r="WF24" s="0"/>
+      <c r="WG24" s="0"/>
+      <c r="WH24" s="0"/>
+      <c r="WI24" s="0"/>
+      <c r="WJ24" s="0"/>
+      <c r="WK24" s="0"/>
+      <c r="WL24" s="0"/>
+      <c r="WM24" s="0"/>
+      <c r="WN24" s="0"/>
+      <c r="WO24" s="0"/>
+      <c r="WP24" s="0"/>
+      <c r="WQ24" s="0"/>
+      <c r="WR24" s="0"/>
+      <c r="WS24" s="0"/>
+      <c r="WT24" s="0"/>
+      <c r="WU24" s="0"/>
+      <c r="WV24" s="0"/>
+      <c r="WW24" s="0"/>
+      <c r="WX24" s="0"/>
+      <c r="WY24" s="0"/>
+      <c r="WZ24" s="0"/>
+      <c r="XA24" s="0"/>
+      <c r="XB24" s="0"/>
+      <c r="XC24" s="0"/>
+      <c r="XD24" s="0"/>
+      <c r="XE24" s="0"/>
+      <c r="XF24" s="0"/>
+      <c r="XG24" s="0"/>
+      <c r="XH24" s="0"/>
+      <c r="XI24" s="0"/>
+      <c r="XJ24" s="0"/>
+      <c r="XK24" s="0"/>
+      <c r="XL24" s="0"/>
+      <c r="XM24" s="0"/>
+      <c r="XN24" s="0"/>
+      <c r="XO24" s="0"/>
+      <c r="XP24" s="0"/>
+      <c r="XQ24" s="0"/>
+      <c r="XR24" s="0"/>
+      <c r="XS24" s="0"/>
+      <c r="XT24" s="0"/>
+      <c r="XU24" s="0"/>
+      <c r="XV24" s="0"/>
+      <c r="XW24" s="0"/>
+      <c r="XX24" s="0"/>
+      <c r="XY24" s="0"/>
+      <c r="XZ24" s="0"/>
+      <c r="YA24" s="0"/>
+      <c r="YB24" s="0"/>
+      <c r="YC24" s="0"/>
+      <c r="YD24" s="0"/>
+      <c r="YE24" s="0"/>
+      <c r="YF24" s="0"/>
+      <c r="YG24" s="0"/>
+      <c r="YH24" s="0"/>
+      <c r="YI24" s="0"/>
+      <c r="YJ24" s="0"/>
+      <c r="YK24" s="0"/>
+      <c r="YL24" s="0"/>
+      <c r="YM24" s="0"/>
+      <c r="YN24" s="0"/>
+      <c r="YO24" s="0"/>
+      <c r="YP24" s="0"/>
+      <c r="YQ24" s="0"/>
+      <c r="YR24" s="0"/>
+      <c r="YS24" s="0"/>
+      <c r="YT24" s="0"/>
+      <c r="YU24" s="0"/>
+      <c r="YV24" s="0"/>
+      <c r="YW24" s="0"/>
+      <c r="YX24" s="0"/>
+      <c r="YY24" s="0"/>
+      <c r="YZ24" s="0"/>
+      <c r="ZA24" s="0"/>
+      <c r="ZB24" s="0"/>
+      <c r="ZC24" s="0"/>
+      <c r="ZD24" s="0"/>
+      <c r="ZE24" s="0"/>
+      <c r="ZF24" s="0"/>
+      <c r="ZG24" s="0"/>
+      <c r="ZH24" s="0"/>
+      <c r="ZI24" s="0"/>
+      <c r="ZJ24" s="0"/>
+      <c r="ZK24" s="0"/>
+      <c r="ZL24" s="0"/>
+      <c r="ZM24" s="0"/>
+      <c r="ZN24" s="0"/>
+      <c r="ZO24" s="0"/>
+      <c r="ZP24" s="0"/>
+      <c r="ZQ24" s="0"/>
+      <c r="ZR24" s="0"/>
+      <c r="ZS24" s="0"/>
+      <c r="ZT24" s="0"/>
+      <c r="ZU24" s="0"/>
+      <c r="ZV24" s="0"/>
+      <c r="ZW24" s="0"/>
+      <c r="ZX24" s="0"/>
+      <c r="ZY24" s="0"/>
+      <c r="ZZ24" s="0"/>
+      <c r="AAA24" s="0"/>
+      <c r="AAB24" s="0"/>
+      <c r="AAC24" s="0"/>
+      <c r="AAD24" s="0"/>
+      <c r="AAE24" s="0"/>
+      <c r="AAF24" s="0"/>
+      <c r="AAG24" s="0"/>
+      <c r="AAH24" s="0"/>
+      <c r="AAI24" s="0"/>
+      <c r="AAJ24" s="0"/>
+      <c r="AAK24" s="0"/>
+      <c r="AAL24" s="0"/>
+      <c r="AAM24" s="0"/>
+      <c r="AAN24" s="0"/>
+      <c r="AAO24" s="0"/>
+      <c r="AAP24" s="0"/>
+      <c r="AAQ24" s="0"/>
+      <c r="AAR24" s="0"/>
+      <c r="AAS24" s="0"/>
+      <c r="AAT24" s="0"/>
+      <c r="AAU24" s="0"/>
+      <c r="AAV24" s="0"/>
+      <c r="AAW24" s="0"/>
+      <c r="AAX24" s="0"/>
+      <c r="AAY24" s="0"/>
+      <c r="AAZ24" s="0"/>
+      <c r="ABA24" s="0"/>
+      <c r="ABB24" s="0"/>
+      <c r="ABC24" s="0"/>
+      <c r="ABD24" s="0"/>
+      <c r="ABE24" s="0"/>
+      <c r="ABF24" s="0"/>
+      <c r="ABG24" s="0"/>
+      <c r="ABH24" s="0"/>
+      <c r="ABI24" s="0"/>
+      <c r="ABJ24" s="0"/>
+      <c r="ABK24" s="0"/>
+      <c r="ABL24" s="0"/>
+      <c r="ABM24" s="0"/>
+      <c r="ABN24" s="0"/>
+      <c r="ABO24" s="0"/>
+      <c r="ABP24" s="0"/>
+      <c r="ABQ24" s="0"/>
+      <c r="ABR24" s="0"/>
+      <c r="ABS24" s="0"/>
+      <c r="ABT24" s="0"/>
+      <c r="ABU24" s="0"/>
+      <c r="ABV24" s="0"/>
+      <c r="ABW24" s="0"/>
+      <c r="ABX24" s="0"/>
+      <c r="ABY24" s="0"/>
+      <c r="ABZ24" s="0"/>
+      <c r="ACA24" s="0"/>
+      <c r="ACB24" s="0"/>
+      <c r="ACC24" s="0"/>
+      <c r="ACD24" s="0"/>
+      <c r="ACE24" s="0"/>
+      <c r="ACF24" s="0"/>
+      <c r="ACG24" s="0"/>
+      <c r="ACH24" s="0"/>
+      <c r="ACI24" s="0"/>
+      <c r="ACJ24" s="0"/>
+      <c r="ACK24" s="0"/>
+      <c r="ACL24" s="0"/>
+      <c r="ACM24" s="0"/>
+      <c r="ACN24" s="0"/>
+      <c r="ACO24" s="0"/>
+      <c r="ACP24" s="0"/>
+      <c r="ACQ24" s="0"/>
+      <c r="ACR24" s="0"/>
+      <c r="ACS24" s="0"/>
+      <c r="ACT24" s="0"/>
+      <c r="ACU24" s="0"/>
+      <c r="ACV24" s="0"/>
+      <c r="ACW24" s="0"/>
+      <c r="ACX24" s="0"/>
+      <c r="ACY24" s="0"/>
+      <c r="ACZ24" s="0"/>
+      <c r="ADA24" s="0"/>
+      <c r="ADB24" s="0"/>
+      <c r="ADC24" s="0"/>
+      <c r="ADD24" s="0"/>
+      <c r="ADE24" s="0"/>
+      <c r="ADF24" s="0"/>
+      <c r="ADG24" s="0"/>
+      <c r="ADH24" s="0"/>
+      <c r="ADI24" s="0"/>
+      <c r="ADJ24" s="0"/>
+      <c r="ADK24" s="0"/>
+      <c r="ADL24" s="0"/>
+      <c r="ADM24" s="0"/>
+      <c r="ADN24" s="0"/>
+      <c r="ADO24" s="0"/>
+      <c r="ADP24" s="0"/>
+      <c r="ADQ24" s="0"/>
+      <c r="ADR24" s="0"/>
+      <c r="ADS24" s="0"/>
+      <c r="ADT24" s="0"/>
+      <c r="ADU24" s="0"/>
+      <c r="ADV24" s="0"/>
+      <c r="ADW24" s="0"/>
+      <c r="ADX24" s="0"/>
+      <c r="ADY24" s="0"/>
+      <c r="ADZ24" s="0"/>
+      <c r="AEA24" s="0"/>
+      <c r="AEB24" s="0"/>
+      <c r="AEC24" s="0"/>
+      <c r="AED24" s="0"/>
+      <c r="AEE24" s="0"/>
+      <c r="AEF24" s="0"/>
+      <c r="AEG24" s="0"/>
+      <c r="AEH24" s="0"/>
+      <c r="AEI24" s="0"/>
+      <c r="AEJ24" s="0"/>
+      <c r="AEK24" s="0"/>
+      <c r="AEL24" s="0"/>
+      <c r="AEM24" s="0"/>
+      <c r="AEN24" s="0"/>
+      <c r="AEO24" s="0"/>
+      <c r="AEP24" s="0"/>
+      <c r="AEQ24" s="0"/>
+      <c r="AER24" s="0"/>
+      <c r="AES24" s="0"/>
+      <c r="AET24" s="0"/>
+      <c r="AEU24" s="0"/>
+      <c r="AEV24" s="0"/>
+      <c r="AEW24" s="0"/>
+      <c r="AEX24" s="0"/>
+      <c r="AEY24" s="0"/>
+      <c r="AEZ24" s="0"/>
+      <c r="AFA24" s="0"/>
+      <c r="AFB24" s="0"/>
+      <c r="AFC24" s="0"/>
+      <c r="AFD24" s="0"/>
+      <c r="AFE24" s="0"/>
+      <c r="AFF24" s="0"/>
+      <c r="AFG24" s="0"/>
+      <c r="AFH24" s="0"/>
+      <c r="AFI24" s="0"/>
+      <c r="AFJ24" s="0"/>
+      <c r="AFK24" s="0"/>
+      <c r="AFL24" s="0"/>
+      <c r="AFM24" s="0"/>
+      <c r="AFN24" s="0"/>
+      <c r="AFO24" s="0"/>
+      <c r="AFP24" s="0"/>
+      <c r="AFQ24" s="0"/>
+      <c r="AFR24" s="0"/>
+      <c r="AFS24" s="0"/>
+      <c r="AFT24" s="0"/>
+      <c r="AFU24" s="0"/>
+      <c r="AFV24" s="0"/>
+      <c r="AFW24" s="0"/>
+      <c r="AFX24" s="0"/>
+      <c r="AFY24" s="0"/>
+      <c r="AFZ24" s="0"/>
+      <c r="AGA24" s="0"/>
+      <c r="AGB24" s="0"/>
+      <c r="AGC24" s="0"/>
+      <c r="AGD24" s="0"/>
+      <c r="AGE24" s="0"/>
+      <c r="AGF24" s="0"/>
+      <c r="AGG24" s="0"/>
+      <c r="AGH24" s="0"/>
+      <c r="AGI24" s="0"/>
+      <c r="AGJ24" s="0"/>
+      <c r="AGK24" s="0"/>
+      <c r="AGL24" s="0"/>
+      <c r="AGM24" s="0"/>
+      <c r="AGN24" s="0"/>
+      <c r="AGO24" s="0"/>
+      <c r="AGP24" s="0"/>
+      <c r="AGQ24" s="0"/>
+      <c r="AGR24" s="0"/>
+      <c r="AGS24" s="0"/>
+      <c r="AGT24" s="0"/>
+      <c r="AGU24" s="0"/>
+      <c r="AGV24" s="0"/>
+      <c r="AGW24" s="0"/>
+      <c r="AGX24" s="0"/>
+      <c r="AGY24" s="0"/>
+      <c r="AGZ24" s="0"/>
+      <c r="AHA24" s="0"/>
+      <c r="AHB24" s="0"/>
+      <c r="AHC24" s="0"/>
+      <c r="AHD24" s="0"/>
+      <c r="AHE24" s="0"/>
+      <c r="AHF24" s="0"/>
+      <c r="AHG24" s="0"/>
+      <c r="AHH24" s="0"/>
+      <c r="AHI24" s="0"/>
+      <c r="AHJ24" s="0"/>
+      <c r="AHK24" s="0"/>
+      <c r="AHL24" s="0"/>
+      <c r="AHM24" s="0"/>
+      <c r="AHN24" s="0"/>
+      <c r="AHO24" s="0"/>
+      <c r="AHP24" s="0"/>
+      <c r="AHQ24" s="0"/>
+      <c r="AHR24" s="0"/>
+      <c r="AHS24" s="0"/>
+      <c r="AHT24" s="0"/>
+      <c r="AHU24" s="0"/>
+      <c r="AHV24" s="0"/>
+      <c r="AHW24" s="0"/>
+      <c r="AHX24" s="0"/>
+      <c r="AHY24" s="0"/>
+      <c r="AHZ24" s="0"/>
+      <c r="AIA24" s="0"/>
+      <c r="AIB24" s="0"/>
+      <c r="AIC24" s="0"/>
+      <c r="AID24" s="0"/>
+      <c r="AIE24" s="0"/>
+      <c r="AIF24" s="0"/>
+      <c r="AIG24" s="0"/>
+      <c r="AIH24" s="0"/>
+      <c r="AII24" s="0"/>
+      <c r="AIJ24" s="0"/>
+      <c r="AIK24" s="0"/>
+      <c r="AIL24" s="0"/>
+      <c r="AIM24" s="0"/>
+      <c r="AIN24" s="0"/>
+      <c r="AIO24" s="0"/>
+      <c r="AIP24" s="0"/>
+      <c r="AIQ24" s="0"/>
+      <c r="AIR24" s="0"/>
+      <c r="AIS24" s="0"/>
+      <c r="AIT24" s="0"/>
+      <c r="AIU24" s="0"/>
+      <c r="AIV24" s="0"/>
+      <c r="AIW24" s="0"/>
+      <c r="AIX24" s="0"/>
+      <c r="AIY24" s="0"/>
+      <c r="AIZ24" s="0"/>
+      <c r="AJA24" s="0"/>
+      <c r="AJB24" s="0"/>
+      <c r="AJC24" s="0"/>
+      <c r="AJD24" s="0"/>
+      <c r="AJE24" s="0"/>
+      <c r="AJF24" s="0"/>
+      <c r="AJG24" s="0"/>
+      <c r="AJH24" s="0"/>
+      <c r="AJI24" s="0"/>
+      <c r="AJJ24" s="0"/>
+      <c r="AJK24" s="0"/>
+      <c r="AJL24" s="0"/>
+      <c r="AJM24" s="0"/>
+      <c r="AJN24" s="0"/>
+      <c r="AJO24" s="0"/>
+      <c r="AJP24" s="0"/>
+      <c r="AJQ24" s="0"/>
+      <c r="AJR24" s="0"/>
+      <c r="AJS24" s="0"/>
+      <c r="AJT24" s="0"/>
+      <c r="AJU24" s="0"/>
+      <c r="AJV24" s="0"/>
+      <c r="AJW24" s="0"/>
+      <c r="AJX24" s="0"/>
+      <c r="AJY24" s="0"/>
+      <c r="AJZ24" s="0"/>
+      <c r="AKA24" s="0"/>
+      <c r="AKB24" s="0"/>
+      <c r="AKC24" s="0"/>
+      <c r="AKD24" s="0"/>
+      <c r="AKE24" s="0"/>
+      <c r="AKF24" s="0"/>
+      <c r="AKG24" s="0"/>
+      <c r="AKH24" s="0"/>
+      <c r="AKI24" s="0"/>
+      <c r="AKJ24" s="0"/>
+      <c r="AKK24" s="0"/>
+      <c r="AKL24" s="0"/>
+      <c r="AKM24" s="0"/>
+      <c r="AKN24" s="0"/>
+      <c r="AKO24" s="0"/>
+      <c r="AKP24" s="0"/>
+      <c r="AKQ24" s="0"/>
+      <c r="AKR24" s="0"/>
+      <c r="AKS24" s="0"/>
+      <c r="AKT24" s="0"/>
+      <c r="AKU24" s="0"/>
+      <c r="AKV24" s="0"/>
+      <c r="AKW24" s="0"/>
+      <c r="AKX24" s="0"/>
+      <c r="AKY24" s="0"/>
+      <c r="AKZ24" s="0"/>
+      <c r="ALA24" s="0"/>
+      <c r="ALB24" s="0"/>
+      <c r="ALC24" s="0"/>
+      <c r="ALD24" s="0"/>
+      <c r="ALE24" s="0"/>
+      <c r="ALF24" s="0"/>
+      <c r="ALG24" s="0"/>
+      <c r="ALH24" s="0"/>
+      <c r="ALI24" s="0"/>
+      <c r="ALJ24" s="0"/>
+      <c r="ALK24" s="0"/>
+      <c r="ALL24" s="0"/>
+      <c r="ALM24" s="0"/>
+      <c r="ALN24" s="0"/>
+      <c r="ALO24" s="0"/>
+      <c r="ALP24" s="0"/>
+      <c r="ALQ24" s="0"/>
+      <c r="ALR24" s="0"/>
+      <c r="ALS24" s="0"/>
+      <c r="ALT24" s="0"/>
+      <c r="ALU24" s="0"/>
+      <c r="ALV24" s="0"/>
+      <c r="ALW24" s="0"/>
+      <c r="ALX24" s="0"/>
+      <c r="ALY24" s="0"/>
+      <c r="ALZ24" s="0"/>
+      <c r="AMA24" s="0"/>
+      <c r="AMB24" s="0"/>
+      <c r="AMC24" s="0"/>
+      <c r="AMD24" s="0"/>
+      <c r="AME24" s="0"/>
+      <c r="AMF24" s="0"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="10" t="s">
+    <row r="25" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" s="15" customFormat="true" ht="73.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>70</v>
+      <c r="D27" s="10" t="s">
+        <v>75</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>71</v>
+      <c r="E27" s="10" t="s">
+        <v>76</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>72</v>
+      <c r="N27" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
-      <c r="IS27" s="0"/>
-      <c r="IT27" s="0"/>
-      <c r="IU27" s="0"/>
-      <c r="IV27" s="0"/>
-      <c r="IW27" s="0"/>
-      <c r="IX27" s="0"/>
-      <c r="IY27" s="0"/>
-      <c r="IZ27" s="0"/>
-      <c r="JA27" s="0"/>
-      <c r="JB27" s="0"/>
-      <c r="JC27" s="0"/>
-      <c r="JD27" s="0"/>
-      <c r="JE27" s="0"/>
-      <c r="JF27" s="0"/>
-      <c r="JG27" s="0"/>
-      <c r="JH27" s="0"/>
-      <c r="JI27" s="0"/>
-      <c r="JJ27" s="0"/>
-      <c r="JK27" s="0"/>
-      <c r="JL27" s="0"/>
-      <c r="JM27" s="0"/>
-      <c r="JN27" s="0"/>
-      <c r="JO27" s="0"/>
-      <c r="JP27" s="0"/>
-      <c r="JQ27" s="0"/>
-      <c r="JR27" s="0"/>
-      <c r="JS27" s="0"/>
-      <c r="JT27" s="0"/>
-      <c r="JU27" s="0"/>
-      <c r="JV27" s="0"/>
-      <c r="JW27" s="0"/>
-      <c r="JX27" s="0"/>
-      <c r="JY27" s="0"/>
-      <c r="JZ27" s="0"/>
-      <c r="KA27" s="0"/>
-      <c r="KB27" s="0"/>
-      <c r="KC27" s="0"/>
-      <c r="KD27" s="0"/>
-      <c r="KE27" s="0"/>
-      <c r="KF27" s="0"/>
-      <c r="KG27" s="0"/>
-      <c r="KH27" s="0"/>
-      <c r="KI27" s="0"/>
-      <c r="KJ27" s="0"/>
-      <c r="KK27" s="0"/>
-      <c r="KL27" s="0"/>
-      <c r="KM27" s="0"/>
-      <c r="KN27" s="0"/>
-      <c r="KO27" s="0"/>
-      <c r="KP27" s="0"/>
-      <c r="KQ27" s="0"/>
-      <c r="KR27" s="0"/>
-      <c r="KS27" s="0"/>
-      <c r="KT27" s="0"/>
-      <c r="KU27" s="0"/>
-      <c r="KV27" s="0"/>
-      <c r="KW27" s="0"/>
-      <c r="KX27" s="0"/>
-      <c r="KY27" s="0"/>
-      <c r="KZ27" s="0"/>
-      <c r="LA27" s="0"/>
-      <c r="LB27" s="0"/>
-      <c r="LC27" s="0"/>
-      <c r="LD27" s="0"/>
-      <c r="LE27" s="0"/>
-      <c r="LF27" s="0"/>
-      <c r="LG27" s="0"/>
-      <c r="LH27" s="0"/>
-      <c r="LI27" s="0"/>
-      <c r="LJ27" s="0"/>
-      <c r="LK27" s="0"/>
-      <c r="LL27" s="0"/>
-      <c r="LM27" s="0"/>
-      <c r="LN27" s="0"/>
-      <c r="LO27" s="0"/>
-      <c r="LP27" s="0"/>
-      <c r="LQ27" s="0"/>
-      <c r="LR27" s="0"/>
-      <c r="LS27" s="0"/>
-      <c r="LT27" s="0"/>
-      <c r="LU27" s="0"/>
-      <c r="LV27" s="0"/>
-      <c r="LW27" s="0"/>
-      <c r="LX27" s="0"/>
-      <c r="LY27" s="0"/>
-      <c r="LZ27" s="0"/>
-      <c r="MA27" s="0"/>
-      <c r="MB27" s="0"/>
-      <c r="MC27" s="0"/>
-      <c r="MD27" s="0"/>
-      <c r="ME27" s="0"/>
-      <c r="MF27" s="0"/>
-      <c r="MG27" s="0"/>
-      <c r="MH27" s="0"/>
-      <c r="MI27" s="0"/>
-      <c r="MJ27" s="0"/>
-      <c r="MK27" s="0"/>
-      <c r="ML27" s="0"/>
-      <c r="MM27" s="0"/>
-      <c r="MN27" s="0"/>
-      <c r="MO27" s="0"/>
-      <c r="MP27" s="0"/>
-      <c r="MQ27" s="0"/>
-      <c r="MR27" s="0"/>
-      <c r="MS27" s="0"/>
-      <c r="MT27" s="0"/>
-      <c r="MU27" s="0"/>
-      <c r="MV27" s="0"/>
-      <c r="MW27" s="0"/>
-      <c r="MX27" s="0"/>
-      <c r="MY27" s="0"/>
-      <c r="MZ27" s="0"/>
-      <c r="NA27" s="0"/>
-      <c r="NB27" s="0"/>
-      <c r="NC27" s="0"/>
-      <c r="ND27" s="0"/>
-      <c r="NE27" s="0"/>
-      <c r="NF27" s="0"/>
-      <c r="NG27" s="0"/>
-      <c r="NH27" s="0"/>
-      <c r="NI27" s="0"/>
-      <c r="NJ27" s="0"/>
-      <c r="NK27" s="0"/>
-      <c r="NL27" s="0"/>
-      <c r="NM27" s="0"/>
-      <c r="NN27" s="0"/>
-      <c r="NO27" s="0"/>
-      <c r="NP27" s="0"/>
-      <c r="NQ27" s="0"/>
-      <c r="NR27" s="0"/>
-      <c r="NS27" s="0"/>
-      <c r="NT27" s="0"/>
-      <c r="NU27" s="0"/>
-      <c r="NV27" s="0"/>
-      <c r="NW27" s="0"/>
-      <c r="NX27" s="0"/>
-      <c r="NY27" s="0"/>
-      <c r="NZ27" s="0"/>
-      <c r="OA27" s="0"/>
-      <c r="OB27" s="0"/>
-      <c r="OC27" s="0"/>
-      <c r="OD27" s="0"/>
-      <c r="OE27" s="0"/>
-      <c r="OF27" s="0"/>
-      <c r="OG27" s="0"/>
-      <c r="OH27" s="0"/>
-      <c r="OI27" s="0"/>
-      <c r="OJ27" s="0"/>
-      <c r="OK27" s="0"/>
-      <c r="OL27" s="0"/>
-      <c r="OM27" s="0"/>
-      <c r="ON27" s="0"/>
-      <c r="OO27" s="0"/>
-      <c r="OP27" s="0"/>
-      <c r="OQ27" s="0"/>
-      <c r="OR27" s="0"/>
-      <c r="OS27" s="0"/>
-      <c r="OT27" s="0"/>
-      <c r="OU27" s="0"/>
-      <c r="OV27" s="0"/>
-      <c r="OW27" s="0"/>
-      <c r="OX27" s="0"/>
-      <c r="OY27" s="0"/>
-      <c r="OZ27" s="0"/>
-      <c r="PA27" s="0"/>
-      <c r="PB27" s="0"/>
-      <c r="PC27" s="0"/>
-      <c r="PD27" s="0"/>
-      <c r="PE27" s="0"/>
-      <c r="PF27" s="0"/>
-      <c r="PG27" s="0"/>
-      <c r="PH27" s="0"/>
-      <c r="PI27" s="0"/>
-      <c r="PJ27" s="0"/>
-      <c r="PK27" s="0"/>
-      <c r="PL27" s="0"/>
-      <c r="PM27" s="0"/>
-      <c r="PN27" s="0"/>
-      <c r="PO27" s="0"/>
-      <c r="PP27" s="0"/>
-      <c r="PQ27" s="0"/>
-      <c r="PR27" s="0"/>
-      <c r="PS27" s="0"/>
-      <c r="PT27" s="0"/>
-      <c r="PU27" s="0"/>
-      <c r="PV27" s="0"/>
-      <c r="PW27" s="0"/>
-      <c r="PX27" s="0"/>
-      <c r="PY27" s="0"/>
-      <c r="PZ27" s="0"/>
-      <c r="QA27" s="0"/>
-      <c r="QB27" s="0"/>
-      <c r="QC27" s="0"/>
-      <c r="QD27" s="0"/>
-      <c r="QE27" s="0"/>
-      <c r="QF27" s="0"/>
-      <c r="QG27" s="0"/>
-      <c r="QH27" s="0"/>
-      <c r="QI27" s="0"/>
-      <c r="QJ27" s="0"/>
-      <c r="QK27" s="0"/>
-      <c r="QL27" s="0"/>
-      <c r="QM27" s="0"/>
-      <c r="QN27" s="0"/>
-      <c r="QO27" s="0"/>
-      <c r="QP27" s="0"/>
-      <c r="QQ27" s="0"/>
-      <c r="QR27" s="0"/>
-      <c r="QS27" s="0"/>
-      <c r="QT27" s="0"/>
-      <c r="QU27" s="0"/>
-      <c r="QV27" s="0"/>
-      <c r="QW27" s="0"/>
-      <c r="QX27" s="0"/>
-      <c r="QY27" s="0"/>
-      <c r="QZ27" s="0"/>
-      <c r="RA27" s="0"/>
-      <c r="RB27" s="0"/>
-      <c r="RC27" s="0"/>
-      <c r="RD27" s="0"/>
-      <c r="RE27" s="0"/>
-      <c r="RF27" s="0"/>
-      <c r="RG27" s="0"/>
-      <c r="RH27" s="0"/>
-      <c r="RI27" s="0"/>
-      <c r="RJ27" s="0"/>
-      <c r="RK27" s="0"/>
-      <c r="RL27" s="0"/>
-      <c r="RM27" s="0"/>
-      <c r="RN27" s="0"/>
-      <c r="RO27" s="0"/>
-      <c r="RP27" s="0"/>
-      <c r="RQ27" s="0"/>
-      <c r="RR27" s="0"/>
-      <c r="RS27" s="0"/>
-      <c r="RT27" s="0"/>
-      <c r="RU27" s="0"/>
-      <c r="RV27" s="0"/>
-      <c r="RW27" s="0"/>
-      <c r="RX27" s="0"/>
-      <c r="RY27" s="0"/>
-      <c r="RZ27" s="0"/>
-      <c r="SA27" s="0"/>
-      <c r="SB27" s="0"/>
-      <c r="SC27" s="0"/>
-      <c r="SD27" s="0"/>
-      <c r="SE27" s="0"/>
-      <c r="SF27" s="0"/>
-      <c r="SG27" s="0"/>
-      <c r="SH27" s="0"/>
-      <c r="SI27" s="0"/>
-      <c r="SJ27" s="0"/>
-      <c r="SK27" s="0"/>
-      <c r="SL27" s="0"/>
-      <c r="SM27" s="0"/>
-      <c r="SN27" s="0"/>
-      <c r="SO27" s="0"/>
-      <c r="SP27" s="0"/>
-      <c r="SQ27" s="0"/>
-      <c r="SR27" s="0"/>
-      <c r="SS27" s="0"/>
-      <c r="ST27" s="0"/>
-      <c r="SU27" s="0"/>
-      <c r="SV27" s="0"/>
-      <c r="SW27" s="0"/>
-      <c r="SX27" s="0"/>
-      <c r="SY27" s="0"/>
-      <c r="SZ27" s="0"/>
-      <c r="TA27" s="0"/>
-      <c r="TB27" s="0"/>
-      <c r="TC27" s="0"/>
-      <c r="TD27" s="0"/>
-      <c r="TE27" s="0"/>
-      <c r="TF27" s="0"/>
-      <c r="TG27" s="0"/>
-      <c r="TH27" s="0"/>
-      <c r="TI27" s="0"/>
-      <c r="TJ27" s="0"/>
-      <c r="TK27" s="0"/>
-      <c r="TL27" s="0"/>
-      <c r="TM27" s="0"/>
-      <c r="TN27" s="0"/>
-      <c r="TO27" s="0"/>
-      <c r="TP27" s="0"/>
-      <c r="TQ27" s="0"/>
-      <c r="TR27" s="0"/>
-      <c r="TS27" s="0"/>
-      <c r="TT27" s="0"/>
-      <c r="TU27" s="0"/>
-      <c r="TV27" s="0"/>
-      <c r="TW27" s="0"/>
-      <c r="TX27" s="0"/>
-      <c r="TY27" s="0"/>
-      <c r="TZ27" s="0"/>
-      <c r="UA27" s="0"/>
-      <c r="UB27" s="0"/>
-      <c r="UC27" s="0"/>
-      <c r="UD27" s="0"/>
-      <c r="UE27" s="0"/>
-      <c r="UF27" s="0"/>
-      <c r="UG27" s="0"/>
-      <c r="UH27" s="0"/>
-      <c r="UI27" s="0"/>
-      <c r="UJ27" s="0"/>
-      <c r="UK27" s="0"/>
-      <c r="UL27" s="0"/>
-      <c r="UM27" s="0"/>
-      <c r="UN27" s="0"/>
-      <c r="UO27" s="0"/>
-      <c r="UP27" s="0"/>
-      <c r="UQ27" s="0"/>
-      <c r="UR27" s="0"/>
-      <c r="US27" s="0"/>
-      <c r="UT27" s="0"/>
-      <c r="UU27" s="0"/>
-      <c r="UV27" s="0"/>
-      <c r="UW27" s="0"/>
-      <c r="UX27" s="0"/>
-      <c r="UY27" s="0"/>
-      <c r="UZ27" s="0"/>
-      <c r="VA27" s="0"/>
-      <c r="VB27" s="0"/>
-      <c r="VC27" s="0"/>
-      <c r="VD27" s="0"/>
-      <c r="VE27" s="0"/>
-      <c r="VF27" s="0"/>
-      <c r="VG27" s="0"/>
-      <c r="VH27" s="0"/>
-      <c r="VI27" s="0"/>
-      <c r="VJ27" s="0"/>
-      <c r="VK27" s="0"/>
-      <c r="VL27" s="0"/>
-      <c r="VM27" s="0"/>
-      <c r="VN27" s="0"/>
-      <c r="VO27" s="0"/>
-      <c r="VP27" s="0"/>
-      <c r="VQ27" s="0"/>
-      <c r="VR27" s="0"/>
-      <c r="VS27" s="0"/>
-      <c r="VT27" s="0"/>
-      <c r="VU27" s="0"/>
-      <c r="VV27" s="0"/>
-      <c r="VW27" s="0"/>
-      <c r="VX27" s="0"/>
-      <c r="VY27" s="0"/>
-      <c r="VZ27" s="0"/>
-      <c r="WA27" s="0"/>
-      <c r="WB27" s="0"/>
-      <c r="WC27" s="0"/>
-      <c r="WD27" s="0"/>
-      <c r="WE27" s="0"/>
-      <c r="WF27" s="0"/>
-      <c r="WG27" s="0"/>
-      <c r="WH27" s="0"/>
-      <c r="WI27" s="0"/>
-      <c r="WJ27" s="0"/>
-      <c r="WK27" s="0"/>
-      <c r="WL27" s="0"/>
-      <c r="WM27" s="0"/>
-      <c r="WN27" s="0"/>
-      <c r="WO27" s="0"/>
-      <c r="WP27" s="0"/>
-      <c r="WQ27" s="0"/>
-      <c r="WR27" s="0"/>
-      <c r="WS27" s="0"/>
-      <c r="WT27" s="0"/>
-      <c r="WU27" s="0"/>
-      <c r="WV27" s="0"/>
-      <c r="WW27" s="0"/>
-      <c r="WX27" s="0"/>
-      <c r="WY27" s="0"/>
-      <c r="WZ27" s="0"/>
-      <c r="XA27" s="0"/>
-      <c r="XB27" s="0"/>
-      <c r="XC27" s="0"/>
-      <c r="XD27" s="0"/>
-      <c r="XE27" s="0"/>
-      <c r="XF27" s="0"/>
-      <c r="XG27" s="0"/>
-      <c r="XH27" s="0"/>
-      <c r="XI27" s="0"/>
-      <c r="XJ27" s="0"/>
-      <c r="XK27" s="0"/>
-      <c r="XL27" s="0"/>
-      <c r="XM27" s="0"/>
-      <c r="XN27" s="0"/>
-      <c r="XO27" s="0"/>
-      <c r="XP27" s="0"/>
-      <c r="XQ27" s="0"/>
-      <c r="XR27" s="0"/>
-      <c r="XS27" s="0"/>
-      <c r="XT27" s="0"/>
-      <c r="XU27" s="0"/>
-      <c r="XV27" s="0"/>
-      <c r="XW27" s="0"/>
-      <c r="XX27" s="0"/>
-      <c r="XY27" s="0"/>
-      <c r="XZ27" s="0"/>
-      <c r="YA27" s="0"/>
-      <c r="YB27" s="0"/>
-      <c r="YC27" s="0"/>
-      <c r="YD27" s="0"/>
-      <c r="YE27" s="0"/>
-      <c r="YF27" s="0"/>
-      <c r="YG27" s="0"/>
-      <c r="YH27" s="0"/>
-      <c r="YI27" s="0"/>
-      <c r="YJ27" s="0"/>
-      <c r="YK27" s="0"/>
-      <c r="YL27" s="0"/>
-      <c r="YM27" s="0"/>
-      <c r="YN27" s="0"/>
-      <c r="YO27" s="0"/>
-      <c r="YP27" s="0"/>
-      <c r="YQ27" s="0"/>
-      <c r="YR27" s="0"/>
-      <c r="YS27" s="0"/>
-      <c r="YT27" s="0"/>
-      <c r="YU27" s="0"/>
-      <c r="YV27" s="0"/>
-      <c r="YW27" s="0"/>
-      <c r="YX27" s="0"/>
-      <c r="YY27" s="0"/>
-      <c r="YZ27" s="0"/>
-      <c r="ZA27" s="0"/>
-      <c r="ZB27" s="0"/>
-      <c r="ZC27" s="0"/>
-      <c r="ZD27" s="0"/>
-      <c r="ZE27" s="0"/>
-      <c r="ZF27" s="0"/>
-      <c r="ZG27" s="0"/>
-      <c r="ZH27" s="0"/>
-      <c r="ZI27" s="0"/>
-      <c r="ZJ27" s="0"/>
-      <c r="ZK27" s="0"/>
-      <c r="ZL27" s="0"/>
-      <c r="ZM27" s="0"/>
-      <c r="ZN27" s="0"/>
-      <c r="ZO27" s="0"/>
-      <c r="ZP27" s="0"/>
-      <c r="ZQ27" s="0"/>
-      <c r="ZR27" s="0"/>
-      <c r="ZS27" s="0"/>
-      <c r="ZT27" s="0"/>
-      <c r="ZU27" s="0"/>
-      <c r="ZV27" s="0"/>
-      <c r="ZW27" s="0"/>
-      <c r="ZX27" s="0"/>
-      <c r="ZY27" s="0"/>
-      <c r="ZZ27" s="0"/>
-      <c r="AAA27" s="0"/>
-      <c r="AAB27" s="0"/>
-      <c r="AAC27" s="0"/>
-      <c r="AAD27" s="0"/>
-      <c r="AAE27" s="0"/>
-      <c r="AAF27" s="0"/>
-      <c r="AAG27" s="0"/>
-      <c r="AAH27" s="0"/>
-      <c r="AAI27" s="0"/>
-      <c r="AAJ27" s="0"/>
-      <c r="AAK27" s="0"/>
-      <c r="AAL27" s="0"/>
-      <c r="AAM27" s="0"/>
-      <c r="AAN27" s="0"/>
-      <c r="AAO27" s="0"/>
-      <c r="AAP27" s="0"/>
-      <c r="AAQ27" s="0"/>
-      <c r="AAR27" s="0"/>
-      <c r="AAS27" s="0"/>
-      <c r="AAT27" s="0"/>
-      <c r="AAU27" s="0"/>
-      <c r="AAV27" s="0"/>
-      <c r="AAW27" s="0"/>
-      <c r="AAX27" s="0"/>
-      <c r="AAY27" s="0"/>
-      <c r="AAZ27" s="0"/>
-      <c r="ABA27" s="0"/>
-      <c r="ABB27" s="0"/>
-      <c r="ABC27" s="0"/>
-      <c r="ABD27" s="0"/>
-      <c r="ABE27" s="0"/>
-      <c r="ABF27" s="0"/>
-      <c r="ABG27" s="0"/>
-      <c r="ABH27" s="0"/>
-      <c r="ABI27" s="0"/>
-      <c r="ABJ27" s="0"/>
-      <c r="ABK27" s="0"/>
-      <c r="ABL27" s="0"/>
-      <c r="ABM27" s="0"/>
-      <c r="ABN27" s="0"/>
-      <c r="ABO27" s="0"/>
-      <c r="ABP27" s="0"/>
-      <c r="ABQ27" s="0"/>
-      <c r="ABR27" s="0"/>
-      <c r="ABS27" s="0"/>
-      <c r="ABT27" s="0"/>
-      <c r="ABU27" s="0"/>
-      <c r="ABV27" s="0"/>
-      <c r="ABW27" s="0"/>
-      <c r="ABX27" s="0"/>
-      <c r="ABY27" s="0"/>
-      <c r="ABZ27" s="0"/>
-      <c r="ACA27" s="0"/>
-      <c r="ACB27" s="0"/>
-      <c r="ACC27" s="0"/>
-      <c r="ACD27" s="0"/>
-      <c r="ACE27" s="0"/>
-      <c r="ACF27" s="0"/>
-      <c r="ACG27" s="0"/>
-      <c r="ACH27" s="0"/>
-      <c r="ACI27" s="0"/>
-      <c r="ACJ27" s="0"/>
-      <c r="ACK27" s="0"/>
-      <c r="ACL27" s="0"/>
-      <c r="ACM27" s="0"/>
-      <c r="ACN27" s="0"/>
-      <c r="ACO27" s="0"/>
-      <c r="ACP27" s="0"/>
-      <c r="ACQ27" s="0"/>
-      <c r="ACR27" s="0"/>
-      <c r="ACS27" s="0"/>
-      <c r="ACT27" s="0"/>
-      <c r="ACU27" s="0"/>
-      <c r="ACV27" s="0"/>
-      <c r="ACW27" s="0"/>
-      <c r="ACX27" s="0"/>
-      <c r="ACY27" s="0"/>
-      <c r="ACZ27" s="0"/>
-      <c r="ADA27" s="0"/>
-      <c r="ADB27" s="0"/>
-      <c r="ADC27" s="0"/>
-      <c r="ADD27" s="0"/>
-      <c r="ADE27" s="0"/>
-      <c r="ADF27" s="0"/>
-      <c r="ADG27" s="0"/>
-      <c r="ADH27" s="0"/>
-      <c r="ADI27" s="0"/>
-      <c r="ADJ27" s="0"/>
-      <c r="ADK27" s="0"/>
-      <c r="ADL27" s="0"/>
-      <c r="ADM27" s="0"/>
-      <c r="ADN27" s="0"/>
-      <c r="ADO27" s="0"/>
-      <c r="ADP27" s="0"/>
-      <c r="ADQ27" s="0"/>
-      <c r="ADR27" s="0"/>
-      <c r="ADS27" s="0"/>
-      <c r="ADT27" s="0"/>
-      <c r="ADU27" s="0"/>
-      <c r="ADV27" s="0"/>
-      <c r="ADW27" s="0"/>
-      <c r="ADX27" s="0"/>
-      <c r="ADY27" s="0"/>
-      <c r="ADZ27" s="0"/>
-      <c r="AEA27" s="0"/>
-      <c r="AEB27" s="0"/>
-      <c r="AEC27" s="0"/>
-      <c r="AED27" s="0"/>
-      <c r="AEE27" s="0"/>
-      <c r="AEF27" s="0"/>
-      <c r="AEG27" s="0"/>
-      <c r="AEH27" s="0"/>
-      <c r="AEI27" s="0"/>
-      <c r="AEJ27" s="0"/>
-      <c r="AEK27" s="0"/>
-      <c r="AEL27" s="0"/>
-      <c r="AEM27" s="0"/>
-      <c r="AEN27" s="0"/>
-      <c r="AEO27" s="0"/>
-      <c r="AEP27" s="0"/>
-      <c r="AEQ27" s="0"/>
-      <c r="AER27" s="0"/>
-      <c r="AES27" s="0"/>
-      <c r="AET27" s="0"/>
-      <c r="AEU27" s="0"/>
-      <c r="AEV27" s="0"/>
-      <c r="AEW27" s="0"/>
-      <c r="AEX27" s="0"/>
-      <c r="AEY27" s="0"/>
-      <c r="AEZ27" s="0"/>
-      <c r="AFA27" s="0"/>
-      <c r="AFB27" s="0"/>
-      <c r="AFC27" s="0"/>
-      <c r="AFD27" s="0"/>
-      <c r="AFE27" s="0"/>
-      <c r="AFF27" s="0"/>
-      <c r="AFG27" s="0"/>
-      <c r="AFH27" s="0"/>
-      <c r="AFI27" s="0"/>
-      <c r="AFJ27" s="0"/>
-      <c r="AFK27" s="0"/>
-      <c r="AFL27" s="0"/>
-      <c r="AFM27" s="0"/>
-      <c r="AFN27" s="0"/>
-      <c r="AFO27" s="0"/>
-      <c r="AFP27" s="0"/>
-      <c r="AFQ27" s="0"/>
-      <c r="AFR27" s="0"/>
-      <c r="AFS27" s="0"/>
-      <c r="AFT27" s="0"/>
-      <c r="AFU27" s="0"/>
-      <c r="AFV27" s="0"/>
-      <c r="AFW27" s="0"/>
-      <c r="AFX27" s="0"/>
-      <c r="AFY27" s="0"/>
-      <c r="AFZ27" s="0"/>
-      <c r="AGA27" s="0"/>
-      <c r="AGB27" s="0"/>
-      <c r="AGC27" s="0"/>
-      <c r="AGD27" s="0"/>
-      <c r="AGE27" s="0"/>
-      <c r="AGF27" s="0"/>
-      <c r="AGG27" s="0"/>
-      <c r="AGH27" s="0"/>
-      <c r="AGI27" s="0"/>
-      <c r="AGJ27" s="0"/>
-      <c r="AGK27" s="0"/>
-      <c r="AGL27" s="0"/>
-      <c r="AGM27" s="0"/>
-      <c r="AGN27" s="0"/>
-      <c r="AGO27" s="0"/>
-      <c r="AGP27" s="0"/>
-      <c r="AGQ27" s="0"/>
-      <c r="AGR27" s="0"/>
-      <c r="AGS27" s="0"/>
-      <c r="AGT27" s="0"/>
-      <c r="AGU27" s="0"/>
-      <c r="AGV27" s="0"/>
-      <c r="AGW27" s="0"/>
-      <c r="AGX27" s="0"/>
-      <c r="AGY27" s="0"/>
-      <c r="AGZ27" s="0"/>
-      <c r="AHA27" s="0"/>
-      <c r="AHB27" s="0"/>
-      <c r="AHC27" s="0"/>
-      <c r="AHD27" s="0"/>
-      <c r="AHE27" s="0"/>
-      <c r="AHF27" s="0"/>
-      <c r="AHG27" s="0"/>
-      <c r="AHH27" s="0"/>
-      <c r="AHI27" s="0"/>
-      <c r="AHJ27" s="0"/>
-      <c r="AHK27" s="0"/>
-      <c r="AHL27" s="0"/>
-      <c r="AHM27" s="0"/>
-      <c r="AHN27" s="0"/>
-      <c r="AHO27" s="0"/>
-      <c r="AHP27" s="0"/>
-      <c r="AHQ27" s="0"/>
-      <c r="AHR27" s="0"/>
-      <c r="AHS27" s="0"/>
-      <c r="AHT27" s="0"/>
-      <c r="AHU27" s="0"/>
-      <c r="AHV27" s="0"/>
-      <c r="AHW27" s="0"/>
-      <c r="AHX27" s="0"/>
-      <c r="AHY27" s="0"/>
-      <c r="AHZ27" s="0"/>
-      <c r="AIA27" s="0"/>
-      <c r="AIB27" s="0"/>
-      <c r="AIC27" s="0"/>
-      <c r="AID27" s="0"/>
-      <c r="AIE27" s="0"/>
-      <c r="AIF27" s="0"/>
-      <c r="AIG27" s="0"/>
-      <c r="AIH27" s="0"/>
-      <c r="AII27" s="0"/>
-      <c r="AIJ27" s="0"/>
-      <c r="AIK27" s="0"/>
-      <c r="AIL27" s="0"/>
-      <c r="AIM27" s="0"/>
-      <c r="AIN27" s="0"/>
-      <c r="AIO27" s="0"/>
-      <c r="AIP27" s="0"/>
-      <c r="AIQ27" s="0"/>
-      <c r="AIR27" s="0"/>
-      <c r="AIS27" s="0"/>
-      <c r="AIT27" s="0"/>
-      <c r="AIU27" s="0"/>
-      <c r="AIV27" s="0"/>
-      <c r="AIW27" s="0"/>
-      <c r="AIX27" s="0"/>
-      <c r="AIY27" s="0"/>
-      <c r="AIZ27" s="0"/>
-      <c r="AJA27" s="0"/>
-      <c r="AJB27" s="0"/>
-      <c r="AJC27" s="0"/>
-      <c r="AJD27" s="0"/>
-      <c r="AJE27" s="0"/>
-      <c r="AJF27" s="0"/>
-      <c r="AJG27" s="0"/>
-      <c r="AJH27" s="0"/>
-      <c r="AJI27" s="0"/>
-      <c r="AJJ27" s="0"/>
-      <c r="AJK27" s="0"/>
-      <c r="AJL27" s="0"/>
-      <c r="AJM27" s="0"/>
-      <c r="AJN27" s="0"/>
-      <c r="AJO27" s="0"/>
-      <c r="AJP27" s="0"/>
-      <c r="AJQ27" s="0"/>
-      <c r="AJR27" s="0"/>
-      <c r="AJS27" s="0"/>
-      <c r="AJT27" s="0"/>
-      <c r="AJU27" s="0"/>
-      <c r="AJV27" s="0"/>
-      <c r="AJW27" s="0"/>
-      <c r="AJX27" s="0"/>
-      <c r="AJY27" s="0"/>
-      <c r="AJZ27" s="0"/>
-      <c r="AKA27" s="0"/>
-      <c r="AKB27" s="0"/>
-      <c r="AKC27" s="0"/>
-      <c r="AKD27" s="0"/>
-      <c r="AKE27" s="0"/>
-      <c r="AKF27" s="0"/>
-      <c r="AKG27" s="0"/>
-      <c r="AKH27" s="0"/>
-      <c r="AKI27" s="0"/>
-      <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="5" t="s">
-        <v>78</v>
+      <c r="C28" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>80</v>
+      <c r="E28" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -13697,19 +13695,13 @@
       <c r="K28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>81</v>
-      </c>
+      <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="N28" s="16"/>
       <c r="O28" s="16"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
@@ -14717,44 +14709,44 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="16" t="s">
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="0"/>
       <c r="W29" s="0"/>
       <c r="X29" s="0"/>
@@ -15759,37 +15751,41 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -16797,30 +16793,30 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -17835,1081 +17831,1081 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="13" t="s">
-        <v>68</v>
+    <row r="32" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+      <c r="AD32" s="0"/>
+      <c r="AE32" s="0"/>
+      <c r="AF32" s="0"/>
+      <c r="AG32" s="0"/>
+      <c r="AH32" s="0"/>
+      <c r="AI32" s="0"/>
+      <c r="AJ32" s="0"/>
+      <c r="AK32" s="0"/>
+      <c r="AL32" s="0"/>
+      <c r="AM32" s="0"/>
+      <c r="AN32" s="0"/>
+      <c r="AO32" s="0"/>
+      <c r="AP32" s="0"/>
+      <c r="AQ32" s="0"/>
+      <c r="AR32" s="0"/>
+      <c r="AS32" s="0"/>
+      <c r="AT32" s="0"/>
+      <c r="AU32" s="0"/>
+      <c r="AV32" s="0"/>
+      <c r="AW32" s="0"/>
+      <c r="AX32" s="0"/>
+      <c r="AY32" s="0"/>
+      <c r="AZ32" s="0"/>
+      <c r="BA32" s="0"/>
+      <c r="BB32" s="0"/>
+      <c r="BC32" s="0"/>
+      <c r="BD32" s="0"/>
+      <c r="BE32" s="0"/>
+      <c r="BF32" s="0"/>
+      <c r="BG32" s="0"/>
+      <c r="BH32" s="0"/>
+      <c r="BI32" s="0"/>
+      <c r="BJ32" s="0"/>
+      <c r="BK32" s="0"/>
+      <c r="BL32" s="0"/>
+      <c r="BM32" s="0"/>
+      <c r="BN32" s="0"/>
+      <c r="BO32" s="0"/>
+      <c r="BP32" s="0"/>
+      <c r="BQ32" s="0"/>
+      <c r="BR32" s="0"/>
+      <c r="BS32" s="0"/>
+      <c r="BT32" s="0"/>
+      <c r="BU32" s="0"/>
+      <c r="BV32" s="0"/>
+      <c r="BW32" s="0"/>
+      <c r="BX32" s="0"/>
+      <c r="BY32" s="0"/>
+      <c r="BZ32" s="0"/>
+      <c r="CA32" s="0"/>
+      <c r="CB32" s="0"/>
+      <c r="CC32" s="0"/>
+      <c r="CD32" s="0"/>
+      <c r="CE32" s="0"/>
+      <c r="CF32" s="0"/>
+      <c r="CG32" s="0"/>
+      <c r="CH32" s="0"/>
+      <c r="CI32" s="0"/>
+      <c r="CJ32" s="0"/>
+      <c r="CK32" s="0"/>
+      <c r="CL32" s="0"/>
+      <c r="CM32" s="0"/>
+      <c r="CN32" s="0"/>
+      <c r="CO32" s="0"/>
+      <c r="CP32" s="0"/>
+      <c r="CQ32" s="0"/>
+      <c r="CR32" s="0"/>
+      <c r="CS32" s="0"/>
+      <c r="CT32" s="0"/>
+      <c r="CU32" s="0"/>
+      <c r="CV32" s="0"/>
+      <c r="CW32" s="0"/>
+      <c r="CX32" s="0"/>
+      <c r="CY32" s="0"/>
+      <c r="CZ32" s="0"/>
+      <c r="DA32" s="0"/>
+      <c r="DB32" s="0"/>
+      <c r="DC32" s="0"/>
+      <c r="DD32" s="0"/>
+      <c r="DE32" s="0"/>
+      <c r="DF32" s="0"/>
+      <c r="DG32" s="0"/>
+      <c r="DH32" s="0"/>
+      <c r="DI32" s="0"/>
+      <c r="DJ32" s="0"/>
+      <c r="DK32" s="0"/>
+      <c r="DL32" s="0"/>
+      <c r="DM32" s="0"/>
+      <c r="DN32" s="0"/>
+      <c r="DO32" s="0"/>
+      <c r="DP32" s="0"/>
+      <c r="DQ32" s="0"/>
+      <c r="DR32" s="0"/>
+      <c r="DS32" s="0"/>
+      <c r="DT32" s="0"/>
+      <c r="DU32" s="0"/>
+      <c r="DV32" s="0"/>
+      <c r="DW32" s="0"/>
+      <c r="DX32" s="0"/>
+      <c r="DY32" s="0"/>
+      <c r="DZ32" s="0"/>
+      <c r="EA32" s="0"/>
+      <c r="EB32" s="0"/>
+      <c r="EC32" s="0"/>
+      <c r="ED32" s="0"/>
+      <c r="EE32" s="0"/>
+      <c r="EF32" s="0"/>
+      <c r="EG32" s="0"/>
+      <c r="EH32" s="0"/>
+      <c r="EI32" s="0"/>
+      <c r="EJ32" s="0"/>
+      <c r="EK32" s="0"/>
+      <c r="EL32" s="0"/>
+      <c r="EM32" s="0"/>
+      <c r="EN32" s="0"/>
+      <c r="EO32" s="0"/>
+      <c r="EP32" s="0"/>
+      <c r="EQ32" s="0"/>
+      <c r="ER32" s="0"/>
+      <c r="ES32" s="0"/>
+      <c r="ET32" s="0"/>
+      <c r="EU32" s="0"/>
+      <c r="EV32" s="0"/>
+      <c r="EW32" s="0"/>
+      <c r="EX32" s="0"/>
+      <c r="EY32" s="0"/>
+      <c r="EZ32" s="0"/>
+      <c r="FA32" s="0"/>
+      <c r="FB32" s="0"/>
+      <c r="FC32" s="0"/>
+      <c r="FD32" s="0"/>
+      <c r="FE32" s="0"/>
+      <c r="FF32" s="0"/>
+      <c r="FG32" s="0"/>
+      <c r="FH32" s="0"/>
+      <c r="FI32" s="0"/>
+      <c r="FJ32" s="0"/>
+      <c r="FK32" s="0"/>
+      <c r="FL32" s="0"/>
+      <c r="FM32" s="0"/>
+      <c r="FN32" s="0"/>
+      <c r="FO32" s="0"/>
+      <c r="FP32" s="0"/>
+      <c r="FQ32" s="0"/>
+      <c r="FR32" s="0"/>
+      <c r="FS32" s="0"/>
+      <c r="FT32" s="0"/>
+      <c r="FU32" s="0"/>
+      <c r="FV32" s="0"/>
+      <c r="FW32" s="0"/>
+      <c r="FX32" s="0"/>
+      <c r="FY32" s="0"/>
+      <c r="FZ32" s="0"/>
+      <c r="GA32" s="0"/>
+      <c r="GB32" s="0"/>
+      <c r="GC32" s="0"/>
+      <c r="GD32" s="0"/>
+      <c r="GE32" s="0"/>
+      <c r="GF32" s="0"/>
+      <c r="GG32" s="0"/>
+      <c r="GH32" s="0"/>
+      <c r="GI32" s="0"/>
+      <c r="GJ32" s="0"/>
+      <c r="GK32" s="0"/>
+      <c r="GL32" s="0"/>
+      <c r="GM32" s="0"/>
+      <c r="GN32" s="0"/>
+      <c r="GO32" s="0"/>
+      <c r="GP32" s="0"/>
+      <c r="GQ32" s="0"/>
+      <c r="GR32" s="0"/>
+      <c r="GS32" s="0"/>
+      <c r="GT32" s="0"/>
+      <c r="GU32" s="0"/>
+      <c r="GV32" s="0"/>
+      <c r="GW32" s="0"/>
+      <c r="GX32" s="0"/>
+      <c r="GY32" s="0"/>
+      <c r="GZ32" s="0"/>
+      <c r="HA32" s="0"/>
+      <c r="HB32" s="0"/>
+      <c r="HC32" s="0"/>
+      <c r="HD32" s="0"/>
+      <c r="HE32" s="0"/>
+      <c r="HF32" s="0"/>
+      <c r="HG32" s="0"/>
+      <c r="HH32" s="0"/>
+      <c r="HI32" s="0"/>
+      <c r="HJ32" s="0"/>
+      <c r="HK32" s="0"/>
+      <c r="HL32" s="0"/>
+      <c r="HM32" s="0"/>
+      <c r="HN32" s="0"/>
+      <c r="HO32" s="0"/>
+      <c r="HP32" s="0"/>
+      <c r="HQ32" s="0"/>
+      <c r="HR32" s="0"/>
+      <c r="HS32" s="0"/>
+      <c r="HT32" s="0"/>
+      <c r="HU32" s="0"/>
+      <c r="HV32" s="0"/>
+      <c r="HW32" s="0"/>
+      <c r="HX32" s="0"/>
+      <c r="HY32" s="0"/>
+      <c r="HZ32" s="0"/>
+      <c r="IA32" s="0"/>
+      <c r="IB32" s="0"/>
+      <c r="IC32" s="0"/>
+      <c r="ID32" s="0"/>
+      <c r="IE32" s="0"/>
+      <c r="IF32" s="0"/>
+      <c r="IG32" s="0"/>
+      <c r="IH32" s="0"/>
+      <c r="II32" s="0"/>
+      <c r="IJ32" s="0"/>
+      <c r="IK32" s="0"/>
+      <c r="IL32" s="0"/>
+      <c r="IM32" s="0"/>
+      <c r="IN32" s="0"/>
+      <c r="IO32" s="0"/>
+      <c r="IP32" s="0"/>
+      <c r="IQ32" s="0"/>
+      <c r="IR32" s="0"/>
+      <c r="IS32" s="0"/>
+      <c r="IT32" s="0"/>
+      <c r="IU32" s="0"/>
+      <c r="IV32" s="0"/>
+      <c r="IW32" s="0"/>
+      <c r="IX32" s="0"/>
+      <c r="IY32" s="0"/>
+      <c r="IZ32" s="0"/>
+      <c r="JA32" s="0"/>
+      <c r="JB32" s="0"/>
+      <c r="JC32" s="0"/>
+      <c r="JD32" s="0"/>
+      <c r="JE32" s="0"/>
+      <c r="JF32" s="0"/>
+      <c r="JG32" s="0"/>
+      <c r="JH32" s="0"/>
+      <c r="JI32" s="0"/>
+      <c r="JJ32" s="0"/>
+      <c r="JK32" s="0"/>
+      <c r="JL32" s="0"/>
+      <c r="JM32" s="0"/>
+      <c r="JN32" s="0"/>
+      <c r="JO32" s="0"/>
+      <c r="JP32" s="0"/>
+      <c r="JQ32" s="0"/>
+      <c r="JR32" s="0"/>
+      <c r="JS32" s="0"/>
+      <c r="JT32" s="0"/>
+      <c r="JU32" s="0"/>
+      <c r="JV32" s="0"/>
+      <c r="JW32" s="0"/>
+      <c r="JX32" s="0"/>
+      <c r="JY32" s="0"/>
+      <c r="JZ32" s="0"/>
+      <c r="KA32" s="0"/>
+      <c r="KB32" s="0"/>
+      <c r="KC32" s="0"/>
+      <c r="KD32" s="0"/>
+      <c r="KE32" s="0"/>
+      <c r="KF32" s="0"/>
+      <c r="KG32" s="0"/>
+      <c r="KH32" s="0"/>
+      <c r="KI32" s="0"/>
+      <c r="KJ32" s="0"/>
+      <c r="KK32" s="0"/>
+      <c r="KL32" s="0"/>
+      <c r="KM32" s="0"/>
+      <c r="KN32" s="0"/>
+      <c r="KO32" s="0"/>
+      <c r="KP32" s="0"/>
+      <c r="KQ32" s="0"/>
+      <c r="KR32" s="0"/>
+      <c r="KS32" s="0"/>
+      <c r="KT32" s="0"/>
+      <c r="KU32" s="0"/>
+      <c r="KV32" s="0"/>
+      <c r="KW32" s="0"/>
+      <c r="KX32" s="0"/>
+      <c r="KY32" s="0"/>
+      <c r="KZ32" s="0"/>
+      <c r="LA32" s="0"/>
+      <c r="LB32" s="0"/>
+      <c r="LC32" s="0"/>
+      <c r="LD32" s="0"/>
+      <c r="LE32" s="0"/>
+      <c r="LF32" s="0"/>
+      <c r="LG32" s="0"/>
+      <c r="LH32" s="0"/>
+      <c r="LI32" s="0"/>
+      <c r="LJ32" s="0"/>
+      <c r="LK32" s="0"/>
+      <c r="LL32" s="0"/>
+      <c r="LM32" s="0"/>
+      <c r="LN32" s="0"/>
+      <c r="LO32" s="0"/>
+      <c r="LP32" s="0"/>
+      <c r="LQ32" s="0"/>
+      <c r="LR32" s="0"/>
+      <c r="LS32" s="0"/>
+      <c r="LT32" s="0"/>
+      <c r="LU32" s="0"/>
+      <c r="LV32" s="0"/>
+      <c r="LW32" s="0"/>
+      <c r="LX32" s="0"/>
+      <c r="LY32" s="0"/>
+      <c r="LZ32" s="0"/>
+      <c r="MA32" s="0"/>
+      <c r="MB32" s="0"/>
+      <c r="MC32" s="0"/>
+      <c r="MD32" s="0"/>
+      <c r="ME32" s="0"/>
+      <c r="MF32" s="0"/>
+      <c r="MG32" s="0"/>
+      <c r="MH32" s="0"/>
+      <c r="MI32" s="0"/>
+      <c r="MJ32" s="0"/>
+      <c r="MK32" s="0"/>
+      <c r="ML32" s="0"/>
+      <c r="MM32" s="0"/>
+      <c r="MN32" s="0"/>
+      <c r="MO32" s="0"/>
+      <c r="MP32" s="0"/>
+      <c r="MQ32" s="0"/>
+      <c r="MR32" s="0"/>
+      <c r="MS32" s="0"/>
+      <c r="MT32" s="0"/>
+      <c r="MU32" s="0"/>
+      <c r="MV32" s="0"/>
+      <c r="MW32" s="0"/>
+      <c r="MX32" s="0"/>
+      <c r="MY32" s="0"/>
+      <c r="MZ32" s="0"/>
+      <c r="NA32" s="0"/>
+      <c r="NB32" s="0"/>
+      <c r="NC32" s="0"/>
+      <c r="ND32" s="0"/>
+      <c r="NE32" s="0"/>
+      <c r="NF32" s="0"/>
+      <c r="NG32" s="0"/>
+      <c r="NH32" s="0"/>
+      <c r="NI32" s="0"/>
+      <c r="NJ32" s="0"/>
+      <c r="NK32" s="0"/>
+      <c r="NL32" s="0"/>
+      <c r="NM32" s="0"/>
+      <c r="NN32" s="0"/>
+      <c r="NO32" s="0"/>
+      <c r="NP32" s="0"/>
+      <c r="NQ32" s="0"/>
+      <c r="NR32" s="0"/>
+      <c r="NS32" s="0"/>
+      <c r="NT32" s="0"/>
+      <c r="NU32" s="0"/>
+      <c r="NV32" s="0"/>
+      <c r="NW32" s="0"/>
+      <c r="NX32" s="0"/>
+      <c r="NY32" s="0"/>
+      <c r="NZ32" s="0"/>
+      <c r="OA32" s="0"/>
+      <c r="OB32" s="0"/>
+      <c r="OC32" s="0"/>
+      <c r="OD32" s="0"/>
+      <c r="OE32" s="0"/>
+      <c r="OF32" s="0"/>
+      <c r="OG32" s="0"/>
+      <c r="OH32" s="0"/>
+      <c r="OI32" s="0"/>
+      <c r="OJ32" s="0"/>
+      <c r="OK32" s="0"/>
+      <c r="OL32" s="0"/>
+      <c r="OM32" s="0"/>
+      <c r="ON32" s="0"/>
+      <c r="OO32" s="0"/>
+      <c r="OP32" s="0"/>
+      <c r="OQ32" s="0"/>
+      <c r="OR32" s="0"/>
+      <c r="OS32" s="0"/>
+      <c r="OT32" s="0"/>
+      <c r="OU32" s="0"/>
+      <c r="OV32" s="0"/>
+      <c r="OW32" s="0"/>
+      <c r="OX32" s="0"/>
+      <c r="OY32" s="0"/>
+      <c r="OZ32" s="0"/>
+      <c r="PA32" s="0"/>
+      <c r="PB32" s="0"/>
+      <c r="PC32" s="0"/>
+      <c r="PD32" s="0"/>
+      <c r="PE32" s="0"/>
+      <c r="PF32" s="0"/>
+      <c r="PG32" s="0"/>
+      <c r="PH32" s="0"/>
+      <c r="PI32" s="0"/>
+      <c r="PJ32" s="0"/>
+      <c r="PK32" s="0"/>
+      <c r="PL32" s="0"/>
+      <c r="PM32" s="0"/>
+      <c r="PN32" s="0"/>
+      <c r="PO32" s="0"/>
+      <c r="PP32" s="0"/>
+      <c r="PQ32" s="0"/>
+      <c r="PR32" s="0"/>
+      <c r="PS32" s="0"/>
+      <c r="PT32" s="0"/>
+      <c r="PU32" s="0"/>
+      <c r="PV32" s="0"/>
+      <c r="PW32" s="0"/>
+      <c r="PX32" s="0"/>
+      <c r="PY32" s="0"/>
+      <c r="PZ32" s="0"/>
+      <c r="QA32" s="0"/>
+      <c r="QB32" s="0"/>
+      <c r="QC32" s="0"/>
+      <c r="QD32" s="0"/>
+      <c r="QE32" s="0"/>
+      <c r="QF32" s="0"/>
+      <c r="QG32" s="0"/>
+      <c r="QH32" s="0"/>
+      <c r="QI32" s="0"/>
+      <c r="QJ32" s="0"/>
+      <c r="QK32" s="0"/>
+      <c r="QL32" s="0"/>
+      <c r="QM32" s="0"/>
+      <c r="QN32" s="0"/>
+      <c r="QO32" s="0"/>
+      <c r="QP32" s="0"/>
+      <c r="QQ32" s="0"/>
+      <c r="QR32" s="0"/>
+      <c r="QS32" s="0"/>
+      <c r="QT32" s="0"/>
+      <c r="QU32" s="0"/>
+      <c r="QV32" s="0"/>
+      <c r="QW32" s="0"/>
+      <c r="QX32" s="0"/>
+      <c r="QY32" s="0"/>
+      <c r="QZ32" s="0"/>
+      <c r="RA32" s="0"/>
+      <c r="RB32" s="0"/>
+      <c r="RC32" s="0"/>
+      <c r="RD32" s="0"/>
+      <c r="RE32" s="0"/>
+      <c r="RF32" s="0"/>
+      <c r="RG32" s="0"/>
+      <c r="RH32" s="0"/>
+      <c r="RI32" s="0"/>
+      <c r="RJ32" s="0"/>
+      <c r="RK32" s="0"/>
+      <c r="RL32" s="0"/>
+      <c r="RM32" s="0"/>
+      <c r="RN32" s="0"/>
+      <c r="RO32" s="0"/>
+      <c r="RP32" s="0"/>
+      <c r="RQ32" s="0"/>
+      <c r="RR32" s="0"/>
+      <c r="RS32" s="0"/>
+      <c r="RT32" s="0"/>
+      <c r="RU32" s="0"/>
+      <c r="RV32" s="0"/>
+      <c r="RW32" s="0"/>
+      <c r="RX32" s="0"/>
+      <c r="RY32" s="0"/>
+      <c r="RZ32" s="0"/>
+      <c r="SA32" s="0"/>
+      <c r="SB32" s="0"/>
+      <c r="SC32" s="0"/>
+      <c r="SD32" s="0"/>
+      <c r="SE32" s="0"/>
+      <c r="SF32" s="0"/>
+      <c r="SG32" s="0"/>
+      <c r="SH32" s="0"/>
+      <c r="SI32" s="0"/>
+      <c r="SJ32" s="0"/>
+      <c r="SK32" s="0"/>
+      <c r="SL32" s="0"/>
+      <c r="SM32" s="0"/>
+      <c r="SN32" s="0"/>
+      <c r="SO32" s="0"/>
+      <c r="SP32" s="0"/>
+      <c r="SQ32" s="0"/>
+      <c r="SR32" s="0"/>
+      <c r="SS32" s="0"/>
+      <c r="ST32" s="0"/>
+      <c r="SU32" s="0"/>
+      <c r="SV32" s="0"/>
+      <c r="SW32" s="0"/>
+      <c r="SX32" s="0"/>
+      <c r="SY32" s="0"/>
+      <c r="SZ32" s="0"/>
+      <c r="TA32" s="0"/>
+      <c r="TB32" s="0"/>
+      <c r="TC32" s="0"/>
+      <c r="TD32" s="0"/>
+      <c r="TE32" s="0"/>
+      <c r="TF32" s="0"/>
+      <c r="TG32" s="0"/>
+      <c r="TH32" s="0"/>
+      <c r="TI32" s="0"/>
+      <c r="TJ32" s="0"/>
+      <c r="TK32" s="0"/>
+      <c r="TL32" s="0"/>
+      <c r="TM32" s="0"/>
+      <c r="TN32" s="0"/>
+      <c r="TO32" s="0"/>
+      <c r="TP32" s="0"/>
+      <c r="TQ32" s="0"/>
+      <c r="TR32" s="0"/>
+      <c r="TS32" s="0"/>
+      <c r="TT32" s="0"/>
+      <c r="TU32" s="0"/>
+      <c r="TV32" s="0"/>
+      <c r="TW32" s="0"/>
+      <c r="TX32" s="0"/>
+      <c r="TY32" s="0"/>
+      <c r="TZ32" s="0"/>
+      <c r="UA32" s="0"/>
+      <c r="UB32" s="0"/>
+      <c r="UC32" s="0"/>
+      <c r="UD32" s="0"/>
+      <c r="UE32" s="0"/>
+      <c r="UF32" s="0"/>
+      <c r="UG32" s="0"/>
+      <c r="UH32" s="0"/>
+      <c r="UI32" s="0"/>
+      <c r="UJ32" s="0"/>
+      <c r="UK32" s="0"/>
+      <c r="UL32" s="0"/>
+      <c r="UM32" s="0"/>
+      <c r="UN32" s="0"/>
+      <c r="UO32" s="0"/>
+      <c r="UP32" s="0"/>
+      <c r="UQ32" s="0"/>
+      <c r="UR32" s="0"/>
+      <c r="US32" s="0"/>
+      <c r="UT32" s="0"/>
+      <c r="UU32" s="0"/>
+      <c r="UV32" s="0"/>
+      <c r="UW32" s="0"/>
+      <c r="UX32" s="0"/>
+      <c r="UY32" s="0"/>
+      <c r="UZ32" s="0"/>
+      <c r="VA32" s="0"/>
+      <c r="VB32" s="0"/>
+      <c r="VC32" s="0"/>
+      <c r="VD32" s="0"/>
+      <c r="VE32" s="0"/>
+      <c r="VF32" s="0"/>
+      <c r="VG32" s="0"/>
+      <c r="VH32" s="0"/>
+      <c r="VI32" s="0"/>
+      <c r="VJ32" s="0"/>
+      <c r="VK32" s="0"/>
+      <c r="VL32" s="0"/>
+      <c r="VM32" s="0"/>
+      <c r="VN32" s="0"/>
+      <c r="VO32" s="0"/>
+      <c r="VP32" s="0"/>
+      <c r="VQ32" s="0"/>
+      <c r="VR32" s="0"/>
+      <c r="VS32" s="0"/>
+      <c r="VT32" s="0"/>
+      <c r="VU32" s="0"/>
+      <c r="VV32" s="0"/>
+      <c r="VW32" s="0"/>
+      <c r="VX32" s="0"/>
+      <c r="VY32" s="0"/>
+      <c r="VZ32" s="0"/>
+      <c r="WA32" s="0"/>
+      <c r="WB32" s="0"/>
+      <c r="WC32" s="0"/>
+      <c r="WD32" s="0"/>
+      <c r="WE32" s="0"/>
+      <c r="WF32" s="0"/>
+      <c r="WG32" s="0"/>
+      <c r="WH32" s="0"/>
+      <c r="WI32" s="0"/>
+      <c r="WJ32" s="0"/>
+      <c r="WK32" s="0"/>
+      <c r="WL32" s="0"/>
+      <c r="WM32" s="0"/>
+      <c r="WN32" s="0"/>
+      <c r="WO32" s="0"/>
+      <c r="WP32" s="0"/>
+      <c r="WQ32" s="0"/>
+      <c r="WR32" s="0"/>
+      <c r="WS32" s="0"/>
+      <c r="WT32" s="0"/>
+      <c r="WU32" s="0"/>
+      <c r="WV32" s="0"/>
+      <c r="WW32" s="0"/>
+      <c r="WX32" s="0"/>
+      <c r="WY32" s="0"/>
+      <c r="WZ32" s="0"/>
+      <c r="XA32" s="0"/>
+      <c r="XB32" s="0"/>
+      <c r="XC32" s="0"/>
+      <c r="XD32" s="0"/>
+      <c r="XE32" s="0"/>
+      <c r="XF32" s="0"/>
+      <c r="XG32" s="0"/>
+      <c r="XH32" s="0"/>
+      <c r="XI32" s="0"/>
+      <c r="XJ32" s="0"/>
+      <c r="XK32" s="0"/>
+      <c r="XL32" s="0"/>
+      <c r="XM32" s="0"/>
+      <c r="XN32" s="0"/>
+      <c r="XO32" s="0"/>
+      <c r="XP32" s="0"/>
+      <c r="XQ32" s="0"/>
+      <c r="XR32" s="0"/>
+      <c r="XS32" s="0"/>
+      <c r="XT32" s="0"/>
+      <c r="XU32" s="0"/>
+      <c r="XV32" s="0"/>
+      <c r="XW32" s="0"/>
+      <c r="XX32" s="0"/>
+      <c r="XY32" s="0"/>
+      <c r="XZ32" s="0"/>
+      <c r="YA32" s="0"/>
+      <c r="YB32" s="0"/>
+      <c r="YC32" s="0"/>
+      <c r="YD32" s="0"/>
+      <c r="YE32" s="0"/>
+      <c r="YF32" s="0"/>
+      <c r="YG32" s="0"/>
+      <c r="YH32" s="0"/>
+      <c r="YI32" s="0"/>
+      <c r="YJ32" s="0"/>
+      <c r="YK32" s="0"/>
+      <c r="YL32" s="0"/>
+      <c r="YM32" s="0"/>
+      <c r="YN32" s="0"/>
+      <c r="YO32" s="0"/>
+      <c r="YP32" s="0"/>
+      <c r="YQ32" s="0"/>
+      <c r="YR32" s="0"/>
+      <c r="YS32" s="0"/>
+      <c r="YT32" s="0"/>
+      <c r="YU32" s="0"/>
+      <c r="YV32" s="0"/>
+      <c r="YW32" s="0"/>
+      <c r="YX32" s="0"/>
+      <c r="YY32" s="0"/>
+      <c r="YZ32" s="0"/>
+      <c r="ZA32" s="0"/>
+      <c r="ZB32" s="0"/>
+      <c r="ZC32" s="0"/>
+      <c r="ZD32" s="0"/>
+      <c r="ZE32" s="0"/>
+      <c r="ZF32" s="0"/>
+      <c r="ZG32" s="0"/>
+      <c r="ZH32" s="0"/>
+      <c r="ZI32" s="0"/>
+      <c r="ZJ32" s="0"/>
+      <c r="ZK32" s="0"/>
+      <c r="ZL32" s="0"/>
+      <c r="ZM32" s="0"/>
+      <c r="ZN32" s="0"/>
+      <c r="ZO32" s="0"/>
+      <c r="ZP32" s="0"/>
+      <c r="ZQ32" s="0"/>
+      <c r="ZR32" s="0"/>
+      <c r="ZS32" s="0"/>
+      <c r="ZT32" s="0"/>
+      <c r="ZU32" s="0"/>
+      <c r="ZV32" s="0"/>
+      <c r="ZW32" s="0"/>
+      <c r="ZX32" s="0"/>
+      <c r="ZY32" s="0"/>
+      <c r="ZZ32" s="0"/>
+      <c r="AAA32" s="0"/>
+      <c r="AAB32" s="0"/>
+      <c r="AAC32" s="0"/>
+      <c r="AAD32" s="0"/>
+      <c r="AAE32" s="0"/>
+      <c r="AAF32" s="0"/>
+      <c r="AAG32" s="0"/>
+      <c r="AAH32" s="0"/>
+      <c r="AAI32" s="0"/>
+      <c r="AAJ32" s="0"/>
+      <c r="AAK32" s="0"/>
+      <c r="AAL32" s="0"/>
+      <c r="AAM32" s="0"/>
+      <c r="AAN32" s="0"/>
+      <c r="AAO32" s="0"/>
+      <c r="AAP32" s="0"/>
+      <c r="AAQ32" s="0"/>
+      <c r="AAR32" s="0"/>
+      <c r="AAS32" s="0"/>
+      <c r="AAT32" s="0"/>
+      <c r="AAU32" s="0"/>
+      <c r="AAV32" s="0"/>
+      <c r="AAW32" s="0"/>
+      <c r="AAX32" s="0"/>
+      <c r="AAY32" s="0"/>
+      <c r="AAZ32" s="0"/>
+      <c r="ABA32" s="0"/>
+      <c r="ABB32" s="0"/>
+      <c r="ABC32" s="0"/>
+      <c r="ABD32" s="0"/>
+      <c r="ABE32" s="0"/>
+      <c r="ABF32" s="0"/>
+      <c r="ABG32" s="0"/>
+      <c r="ABH32" s="0"/>
+      <c r="ABI32" s="0"/>
+      <c r="ABJ32" s="0"/>
+      <c r="ABK32" s="0"/>
+      <c r="ABL32" s="0"/>
+      <c r="ABM32" s="0"/>
+      <c r="ABN32" s="0"/>
+      <c r="ABO32" s="0"/>
+      <c r="ABP32" s="0"/>
+      <c r="ABQ32" s="0"/>
+      <c r="ABR32" s="0"/>
+      <c r="ABS32" s="0"/>
+      <c r="ABT32" s="0"/>
+      <c r="ABU32" s="0"/>
+      <c r="ABV32" s="0"/>
+      <c r="ABW32" s="0"/>
+      <c r="ABX32" s="0"/>
+      <c r="ABY32" s="0"/>
+      <c r="ABZ32" s="0"/>
+      <c r="ACA32" s="0"/>
+      <c r="ACB32" s="0"/>
+      <c r="ACC32" s="0"/>
+      <c r="ACD32" s="0"/>
+      <c r="ACE32" s="0"/>
+      <c r="ACF32" s="0"/>
+      <c r="ACG32" s="0"/>
+      <c r="ACH32" s="0"/>
+      <c r="ACI32" s="0"/>
+      <c r="ACJ32" s="0"/>
+      <c r="ACK32" s="0"/>
+      <c r="ACL32" s="0"/>
+      <c r="ACM32" s="0"/>
+      <c r="ACN32" s="0"/>
+      <c r="ACO32" s="0"/>
+      <c r="ACP32" s="0"/>
+      <c r="ACQ32" s="0"/>
+      <c r="ACR32" s="0"/>
+      <c r="ACS32" s="0"/>
+      <c r="ACT32" s="0"/>
+      <c r="ACU32" s="0"/>
+      <c r="ACV32" s="0"/>
+      <c r="ACW32" s="0"/>
+      <c r="ACX32" s="0"/>
+      <c r="ACY32" s="0"/>
+      <c r="ACZ32" s="0"/>
+      <c r="ADA32" s="0"/>
+      <c r="ADB32" s="0"/>
+      <c r="ADC32" s="0"/>
+      <c r="ADD32" s="0"/>
+      <c r="ADE32" s="0"/>
+      <c r="ADF32" s="0"/>
+      <c r="ADG32" s="0"/>
+      <c r="ADH32" s="0"/>
+      <c r="ADI32" s="0"/>
+      <c r="ADJ32" s="0"/>
+      <c r="ADK32" s="0"/>
+      <c r="ADL32" s="0"/>
+      <c r="ADM32" s="0"/>
+      <c r="ADN32" s="0"/>
+      <c r="ADO32" s="0"/>
+      <c r="ADP32" s="0"/>
+      <c r="ADQ32" s="0"/>
+      <c r="ADR32" s="0"/>
+      <c r="ADS32" s="0"/>
+      <c r="ADT32" s="0"/>
+      <c r="ADU32" s="0"/>
+      <c r="ADV32" s="0"/>
+      <c r="ADW32" s="0"/>
+      <c r="ADX32" s="0"/>
+      <c r="ADY32" s="0"/>
+      <c r="ADZ32" s="0"/>
+      <c r="AEA32" s="0"/>
+      <c r="AEB32" s="0"/>
+      <c r="AEC32" s="0"/>
+      <c r="AED32" s="0"/>
+      <c r="AEE32" s="0"/>
+      <c r="AEF32" s="0"/>
+      <c r="AEG32" s="0"/>
+      <c r="AEH32" s="0"/>
+      <c r="AEI32" s="0"/>
+      <c r="AEJ32" s="0"/>
+      <c r="AEK32" s="0"/>
+      <c r="AEL32" s="0"/>
+      <c r="AEM32" s="0"/>
+      <c r="AEN32" s="0"/>
+      <c r="AEO32" s="0"/>
+      <c r="AEP32" s="0"/>
+      <c r="AEQ32" s="0"/>
+      <c r="AER32" s="0"/>
+      <c r="AES32" s="0"/>
+      <c r="AET32" s="0"/>
+      <c r="AEU32" s="0"/>
+      <c r="AEV32" s="0"/>
+      <c r="AEW32" s="0"/>
+      <c r="AEX32" s="0"/>
+      <c r="AEY32" s="0"/>
+      <c r="AEZ32" s="0"/>
+      <c r="AFA32" s="0"/>
+      <c r="AFB32" s="0"/>
+      <c r="AFC32" s="0"/>
+      <c r="AFD32" s="0"/>
+      <c r="AFE32" s="0"/>
+      <c r="AFF32" s="0"/>
+      <c r="AFG32" s="0"/>
+      <c r="AFH32" s="0"/>
+      <c r="AFI32" s="0"/>
+      <c r="AFJ32" s="0"/>
+      <c r="AFK32" s="0"/>
+      <c r="AFL32" s="0"/>
+      <c r="AFM32" s="0"/>
+      <c r="AFN32" s="0"/>
+      <c r="AFO32" s="0"/>
+      <c r="AFP32" s="0"/>
+      <c r="AFQ32" s="0"/>
+      <c r="AFR32" s="0"/>
+      <c r="AFS32" s="0"/>
+      <c r="AFT32" s="0"/>
+      <c r="AFU32" s="0"/>
+      <c r="AFV32" s="0"/>
+      <c r="AFW32" s="0"/>
+      <c r="AFX32" s="0"/>
+      <c r="AFY32" s="0"/>
+      <c r="AFZ32" s="0"/>
+      <c r="AGA32" s="0"/>
+      <c r="AGB32" s="0"/>
+      <c r="AGC32" s="0"/>
+      <c r="AGD32" s="0"/>
+      <c r="AGE32" s="0"/>
+      <c r="AGF32" s="0"/>
+      <c r="AGG32" s="0"/>
+      <c r="AGH32" s="0"/>
+      <c r="AGI32" s="0"/>
+      <c r="AGJ32" s="0"/>
+      <c r="AGK32" s="0"/>
+      <c r="AGL32" s="0"/>
+      <c r="AGM32" s="0"/>
+      <c r="AGN32" s="0"/>
+      <c r="AGO32" s="0"/>
+      <c r="AGP32" s="0"/>
+      <c r="AGQ32" s="0"/>
+      <c r="AGR32" s="0"/>
+      <c r="AGS32" s="0"/>
+      <c r="AGT32" s="0"/>
+      <c r="AGU32" s="0"/>
+      <c r="AGV32" s="0"/>
+      <c r="AGW32" s="0"/>
+      <c r="AGX32" s="0"/>
+      <c r="AGY32" s="0"/>
+      <c r="AGZ32" s="0"/>
+      <c r="AHA32" s="0"/>
+      <c r="AHB32" s="0"/>
+      <c r="AHC32" s="0"/>
+      <c r="AHD32" s="0"/>
+      <c r="AHE32" s="0"/>
+      <c r="AHF32" s="0"/>
+      <c r="AHG32" s="0"/>
+      <c r="AHH32" s="0"/>
+      <c r="AHI32" s="0"/>
+      <c r="AHJ32" s="0"/>
+      <c r="AHK32" s="0"/>
+      <c r="AHL32" s="0"/>
+      <c r="AHM32" s="0"/>
+      <c r="AHN32" s="0"/>
+      <c r="AHO32" s="0"/>
+      <c r="AHP32" s="0"/>
+      <c r="AHQ32" s="0"/>
+      <c r="AHR32" s="0"/>
+      <c r="AHS32" s="0"/>
+      <c r="AHT32" s="0"/>
+      <c r="AHU32" s="0"/>
+      <c r="AHV32" s="0"/>
+      <c r="AHW32" s="0"/>
+      <c r="AHX32" s="0"/>
+      <c r="AHY32" s="0"/>
+      <c r="AHZ32" s="0"/>
+      <c r="AIA32" s="0"/>
+      <c r="AIB32" s="0"/>
+      <c r="AIC32" s="0"/>
+      <c r="AID32" s="0"/>
+      <c r="AIE32" s="0"/>
+      <c r="AIF32" s="0"/>
+      <c r="AIG32" s="0"/>
+      <c r="AIH32" s="0"/>
+      <c r="AII32" s="0"/>
+      <c r="AIJ32" s="0"/>
+      <c r="AIK32" s="0"/>
+      <c r="AIL32" s="0"/>
+      <c r="AIM32" s="0"/>
+      <c r="AIN32" s="0"/>
+      <c r="AIO32" s="0"/>
+      <c r="AIP32" s="0"/>
+      <c r="AIQ32" s="0"/>
+      <c r="AIR32" s="0"/>
+      <c r="AIS32" s="0"/>
+      <c r="AIT32" s="0"/>
+      <c r="AIU32" s="0"/>
+      <c r="AIV32" s="0"/>
+      <c r="AIW32" s="0"/>
+      <c r="AIX32" s="0"/>
+      <c r="AIY32" s="0"/>
+      <c r="AIZ32" s="0"/>
+      <c r="AJA32" s="0"/>
+      <c r="AJB32" s="0"/>
+      <c r="AJC32" s="0"/>
+      <c r="AJD32" s="0"/>
+      <c r="AJE32" s="0"/>
+      <c r="AJF32" s="0"/>
+      <c r="AJG32" s="0"/>
+      <c r="AJH32" s="0"/>
+      <c r="AJI32" s="0"/>
+      <c r="AJJ32" s="0"/>
+      <c r="AJK32" s="0"/>
+      <c r="AJL32" s="0"/>
+      <c r="AJM32" s="0"/>
+      <c r="AJN32" s="0"/>
+      <c r="AJO32" s="0"/>
+      <c r="AJP32" s="0"/>
+      <c r="AJQ32" s="0"/>
+      <c r="AJR32" s="0"/>
+      <c r="AJS32" s="0"/>
+      <c r="AJT32" s="0"/>
+      <c r="AJU32" s="0"/>
+      <c r="AJV32" s="0"/>
+      <c r="AJW32" s="0"/>
+      <c r="AJX32" s="0"/>
+      <c r="AJY32" s="0"/>
+      <c r="AJZ32" s="0"/>
+      <c r="AKA32" s="0"/>
+      <c r="AKB32" s="0"/>
+      <c r="AKC32" s="0"/>
+      <c r="AKD32" s="0"/>
+      <c r="AKE32" s="0"/>
+      <c r="AKF32" s="0"/>
+      <c r="AKG32" s="0"/>
+      <c r="AKH32" s="0"/>
+      <c r="AKI32" s="0"/>
+      <c r="AKJ32" s="0"/>
+      <c r="AKK32" s="0"/>
+      <c r="AKL32" s="0"/>
+      <c r="AKM32" s="0"/>
+      <c r="AKN32" s="0"/>
+      <c r="AKO32" s="0"/>
+      <c r="AKP32" s="0"/>
+      <c r="AKQ32" s="0"/>
+      <c r="AKR32" s="0"/>
+      <c r="AKS32" s="0"/>
+      <c r="AKT32" s="0"/>
+      <c r="AKU32" s="0"/>
+      <c r="AKV32" s="0"/>
+      <c r="AKW32" s="0"/>
+      <c r="AKX32" s="0"/>
+      <c r="AKY32" s="0"/>
+      <c r="AKZ32" s="0"/>
+      <c r="ALA32" s="0"/>
+      <c r="ALB32" s="0"/>
+      <c r="ALC32" s="0"/>
+      <c r="ALD32" s="0"/>
+      <c r="ALE32" s="0"/>
+      <c r="ALF32" s="0"/>
+      <c r="ALG32" s="0"/>
+      <c r="ALH32" s="0"/>
+      <c r="ALI32" s="0"/>
+      <c r="ALJ32" s="0"/>
+      <c r="ALK32" s="0"/>
+      <c r="ALL32" s="0"/>
+      <c r="ALM32" s="0"/>
+      <c r="ALN32" s="0"/>
+      <c r="ALO32" s="0"/>
+      <c r="ALP32" s="0"/>
+      <c r="ALQ32" s="0"/>
+      <c r="ALR32" s="0"/>
+      <c r="ALS32" s="0"/>
+      <c r="ALT32" s="0"/>
+      <c r="ALU32" s="0"/>
+      <c r="ALV32" s="0"/>
+      <c r="ALW32" s="0"/>
+      <c r="ALX32" s="0"/>
+      <c r="ALY32" s="0"/>
+      <c r="ALZ32" s="0"/>
+      <c r="AMA32" s="0"/>
+      <c r="AMB32" s="0"/>
+      <c r="AMC32" s="0"/>
+      <c r="AMD32" s="0"/>
+      <c r="AME32" s="0"/>
+      <c r="AMF32" s="0"/>
+      <c r="AMG32" s="0"/>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
-      <c r="AB34" s="0"/>
-      <c r="AC34" s="0"/>
-      <c r="AD34" s="0"/>
-      <c r="AE34" s="0"/>
-      <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
-      <c r="AH34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-      <c r="AL34" s="0"/>
-      <c r="AM34" s="0"/>
-      <c r="AN34" s="0"/>
-      <c r="AO34" s="0"/>
-      <c r="AP34" s="0"/>
-      <c r="AQ34" s="0"/>
-      <c r="AR34" s="0"/>
-      <c r="AS34" s="0"/>
-      <c r="AT34" s="0"/>
-      <c r="AU34" s="0"/>
-      <c r="AV34" s="0"/>
-      <c r="AW34" s="0"/>
-      <c r="AX34" s="0"/>
-      <c r="AY34" s="0"/>
-      <c r="AZ34" s="0"/>
-      <c r="BA34" s="0"/>
-      <c r="BB34" s="0"/>
-      <c r="BC34" s="0"/>
-      <c r="BD34" s="0"/>
-      <c r="BE34" s="0"/>
-      <c r="BF34" s="0"/>
-      <c r="BG34" s="0"/>
-      <c r="BH34" s="0"/>
-      <c r="BI34" s="0"/>
-      <c r="BJ34" s="0"/>
-      <c r="BK34" s="0"/>
-      <c r="BL34" s="0"/>
-      <c r="BM34" s="0"/>
-      <c r="BN34" s="0"/>
-      <c r="BO34" s="0"/>
-      <c r="BP34" s="0"/>
-      <c r="BQ34" s="0"/>
-      <c r="BR34" s="0"/>
-      <c r="BS34" s="0"/>
-      <c r="BT34" s="0"/>
-      <c r="BU34" s="0"/>
-      <c r="BV34" s="0"/>
-      <c r="BW34" s="0"/>
-      <c r="BX34" s="0"/>
-      <c r="BY34" s="0"/>
-      <c r="BZ34" s="0"/>
-      <c r="CA34" s="0"/>
-      <c r="CB34" s="0"/>
-      <c r="CC34" s="0"/>
-      <c r="CD34" s="0"/>
-      <c r="CE34" s="0"/>
-      <c r="CF34" s="0"/>
-      <c r="CG34" s="0"/>
-      <c r="CH34" s="0"/>
-      <c r="CI34" s="0"/>
-      <c r="CJ34" s="0"/>
-      <c r="CK34" s="0"/>
-      <c r="CL34" s="0"/>
-      <c r="CM34" s="0"/>
-      <c r="CN34" s="0"/>
-      <c r="CO34" s="0"/>
-      <c r="CP34" s="0"/>
-      <c r="CQ34" s="0"/>
-      <c r="CR34" s="0"/>
-      <c r="CS34" s="0"/>
-      <c r="CT34" s="0"/>
-      <c r="CU34" s="0"/>
-      <c r="CV34" s="0"/>
-      <c r="CW34" s="0"/>
-      <c r="CX34" s="0"/>
-      <c r="CY34" s="0"/>
-      <c r="CZ34" s="0"/>
-      <c r="DA34" s="0"/>
-      <c r="DB34" s="0"/>
-      <c r="DC34" s="0"/>
-      <c r="DD34" s="0"/>
-      <c r="DE34" s="0"/>
-      <c r="DF34" s="0"/>
-      <c r="DG34" s="0"/>
-      <c r="DH34" s="0"/>
-      <c r="DI34" s="0"/>
-      <c r="DJ34" s="0"/>
-      <c r="DK34" s="0"/>
-      <c r="DL34" s="0"/>
-      <c r="DM34" s="0"/>
-      <c r="DN34" s="0"/>
-      <c r="DO34" s="0"/>
-      <c r="DP34" s="0"/>
-      <c r="DQ34" s="0"/>
-      <c r="DR34" s="0"/>
-      <c r="DS34" s="0"/>
-      <c r="DT34" s="0"/>
-      <c r="DU34" s="0"/>
-      <c r="DV34" s="0"/>
-      <c r="DW34" s="0"/>
-      <c r="DX34" s="0"/>
-      <c r="DY34" s="0"/>
-      <c r="DZ34" s="0"/>
-      <c r="EA34" s="0"/>
-      <c r="EB34" s="0"/>
-      <c r="EC34" s="0"/>
-      <c r="ED34" s="0"/>
-      <c r="EE34" s="0"/>
-      <c r="EF34" s="0"/>
-      <c r="EG34" s="0"/>
-      <c r="EH34" s="0"/>
-      <c r="EI34" s="0"/>
-      <c r="EJ34" s="0"/>
-      <c r="EK34" s="0"/>
-      <c r="EL34" s="0"/>
-      <c r="EM34" s="0"/>
-      <c r="EN34" s="0"/>
-      <c r="EO34" s="0"/>
-      <c r="EP34" s="0"/>
-      <c r="EQ34" s="0"/>
-      <c r="ER34" s="0"/>
-      <c r="ES34" s="0"/>
-      <c r="ET34" s="0"/>
-      <c r="EU34" s="0"/>
-      <c r="EV34" s="0"/>
-      <c r="EW34" s="0"/>
-      <c r="EX34" s="0"/>
-      <c r="EY34" s="0"/>
-      <c r="EZ34" s="0"/>
-      <c r="FA34" s="0"/>
-      <c r="FB34" s="0"/>
-      <c r="FC34" s="0"/>
-      <c r="FD34" s="0"/>
-      <c r="FE34" s="0"/>
-      <c r="FF34" s="0"/>
-      <c r="FG34" s="0"/>
-      <c r="FH34" s="0"/>
-      <c r="FI34" s="0"/>
-      <c r="FJ34" s="0"/>
-      <c r="FK34" s="0"/>
-      <c r="FL34" s="0"/>
-      <c r="FM34" s="0"/>
-      <c r="FN34" s="0"/>
-      <c r="FO34" s="0"/>
-      <c r="FP34" s="0"/>
-      <c r="FQ34" s="0"/>
-      <c r="FR34" s="0"/>
-      <c r="FS34" s="0"/>
-      <c r="FT34" s="0"/>
-      <c r="FU34" s="0"/>
-      <c r="FV34" s="0"/>
-      <c r="FW34" s="0"/>
-      <c r="FX34" s="0"/>
-      <c r="FY34" s="0"/>
-      <c r="FZ34" s="0"/>
-      <c r="GA34" s="0"/>
-      <c r="GB34" s="0"/>
-      <c r="GC34" s="0"/>
-      <c r="GD34" s="0"/>
-      <c r="GE34" s="0"/>
-      <c r="GF34" s="0"/>
-      <c r="GG34" s="0"/>
-      <c r="GH34" s="0"/>
-      <c r="GI34" s="0"/>
-      <c r="GJ34" s="0"/>
-      <c r="GK34" s="0"/>
-      <c r="GL34" s="0"/>
-      <c r="GM34" s="0"/>
-      <c r="GN34" s="0"/>
-      <c r="GO34" s="0"/>
-      <c r="GP34" s="0"/>
-      <c r="GQ34" s="0"/>
-      <c r="GR34" s="0"/>
-      <c r="GS34" s="0"/>
-      <c r="GT34" s="0"/>
-      <c r="GU34" s="0"/>
-      <c r="GV34" s="0"/>
-      <c r="GW34" s="0"/>
-      <c r="GX34" s="0"/>
-      <c r="GY34" s="0"/>
-      <c r="GZ34" s="0"/>
-      <c r="HA34" s="0"/>
-      <c r="HB34" s="0"/>
-      <c r="HC34" s="0"/>
-      <c r="HD34" s="0"/>
-      <c r="HE34" s="0"/>
-      <c r="HF34" s="0"/>
-      <c r="HG34" s="0"/>
-      <c r="HH34" s="0"/>
-      <c r="HI34" s="0"/>
-      <c r="HJ34" s="0"/>
-      <c r="HK34" s="0"/>
-      <c r="HL34" s="0"/>
-      <c r="HM34" s="0"/>
-      <c r="HN34" s="0"/>
-      <c r="HO34" s="0"/>
-      <c r="HP34" s="0"/>
-      <c r="HQ34" s="0"/>
-      <c r="HR34" s="0"/>
-      <c r="HS34" s="0"/>
-      <c r="HT34" s="0"/>
-      <c r="HU34" s="0"/>
-      <c r="HV34" s="0"/>
-      <c r="HW34" s="0"/>
-      <c r="HX34" s="0"/>
-      <c r="HY34" s="0"/>
-      <c r="HZ34" s="0"/>
-      <c r="IA34" s="0"/>
-      <c r="IB34" s="0"/>
-      <c r="IC34" s="0"/>
-      <c r="ID34" s="0"/>
-      <c r="IE34" s="0"/>
-      <c r="IF34" s="0"/>
-      <c r="IG34" s="0"/>
-      <c r="IH34" s="0"/>
-      <c r="II34" s="0"/>
-      <c r="IJ34" s="0"/>
-      <c r="IK34" s="0"/>
-      <c r="IL34" s="0"/>
-      <c r="IM34" s="0"/>
-      <c r="IN34" s="0"/>
-      <c r="IO34" s="0"/>
-      <c r="IP34" s="0"/>
-      <c r="IQ34" s="0"/>
-      <c r="IR34" s="0"/>
-      <c r="IS34" s="0"/>
-      <c r="IT34" s="0"/>
-      <c r="IU34" s="0"/>
-      <c r="IV34" s="0"/>
-      <c r="IW34" s="0"/>
-      <c r="IX34" s="0"/>
-      <c r="IY34" s="0"/>
-      <c r="IZ34" s="0"/>
-      <c r="JA34" s="0"/>
-      <c r="JB34" s="0"/>
-      <c r="JC34" s="0"/>
-      <c r="JD34" s="0"/>
-      <c r="JE34" s="0"/>
-      <c r="JF34" s="0"/>
-      <c r="JG34" s="0"/>
-      <c r="JH34" s="0"/>
-      <c r="JI34" s="0"/>
-      <c r="JJ34" s="0"/>
-      <c r="JK34" s="0"/>
-      <c r="JL34" s="0"/>
-      <c r="JM34" s="0"/>
-      <c r="JN34" s="0"/>
-      <c r="JO34" s="0"/>
-      <c r="JP34" s="0"/>
-      <c r="JQ34" s="0"/>
-      <c r="JR34" s="0"/>
-      <c r="JS34" s="0"/>
-      <c r="JT34" s="0"/>
-      <c r="JU34" s="0"/>
-      <c r="JV34" s="0"/>
-      <c r="JW34" s="0"/>
-      <c r="JX34" s="0"/>
-      <c r="JY34" s="0"/>
-      <c r="JZ34" s="0"/>
-      <c r="KA34" s="0"/>
-      <c r="KB34" s="0"/>
-      <c r="KC34" s="0"/>
-      <c r="KD34" s="0"/>
-      <c r="KE34" s="0"/>
-      <c r="KF34" s="0"/>
-      <c r="KG34" s="0"/>
-      <c r="KH34" s="0"/>
-      <c r="KI34" s="0"/>
-      <c r="KJ34" s="0"/>
-      <c r="KK34" s="0"/>
-      <c r="KL34" s="0"/>
-      <c r="KM34" s="0"/>
-      <c r="KN34" s="0"/>
-      <c r="KO34" s="0"/>
-      <c r="KP34" s="0"/>
-      <c r="KQ34" s="0"/>
-      <c r="KR34" s="0"/>
-      <c r="KS34" s="0"/>
-      <c r="KT34" s="0"/>
-      <c r="KU34" s="0"/>
-      <c r="KV34" s="0"/>
-      <c r="KW34" s="0"/>
-      <c r="KX34" s="0"/>
-      <c r="KY34" s="0"/>
-      <c r="KZ34" s="0"/>
-      <c r="LA34" s="0"/>
-      <c r="LB34" s="0"/>
-      <c r="LC34" s="0"/>
-      <c r="LD34" s="0"/>
-      <c r="LE34" s="0"/>
-      <c r="LF34" s="0"/>
-      <c r="LG34" s="0"/>
-      <c r="LH34" s="0"/>
-      <c r="LI34" s="0"/>
-      <c r="LJ34" s="0"/>
-      <c r="LK34" s="0"/>
-      <c r="LL34" s="0"/>
-      <c r="LM34" s="0"/>
-      <c r="LN34" s="0"/>
-      <c r="LO34" s="0"/>
-      <c r="LP34" s="0"/>
-      <c r="LQ34" s="0"/>
-      <c r="LR34" s="0"/>
-      <c r="LS34" s="0"/>
-      <c r="LT34" s="0"/>
-      <c r="LU34" s="0"/>
-      <c r="LV34" s="0"/>
-      <c r="LW34" s="0"/>
-      <c r="LX34" s="0"/>
-      <c r="LY34" s="0"/>
-      <c r="LZ34" s="0"/>
-      <c r="MA34" s="0"/>
-      <c r="MB34" s="0"/>
-      <c r="MC34" s="0"/>
-      <c r="MD34" s="0"/>
-      <c r="ME34" s="0"/>
-      <c r="MF34" s="0"/>
-      <c r="MG34" s="0"/>
-      <c r="MH34" s="0"/>
-      <c r="MI34" s="0"/>
-      <c r="MJ34" s="0"/>
-      <c r="MK34" s="0"/>
-      <c r="ML34" s="0"/>
-      <c r="MM34" s="0"/>
-      <c r="MN34" s="0"/>
-      <c r="MO34" s="0"/>
-      <c r="MP34" s="0"/>
-      <c r="MQ34" s="0"/>
-      <c r="MR34" s="0"/>
-      <c r="MS34" s="0"/>
-      <c r="MT34" s="0"/>
-      <c r="MU34" s="0"/>
-      <c r="MV34" s="0"/>
-      <c r="MW34" s="0"/>
-      <c r="MX34" s="0"/>
-      <c r="MY34" s="0"/>
-      <c r="MZ34" s="0"/>
-      <c r="NA34" s="0"/>
-      <c r="NB34" s="0"/>
-      <c r="NC34" s="0"/>
-      <c r="ND34" s="0"/>
-      <c r="NE34" s="0"/>
-      <c r="NF34" s="0"/>
-      <c r="NG34" s="0"/>
-      <c r="NH34" s="0"/>
-      <c r="NI34" s="0"/>
-      <c r="NJ34" s="0"/>
-      <c r="NK34" s="0"/>
-      <c r="NL34" s="0"/>
-      <c r="NM34" s="0"/>
-      <c r="NN34" s="0"/>
-      <c r="NO34" s="0"/>
-      <c r="NP34" s="0"/>
-      <c r="NQ34" s="0"/>
-      <c r="NR34" s="0"/>
-      <c r="NS34" s="0"/>
-      <c r="NT34" s="0"/>
-      <c r="NU34" s="0"/>
-      <c r="NV34" s="0"/>
-      <c r="NW34" s="0"/>
-      <c r="NX34" s="0"/>
-      <c r="NY34" s="0"/>
-      <c r="NZ34" s="0"/>
-      <c r="OA34" s="0"/>
-      <c r="OB34" s="0"/>
-      <c r="OC34" s="0"/>
-      <c r="OD34" s="0"/>
-      <c r="OE34" s="0"/>
-      <c r="OF34" s="0"/>
-      <c r="OG34" s="0"/>
-      <c r="OH34" s="0"/>
-      <c r="OI34" s="0"/>
-      <c r="OJ34" s="0"/>
-      <c r="OK34" s="0"/>
-      <c r="OL34" s="0"/>
-      <c r="OM34" s="0"/>
-      <c r="ON34" s="0"/>
-      <c r="OO34" s="0"/>
-      <c r="OP34" s="0"/>
-      <c r="OQ34" s="0"/>
-      <c r="OR34" s="0"/>
-      <c r="OS34" s="0"/>
-      <c r="OT34" s="0"/>
-      <c r="OU34" s="0"/>
-      <c r="OV34" s="0"/>
-      <c r="OW34" s="0"/>
-      <c r="OX34" s="0"/>
-      <c r="OY34" s="0"/>
-      <c r="OZ34" s="0"/>
-      <c r="PA34" s="0"/>
-      <c r="PB34" s="0"/>
-      <c r="PC34" s="0"/>
-      <c r="PD34" s="0"/>
-      <c r="PE34" s="0"/>
-      <c r="PF34" s="0"/>
-      <c r="PG34" s="0"/>
-      <c r="PH34" s="0"/>
-      <c r="PI34" s="0"/>
-      <c r="PJ34" s="0"/>
-      <c r="PK34" s="0"/>
-      <c r="PL34" s="0"/>
-      <c r="PM34" s="0"/>
-      <c r="PN34" s="0"/>
-      <c r="PO34" s="0"/>
-      <c r="PP34" s="0"/>
-      <c r="PQ34" s="0"/>
-      <c r="PR34" s="0"/>
-      <c r="PS34" s="0"/>
-      <c r="PT34" s="0"/>
-      <c r="PU34" s="0"/>
-      <c r="PV34" s="0"/>
-      <c r="PW34" s="0"/>
-      <c r="PX34" s="0"/>
-      <c r="PY34" s="0"/>
-      <c r="PZ34" s="0"/>
-      <c r="QA34" s="0"/>
-      <c r="QB34" s="0"/>
-      <c r="QC34" s="0"/>
-      <c r="QD34" s="0"/>
-      <c r="QE34" s="0"/>
-      <c r="QF34" s="0"/>
-      <c r="QG34" s="0"/>
-      <c r="QH34" s="0"/>
-      <c r="QI34" s="0"/>
-      <c r="QJ34" s="0"/>
-      <c r="QK34" s="0"/>
-      <c r="QL34" s="0"/>
-      <c r="QM34" s="0"/>
-      <c r="QN34" s="0"/>
-      <c r="QO34" s="0"/>
-      <c r="QP34" s="0"/>
-      <c r="QQ34" s="0"/>
-      <c r="QR34" s="0"/>
-      <c r="QS34" s="0"/>
-      <c r="QT34" s="0"/>
-      <c r="QU34" s="0"/>
-      <c r="QV34" s="0"/>
-      <c r="QW34" s="0"/>
-      <c r="QX34" s="0"/>
-      <c r="QY34" s="0"/>
-      <c r="QZ34" s="0"/>
-      <c r="RA34" s="0"/>
-      <c r="RB34" s="0"/>
-      <c r="RC34" s="0"/>
-      <c r="RD34" s="0"/>
-      <c r="RE34" s="0"/>
-      <c r="RF34" s="0"/>
-      <c r="RG34" s="0"/>
-      <c r="RH34" s="0"/>
-      <c r="RI34" s="0"/>
-      <c r="RJ34" s="0"/>
-      <c r="RK34" s="0"/>
-      <c r="RL34" s="0"/>
-      <c r="RM34" s="0"/>
-      <c r="RN34" s="0"/>
-      <c r="RO34" s="0"/>
-      <c r="RP34" s="0"/>
-      <c r="RQ34" s="0"/>
-      <c r="RR34" s="0"/>
-      <c r="RS34" s="0"/>
-      <c r="RT34" s="0"/>
-      <c r="RU34" s="0"/>
-      <c r="RV34" s="0"/>
-      <c r="RW34" s="0"/>
-      <c r="RX34" s="0"/>
-      <c r="RY34" s="0"/>
-      <c r="RZ34" s="0"/>
-      <c r="SA34" s="0"/>
-      <c r="SB34" s="0"/>
-      <c r="SC34" s="0"/>
-      <c r="SD34" s="0"/>
-      <c r="SE34" s="0"/>
-      <c r="SF34" s="0"/>
-      <c r="SG34" s="0"/>
-      <c r="SH34" s="0"/>
-      <c r="SI34" s="0"/>
-      <c r="SJ34" s="0"/>
-      <c r="SK34" s="0"/>
-      <c r="SL34" s="0"/>
-      <c r="SM34" s="0"/>
-      <c r="SN34" s="0"/>
-      <c r="SO34" s="0"/>
-      <c r="SP34" s="0"/>
-      <c r="SQ34" s="0"/>
-      <c r="SR34" s="0"/>
-      <c r="SS34" s="0"/>
-      <c r="ST34" s="0"/>
-      <c r="SU34" s="0"/>
-      <c r="SV34" s="0"/>
-      <c r="SW34" s="0"/>
-      <c r="SX34" s="0"/>
-      <c r="SY34" s="0"/>
-      <c r="SZ34" s="0"/>
-      <c r="TA34" s="0"/>
-      <c r="TB34" s="0"/>
-      <c r="TC34" s="0"/>
-      <c r="TD34" s="0"/>
-      <c r="TE34" s="0"/>
-      <c r="TF34" s="0"/>
-      <c r="TG34" s="0"/>
-      <c r="TH34" s="0"/>
-      <c r="TI34" s="0"/>
-      <c r="TJ34" s="0"/>
-      <c r="TK34" s="0"/>
-      <c r="TL34" s="0"/>
-      <c r="TM34" s="0"/>
-      <c r="TN34" s="0"/>
-      <c r="TO34" s="0"/>
-      <c r="TP34" s="0"/>
-      <c r="TQ34" s="0"/>
-      <c r="TR34" s="0"/>
-      <c r="TS34" s="0"/>
-      <c r="TT34" s="0"/>
-      <c r="TU34" s="0"/>
-      <c r="TV34" s="0"/>
-      <c r="TW34" s="0"/>
-      <c r="TX34" s="0"/>
-      <c r="TY34" s="0"/>
-      <c r="TZ34" s="0"/>
-      <c r="UA34" s="0"/>
-      <c r="UB34" s="0"/>
-      <c r="UC34" s="0"/>
-      <c r="UD34" s="0"/>
-      <c r="UE34" s="0"/>
-      <c r="UF34" s="0"/>
-      <c r="UG34" s="0"/>
-      <c r="UH34" s="0"/>
-      <c r="UI34" s="0"/>
-      <c r="UJ34" s="0"/>
-      <c r="UK34" s="0"/>
-      <c r="UL34" s="0"/>
-      <c r="UM34" s="0"/>
-      <c r="UN34" s="0"/>
-      <c r="UO34" s="0"/>
-      <c r="UP34" s="0"/>
-      <c r="UQ34" s="0"/>
-      <c r="UR34" s="0"/>
-      <c r="US34" s="0"/>
-      <c r="UT34" s="0"/>
-      <c r="UU34" s="0"/>
-      <c r="UV34" s="0"/>
-      <c r="UW34" s="0"/>
-      <c r="UX34" s="0"/>
-      <c r="UY34" s="0"/>
-      <c r="UZ34" s="0"/>
-      <c r="VA34" s="0"/>
-      <c r="VB34" s="0"/>
-      <c r="VC34" s="0"/>
-      <c r="VD34" s="0"/>
-      <c r="VE34" s="0"/>
-      <c r="VF34" s="0"/>
-      <c r="VG34" s="0"/>
-      <c r="VH34" s="0"/>
-      <c r="VI34" s="0"/>
-      <c r="VJ34" s="0"/>
-      <c r="VK34" s="0"/>
-      <c r="VL34" s="0"/>
-      <c r="VM34" s="0"/>
-      <c r="VN34" s="0"/>
-      <c r="VO34" s="0"/>
-      <c r="VP34" s="0"/>
-      <c r="VQ34" s="0"/>
-      <c r="VR34" s="0"/>
-      <c r="VS34" s="0"/>
-      <c r="VT34" s="0"/>
-      <c r="VU34" s="0"/>
-      <c r="VV34" s="0"/>
-      <c r="VW34" s="0"/>
-      <c r="VX34" s="0"/>
-      <c r="VY34" s="0"/>
-      <c r="VZ34" s="0"/>
-      <c r="WA34" s="0"/>
-      <c r="WB34" s="0"/>
-      <c r="WC34" s="0"/>
-      <c r="WD34" s="0"/>
-      <c r="WE34" s="0"/>
-      <c r="WF34" s="0"/>
-      <c r="WG34" s="0"/>
-      <c r="WH34" s="0"/>
-      <c r="WI34" s="0"/>
-      <c r="WJ34" s="0"/>
-      <c r="WK34" s="0"/>
-      <c r="WL34" s="0"/>
-      <c r="WM34" s="0"/>
-      <c r="WN34" s="0"/>
-      <c r="WO34" s="0"/>
-      <c r="WP34" s="0"/>
-      <c r="WQ34" s="0"/>
-      <c r="WR34" s="0"/>
-      <c r="WS34" s="0"/>
-      <c r="WT34" s="0"/>
-      <c r="WU34" s="0"/>
-      <c r="WV34" s="0"/>
-      <c r="WW34" s="0"/>
-      <c r="WX34" s="0"/>
-      <c r="WY34" s="0"/>
-      <c r="WZ34" s="0"/>
-      <c r="XA34" s="0"/>
-      <c r="XB34" s="0"/>
-      <c r="XC34" s="0"/>
-      <c r="XD34" s="0"/>
-      <c r="XE34" s="0"/>
-      <c r="XF34" s="0"/>
-      <c r="XG34" s="0"/>
-      <c r="XH34" s="0"/>
-      <c r="XI34" s="0"/>
-      <c r="XJ34" s="0"/>
-      <c r="XK34" s="0"/>
-      <c r="XL34" s="0"/>
-      <c r="XM34" s="0"/>
-      <c r="XN34" s="0"/>
-      <c r="XO34" s="0"/>
-      <c r="XP34" s="0"/>
-      <c r="XQ34" s="0"/>
-      <c r="XR34" s="0"/>
-      <c r="XS34" s="0"/>
-      <c r="XT34" s="0"/>
-      <c r="XU34" s="0"/>
-      <c r="XV34" s="0"/>
-      <c r="XW34" s="0"/>
-      <c r="XX34" s="0"/>
-      <c r="XY34" s="0"/>
-      <c r="XZ34" s="0"/>
-      <c r="YA34" s="0"/>
-      <c r="YB34" s="0"/>
-      <c r="YC34" s="0"/>
-      <c r="YD34" s="0"/>
-      <c r="YE34" s="0"/>
-      <c r="YF34" s="0"/>
-      <c r="YG34" s="0"/>
-      <c r="YH34" s="0"/>
-      <c r="YI34" s="0"/>
-      <c r="YJ34" s="0"/>
-      <c r="YK34" s="0"/>
-      <c r="YL34" s="0"/>
-      <c r="YM34" s="0"/>
-      <c r="YN34" s="0"/>
-      <c r="YO34" s="0"/>
-      <c r="YP34" s="0"/>
-      <c r="YQ34" s="0"/>
-      <c r="YR34" s="0"/>
-      <c r="YS34" s="0"/>
-      <c r="YT34" s="0"/>
-      <c r="YU34" s="0"/>
-      <c r="YV34" s="0"/>
-      <c r="YW34" s="0"/>
-      <c r="YX34" s="0"/>
-      <c r="YY34" s="0"/>
-      <c r="YZ34" s="0"/>
-      <c r="ZA34" s="0"/>
-      <c r="ZB34" s="0"/>
-      <c r="ZC34" s="0"/>
-      <c r="ZD34" s="0"/>
-      <c r="ZE34" s="0"/>
-      <c r="ZF34" s="0"/>
-      <c r="ZG34" s="0"/>
-      <c r="ZH34" s="0"/>
-      <c r="ZI34" s="0"/>
-      <c r="ZJ34" s="0"/>
-      <c r="ZK34" s="0"/>
-      <c r="ZL34" s="0"/>
-      <c r="ZM34" s="0"/>
-      <c r="ZN34" s="0"/>
-      <c r="ZO34" s="0"/>
-      <c r="ZP34" s="0"/>
-      <c r="ZQ34" s="0"/>
-      <c r="ZR34" s="0"/>
-      <c r="ZS34" s="0"/>
-      <c r="ZT34" s="0"/>
-      <c r="ZU34" s="0"/>
-      <c r="ZV34" s="0"/>
-      <c r="ZW34" s="0"/>
-      <c r="ZX34" s="0"/>
-      <c r="ZY34" s="0"/>
-      <c r="ZZ34" s="0"/>
-      <c r="AAA34" s="0"/>
-      <c r="AAB34" s="0"/>
-      <c r="AAC34" s="0"/>
-      <c r="AAD34" s="0"/>
-      <c r="AAE34" s="0"/>
-      <c r="AAF34" s="0"/>
-      <c r="AAG34" s="0"/>
-      <c r="AAH34" s="0"/>
-      <c r="AAI34" s="0"/>
-      <c r="AAJ34" s="0"/>
-      <c r="AAK34" s="0"/>
-      <c r="AAL34" s="0"/>
-      <c r="AAM34" s="0"/>
-      <c r="AAN34" s="0"/>
-      <c r="AAO34" s="0"/>
-      <c r="AAP34" s="0"/>
-      <c r="AAQ34" s="0"/>
-      <c r="AAR34" s="0"/>
-      <c r="AAS34" s="0"/>
-      <c r="AAT34" s="0"/>
-      <c r="AAU34" s="0"/>
-      <c r="AAV34" s="0"/>
-      <c r="AAW34" s="0"/>
-      <c r="AAX34" s="0"/>
-      <c r="AAY34" s="0"/>
-      <c r="AAZ34" s="0"/>
-      <c r="ABA34" s="0"/>
-      <c r="ABB34" s="0"/>
-      <c r="ABC34" s="0"/>
-      <c r="ABD34" s="0"/>
-      <c r="ABE34" s="0"/>
-      <c r="ABF34" s="0"/>
-      <c r="ABG34" s="0"/>
-      <c r="ABH34" s="0"/>
-      <c r="ABI34" s="0"/>
-      <c r="ABJ34" s="0"/>
-      <c r="ABK34" s="0"/>
-      <c r="ABL34" s="0"/>
-      <c r="ABM34" s="0"/>
-      <c r="ABN34" s="0"/>
-      <c r="ABO34" s="0"/>
-      <c r="ABP34" s="0"/>
-      <c r="ABQ34" s="0"/>
-      <c r="ABR34" s="0"/>
-      <c r="ABS34" s="0"/>
-      <c r="ABT34" s="0"/>
-      <c r="ABU34" s="0"/>
-      <c r="ABV34" s="0"/>
-      <c r="ABW34" s="0"/>
-      <c r="ABX34" s="0"/>
-      <c r="ABY34" s="0"/>
-      <c r="ABZ34" s="0"/>
-      <c r="ACA34" s="0"/>
-      <c r="ACB34" s="0"/>
-      <c r="ACC34" s="0"/>
-      <c r="ACD34" s="0"/>
-      <c r="ACE34" s="0"/>
-      <c r="ACF34" s="0"/>
-      <c r="ACG34" s="0"/>
-      <c r="ACH34" s="0"/>
-      <c r="ACI34" s="0"/>
-      <c r="ACJ34" s="0"/>
-      <c r="ACK34" s="0"/>
-      <c r="ACL34" s="0"/>
-      <c r="ACM34" s="0"/>
-      <c r="ACN34" s="0"/>
-      <c r="ACO34" s="0"/>
-      <c r="ACP34" s="0"/>
-      <c r="ACQ34" s="0"/>
-      <c r="ACR34" s="0"/>
-      <c r="ACS34" s="0"/>
-      <c r="ACT34" s="0"/>
-      <c r="ACU34" s="0"/>
-      <c r="ACV34" s="0"/>
-      <c r="ACW34" s="0"/>
-      <c r="ACX34" s="0"/>
-      <c r="ACY34" s="0"/>
-      <c r="ACZ34" s="0"/>
-      <c r="ADA34" s="0"/>
-      <c r="ADB34" s="0"/>
-      <c r="ADC34" s="0"/>
-      <c r="ADD34" s="0"/>
-      <c r="ADE34" s="0"/>
-      <c r="ADF34" s="0"/>
-      <c r="ADG34" s="0"/>
-      <c r="ADH34" s="0"/>
-      <c r="ADI34" s="0"/>
-      <c r="ADJ34" s="0"/>
-      <c r="ADK34" s="0"/>
-      <c r="ADL34" s="0"/>
-      <c r="ADM34" s="0"/>
-      <c r="ADN34" s="0"/>
-      <c r="ADO34" s="0"/>
-      <c r="ADP34" s="0"/>
-      <c r="ADQ34" s="0"/>
-      <c r="ADR34" s="0"/>
-      <c r="ADS34" s="0"/>
-      <c r="ADT34" s="0"/>
-      <c r="ADU34" s="0"/>
-      <c r="ADV34" s="0"/>
-      <c r="ADW34" s="0"/>
-      <c r="ADX34" s="0"/>
-      <c r="ADY34" s="0"/>
-      <c r="ADZ34" s="0"/>
-      <c r="AEA34" s="0"/>
-      <c r="AEB34" s="0"/>
-      <c r="AEC34" s="0"/>
-      <c r="AED34" s="0"/>
-      <c r="AEE34" s="0"/>
-      <c r="AEF34" s="0"/>
-      <c r="AEG34" s="0"/>
-      <c r="AEH34" s="0"/>
-      <c r="AEI34" s="0"/>
-      <c r="AEJ34" s="0"/>
-      <c r="AEK34" s="0"/>
-      <c r="AEL34" s="0"/>
-      <c r="AEM34" s="0"/>
-      <c r="AEN34" s="0"/>
-      <c r="AEO34" s="0"/>
-      <c r="AEP34" s="0"/>
-      <c r="AEQ34" s="0"/>
-      <c r="AER34" s="0"/>
-      <c r="AES34" s="0"/>
-      <c r="AET34" s="0"/>
-      <c r="AEU34" s="0"/>
-      <c r="AEV34" s="0"/>
-      <c r="AEW34" s="0"/>
-      <c r="AEX34" s="0"/>
-      <c r="AEY34" s="0"/>
-      <c r="AEZ34" s="0"/>
-      <c r="AFA34" s="0"/>
-      <c r="AFB34" s="0"/>
-      <c r="AFC34" s="0"/>
-      <c r="AFD34" s="0"/>
-      <c r="AFE34" s="0"/>
-      <c r="AFF34" s="0"/>
-      <c r="AFG34" s="0"/>
-      <c r="AFH34" s="0"/>
-      <c r="AFI34" s="0"/>
-      <c r="AFJ34" s="0"/>
-      <c r="AFK34" s="0"/>
-      <c r="AFL34" s="0"/>
-      <c r="AFM34" s="0"/>
-      <c r="AFN34" s="0"/>
-      <c r="AFO34" s="0"/>
-      <c r="AFP34" s="0"/>
-      <c r="AFQ34" s="0"/>
-      <c r="AFR34" s="0"/>
-      <c r="AFS34" s="0"/>
-      <c r="AFT34" s="0"/>
-      <c r="AFU34" s="0"/>
-      <c r="AFV34" s="0"/>
-      <c r="AFW34" s="0"/>
-      <c r="AFX34" s="0"/>
-      <c r="AFY34" s="0"/>
-      <c r="AFZ34" s="0"/>
-      <c r="AGA34" s="0"/>
-      <c r="AGB34" s="0"/>
-      <c r="AGC34" s="0"/>
-      <c r="AGD34" s="0"/>
-      <c r="AGE34" s="0"/>
-      <c r="AGF34" s="0"/>
-      <c r="AGG34" s="0"/>
-      <c r="AGH34" s="0"/>
-      <c r="AGI34" s="0"/>
-      <c r="AGJ34" s="0"/>
-      <c r="AGK34" s="0"/>
-      <c r="AGL34" s="0"/>
-      <c r="AGM34" s="0"/>
-      <c r="AGN34" s="0"/>
-      <c r="AGO34" s="0"/>
-      <c r="AGP34" s="0"/>
-      <c r="AGQ34" s="0"/>
-      <c r="AGR34" s="0"/>
-      <c r="AGS34" s="0"/>
-      <c r="AGT34" s="0"/>
-      <c r="AGU34" s="0"/>
-      <c r="AGV34" s="0"/>
-      <c r="AGW34" s="0"/>
-      <c r="AGX34" s="0"/>
-      <c r="AGY34" s="0"/>
-      <c r="AGZ34" s="0"/>
-      <c r="AHA34" s="0"/>
-      <c r="AHB34" s="0"/>
-      <c r="AHC34" s="0"/>
-      <c r="AHD34" s="0"/>
-      <c r="AHE34" s="0"/>
-      <c r="AHF34" s="0"/>
-      <c r="AHG34" s="0"/>
-      <c r="AHH34" s="0"/>
-      <c r="AHI34" s="0"/>
-      <c r="AHJ34" s="0"/>
-      <c r="AHK34" s="0"/>
-      <c r="AHL34" s="0"/>
-      <c r="AHM34" s="0"/>
-      <c r="AHN34" s="0"/>
-      <c r="AHO34" s="0"/>
-      <c r="AHP34" s="0"/>
-      <c r="AHQ34" s="0"/>
-      <c r="AHR34" s="0"/>
-      <c r="AHS34" s="0"/>
-      <c r="AHT34" s="0"/>
-      <c r="AHU34" s="0"/>
-      <c r="AHV34" s="0"/>
-      <c r="AHW34" s="0"/>
-      <c r="AHX34" s="0"/>
-      <c r="AHY34" s="0"/>
-      <c r="AHZ34" s="0"/>
-      <c r="AIA34" s="0"/>
-      <c r="AIB34" s="0"/>
-      <c r="AIC34" s="0"/>
-      <c r="AID34" s="0"/>
-      <c r="AIE34" s="0"/>
-      <c r="AIF34" s="0"/>
-      <c r="AIG34" s="0"/>
-      <c r="AIH34" s="0"/>
-      <c r="AII34" s="0"/>
-      <c r="AIJ34" s="0"/>
-      <c r="AIK34" s="0"/>
-      <c r="AIL34" s="0"/>
-      <c r="AIM34" s="0"/>
-      <c r="AIN34" s="0"/>
-      <c r="AIO34" s="0"/>
-      <c r="AIP34" s="0"/>
-      <c r="AIQ34" s="0"/>
-      <c r="AIR34" s="0"/>
-      <c r="AIS34" s="0"/>
-      <c r="AIT34" s="0"/>
-      <c r="AIU34" s="0"/>
-      <c r="AIV34" s="0"/>
-      <c r="AIW34" s="0"/>
-      <c r="AIX34" s="0"/>
-      <c r="AIY34" s="0"/>
-      <c r="AIZ34" s="0"/>
-      <c r="AJA34" s="0"/>
-      <c r="AJB34" s="0"/>
-      <c r="AJC34" s="0"/>
-      <c r="AJD34" s="0"/>
-      <c r="AJE34" s="0"/>
-      <c r="AJF34" s="0"/>
-      <c r="AJG34" s="0"/>
-      <c r="AJH34" s="0"/>
-      <c r="AJI34" s="0"/>
-      <c r="AJJ34" s="0"/>
-      <c r="AJK34" s="0"/>
-      <c r="AJL34" s="0"/>
-      <c r="AJM34" s="0"/>
-      <c r="AJN34" s="0"/>
-      <c r="AJO34" s="0"/>
-      <c r="AJP34" s="0"/>
-      <c r="AJQ34" s="0"/>
-      <c r="AJR34" s="0"/>
-      <c r="AJS34" s="0"/>
-      <c r="AJT34" s="0"/>
-      <c r="AJU34" s="0"/>
-      <c r="AJV34" s="0"/>
-      <c r="AJW34" s="0"/>
-      <c r="AJX34" s="0"/>
-      <c r="AJY34" s="0"/>
-      <c r="AJZ34" s="0"/>
-      <c r="AKA34" s="0"/>
-      <c r="AKB34" s="0"/>
-      <c r="AKC34" s="0"/>
-      <c r="AKD34" s="0"/>
-      <c r="AKE34" s="0"/>
-      <c r="AKF34" s="0"/>
-      <c r="AKG34" s="0"/>
-      <c r="AKH34" s="0"/>
-      <c r="AKI34" s="0"/>
-      <c r="AKJ34" s="0"/>
-      <c r="AKK34" s="0"/>
-      <c r="AKL34" s="0"/>
-      <c r="AKM34" s="0"/>
-      <c r="AKN34" s="0"/>
-      <c r="AKO34" s="0"/>
-      <c r="AKP34" s="0"/>
-      <c r="AKQ34" s="0"/>
-      <c r="AKR34" s="0"/>
-      <c r="AKS34" s="0"/>
-      <c r="AKT34" s="0"/>
-      <c r="AKU34" s="0"/>
-      <c r="AKV34" s="0"/>
-      <c r="AKW34" s="0"/>
-      <c r="AKX34" s="0"/>
-      <c r="AKY34" s="0"/>
-      <c r="AKZ34" s="0"/>
-      <c r="ALA34" s="0"/>
-      <c r="ALB34" s="0"/>
-      <c r="ALC34" s="0"/>
-      <c r="ALD34" s="0"/>
-      <c r="ALE34" s="0"/>
-      <c r="ALF34" s="0"/>
-      <c r="ALG34" s="0"/>
-      <c r="ALH34" s="0"/>
-      <c r="ALI34" s="0"/>
-      <c r="ALJ34" s="0"/>
-      <c r="ALK34" s="0"/>
-      <c r="ALL34" s="0"/>
-      <c r="ALM34" s="0"/>
-      <c r="ALN34" s="0"/>
-      <c r="ALO34" s="0"/>
-      <c r="ALP34" s="0"/>
-      <c r="ALQ34" s="0"/>
-      <c r="ALR34" s="0"/>
-      <c r="ALS34" s="0"/>
-      <c r="ALT34" s="0"/>
-      <c r="ALU34" s="0"/>
-      <c r="ALV34" s="0"/>
-      <c r="ALW34" s="0"/>
-      <c r="ALX34" s="0"/>
-      <c r="ALY34" s="0"/>
-      <c r="ALZ34" s="0"/>
-      <c r="AMA34" s="0"/>
-      <c r="AMB34" s="0"/>
-      <c r="AMC34" s="0"/>
-      <c r="AMD34" s="0"/>
-      <c r="AME34" s="0"/>
-      <c r="AMF34" s="0"/>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
       <c r="V35" s="0"/>
       <c r="W35" s="0"/>
       <c r="X35" s="0"/>
@@ -19916,13 +19912,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="12" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -19930,16 +19926,14 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -20954,38 +20948,42 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
       <c r="V37" s="0"/>
       <c r="W37" s="0"/>
       <c r="X37" s="0"/>
@@ -21990,40 +21988,38 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="7" t="s">
+    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="B38" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
+      <c r="E38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="0"/>
       <c r="W38" s="0"/>
       <c r="X38" s="0"/>
@@ -23028,32 +23024,40 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22" t="s">
+    <row r="39" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>120</v>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>86</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
       <c r="V39" s="0"/>
       <c r="W39" s="0"/>
       <c r="X39" s="0"/>
@@ -24059,31 +24063,31 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
-        <v>121</v>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>124</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>68</v>
+      <c r="C40" s="22" t="s">
+        <v>125</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
       <c r="V40" s="0"/>
       <c r="W40" s="0"/>
       <c r="X40" s="0"/>
@@ -25089,27 +25093,31 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
       <c r="V41" s="0"/>
       <c r="W41" s="0"/>
       <c r="X41" s="0"/>
@@ -27140,20 +27148,12 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>122</v>
-      </c>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -27166,9 +27166,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -28176,12 +28174,20 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
+    <row r="44" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -28194,7 +28200,9 @@
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
+      <c r="R44" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
@@ -29202,36 +29210,28 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
+    <row r="45" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
       <c r="V45" s="0"/>
       <c r="W45" s="0"/>
       <c r="X45" s="0"/>
@@ -30236,42 +30236,36 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>128</v>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18" t="n">
+        <v>4</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="7" t="s">
-        <v>129</v>
+      <c r="C46" s="24" t="s">
+        <v>35</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>131</v>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24" t="s">
+        <v>105</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
       <c r="V46" s="0"/>
       <c r="W46" s="0"/>
       <c r="X46" s="0"/>
@@ -31276,38 +31270,42 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="M47" s="7"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="0"/>
       <c r="W47" s="0"/>
       <c r="X47" s="0"/>
@@ -32312,32 +32310,38 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24" t="s">
+    <row r="48" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>68</v>
+      <c r="E48" s="25" t="s">
+        <v>140</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
       <c r="V48" s="0"/>
       <c r="W48" s="0"/>
       <c r="X48" s="0"/>
@@ -33343,27 +33347,31 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
       <c r="V49" s="0"/>
       <c r="W49" s="0"/>
       <c r="X49" s="0"/>
@@ -34382,7 +34390,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
-      <c r="N50" s="26"/>
+      <c r="N50" s="25"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -35395,37 +35403,27 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
       <c r="V51" s="0"/>
       <c r="W51" s="0"/>
       <c r="X51" s="0"/>
@@ -36431,27 +36429,37 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
+      <c r="A52" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
       <c r="V52" s="0"/>
       <c r="W52" s="0"/>
       <c r="X52" s="0"/>
@@ -37459,15 +37467,15 @@
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -38483,37 +38491,27 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
       <c r="V54" s="0"/>
       <c r="W54" s="0"/>
       <c r="X54" s="0"/>
@@ -39518,40 +39516,38 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
       <c r="V55" s="0"/>
       <c r="W55" s="0"/>
       <c r="X55" s="0"/>
@@ -40556,32 +40552,40 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24" t="s">
+    <row r="56" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>68</v>
+      <c r="E56" s="8" t="s">
+        <v>152</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
       <c r="V56" s="0"/>
       <c r="W56" s="0"/>
       <c r="X56" s="0"/>
@@ -41587,27 +41591,31 @@
       <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
       <c r="V57" s="0"/>
       <c r="W57" s="0"/>
       <c r="X57" s="0"/>
@@ -43638,26 +43646,18 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>152</v>
-      </c>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -44672,28 +44672,36 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
+    <row r="60" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
       <c r="V60" s="0"/>
       <c r="W60" s="0"/>
       <c r="X60" s="0"/>
@@ -46725,37 +46733,27 @@
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
       <c r="V62" s="0"/>
       <c r="W62" s="0"/>
       <c r="X62" s="0"/>
@@ -47760,38 +47758,38 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>157</v>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="n">
+        <v>10</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="8" t="s">
-        <v>40</v>
+      <c r="C63" s="30" t="s">
+        <v>35</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8" t="s">
-        <v>138</v>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="18" t="s">
+        <v>148</v>
       </c>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
       <c r="V63" s="0"/>
       <c r="W63" s="0"/>
       <c r="X63" s="0"/>
@@ -48796,32 +48794,38 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24" t="s">
+    <row r="64" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>68</v>
+      <c r="B64" s="4"/>
+      <c r="C64" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
+      <c r="D64" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
       <c r="V64" s="0"/>
       <c r="W64" s="0"/>
       <c r="X64" s="0"/>
@@ -49827,27 +49831,31 @@
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
       <c r="V65" s="0"/>
       <c r="W65" s="0"/>
       <c r="X65" s="0"/>
@@ -51878,20 +51886,12 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>161</v>
-      </c>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -51904,9 +51904,7 @@
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
-      <c r="R67" s="7" t="s">
-        <v>126</v>
-      </c>
+      <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
@@ -52914,12 +52912,20 @@
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
+    <row r="68" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="C68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -52932,7 +52938,9 @@
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
+      <c r="R68" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
@@ -53941,31 +53949,27 @@
       <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
-      <c r="T69" s="22"/>
-      <c r="U69" s="22"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
       <c r="V69" s="0"/>
       <c r="W69" s="0"/>
       <c r="X69" s="0"/>
@@ -54970,6 +54974,1036 @@
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0"/>
+      <c r="X70" s="0"/>
+      <c r="Y70" s="0"/>
+      <c r="Z70" s="0"/>
+      <c r="AA70" s="0"/>
+      <c r="AB70" s="0"/>
+      <c r="AC70" s="0"/>
+      <c r="AD70" s="0"/>
+      <c r="AE70" s="0"/>
+      <c r="AF70" s="0"/>
+      <c r="AG70" s="0"/>
+      <c r="AH70" s="0"/>
+      <c r="AI70" s="0"/>
+      <c r="AJ70" s="0"/>
+      <c r="AK70" s="0"/>
+      <c r="AL70" s="0"/>
+      <c r="AM70" s="0"/>
+      <c r="AN70" s="0"/>
+      <c r="AO70" s="0"/>
+      <c r="AP70" s="0"/>
+      <c r="AQ70" s="0"/>
+      <c r="AR70" s="0"/>
+      <c r="AS70" s="0"/>
+      <c r="AT70" s="0"/>
+      <c r="AU70" s="0"/>
+      <c r="AV70" s="0"/>
+      <c r="AW70" s="0"/>
+      <c r="AX70" s="0"/>
+      <c r="AY70" s="0"/>
+      <c r="AZ70" s="0"/>
+      <c r="BA70" s="0"/>
+      <c r="BB70" s="0"/>
+      <c r="BC70" s="0"/>
+      <c r="BD70" s="0"/>
+      <c r="BE70" s="0"/>
+      <c r="BF70" s="0"/>
+      <c r="BG70" s="0"/>
+      <c r="BH70" s="0"/>
+      <c r="BI70" s="0"/>
+      <c r="BJ70" s="0"/>
+      <c r="BK70" s="0"/>
+      <c r="BL70" s="0"/>
+      <c r="BM70" s="0"/>
+      <c r="BN70" s="0"/>
+      <c r="BO70" s="0"/>
+      <c r="BP70" s="0"/>
+      <c r="BQ70" s="0"/>
+      <c r="BR70" s="0"/>
+      <c r="BS70" s="0"/>
+      <c r="BT70" s="0"/>
+      <c r="BU70" s="0"/>
+      <c r="BV70" s="0"/>
+      <c r="BW70" s="0"/>
+      <c r="BX70" s="0"/>
+      <c r="BY70" s="0"/>
+      <c r="BZ70" s="0"/>
+      <c r="CA70" s="0"/>
+      <c r="CB70" s="0"/>
+      <c r="CC70" s="0"/>
+      <c r="CD70" s="0"/>
+      <c r="CE70" s="0"/>
+      <c r="CF70" s="0"/>
+      <c r="CG70" s="0"/>
+      <c r="CH70" s="0"/>
+      <c r="CI70" s="0"/>
+      <c r="CJ70" s="0"/>
+      <c r="CK70" s="0"/>
+      <c r="CL70" s="0"/>
+      <c r="CM70" s="0"/>
+      <c r="CN70" s="0"/>
+      <c r="CO70" s="0"/>
+      <c r="CP70" s="0"/>
+      <c r="CQ70" s="0"/>
+      <c r="CR70" s="0"/>
+      <c r="CS70" s="0"/>
+      <c r="CT70" s="0"/>
+      <c r="CU70" s="0"/>
+      <c r="CV70" s="0"/>
+      <c r="CW70" s="0"/>
+      <c r="CX70" s="0"/>
+      <c r="CY70" s="0"/>
+      <c r="CZ70" s="0"/>
+      <c r="DA70" s="0"/>
+      <c r="DB70" s="0"/>
+      <c r="DC70" s="0"/>
+      <c r="DD70" s="0"/>
+      <c r="DE70" s="0"/>
+      <c r="DF70" s="0"/>
+      <c r="DG70" s="0"/>
+      <c r="DH70" s="0"/>
+      <c r="DI70" s="0"/>
+      <c r="DJ70" s="0"/>
+      <c r="DK70" s="0"/>
+      <c r="DL70" s="0"/>
+      <c r="DM70" s="0"/>
+      <c r="DN70" s="0"/>
+      <c r="DO70" s="0"/>
+      <c r="DP70" s="0"/>
+      <c r="DQ70" s="0"/>
+      <c r="DR70" s="0"/>
+      <c r="DS70" s="0"/>
+      <c r="DT70" s="0"/>
+      <c r="DU70" s="0"/>
+      <c r="DV70" s="0"/>
+      <c r="DW70" s="0"/>
+      <c r="DX70" s="0"/>
+      <c r="DY70" s="0"/>
+      <c r="DZ70" s="0"/>
+      <c r="EA70" s="0"/>
+      <c r="EB70" s="0"/>
+      <c r="EC70" s="0"/>
+      <c r="ED70" s="0"/>
+      <c r="EE70" s="0"/>
+      <c r="EF70" s="0"/>
+      <c r="EG70" s="0"/>
+      <c r="EH70" s="0"/>
+      <c r="EI70" s="0"/>
+      <c r="EJ70" s="0"/>
+      <c r="EK70" s="0"/>
+      <c r="EL70" s="0"/>
+      <c r="EM70" s="0"/>
+      <c r="EN70" s="0"/>
+      <c r="EO70" s="0"/>
+      <c r="EP70" s="0"/>
+      <c r="EQ70" s="0"/>
+      <c r="ER70" s="0"/>
+      <c r="ES70" s="0"/>
+      <c r="ET70" s="0"/>
+      <c r="EU70" s="0"/>
+      <c r="EV70" s="0"/>
+      <c r="EW70" s="0"/>
+      <c r="EX70" s="0"/>
+      <c r="EY70" s="0"/>
+      <c r="EZ70" s="0"/>
+      <c r="FA70" s="0"/>
+      <c r="FB70" s="0"/>
+      <c r="FC70" s="0"/>
+      <c r="FD70" s="0"/>
+      <c r="FE70" s="0"/>
+      <c r="FF70" s="0"/>
+      <c r="FG70" s="0"/>
+      <c r="FH70" s="0"/>
+      <c r="FI70" s="0"/>
+      <c r="FJ70" s="0"/>
+      <c r="FK70" s="0"/>
+      <c r="FL70" s="0"/>
+      <c r="FM70" s="0"/>
+      <c r="FN70" s="0"/>
+      <c r="FO70" s="0"/>
+      <c r="FP70" s="0"/>
+      <c r="FQ70" s="0"/>
+      <c r="FR70" s="0"/>
+      <c r="FS70" s="0"/>
+      <c r="FT70" s="0"/>
+      <c r="FU70" s="0"/>
+      <c r="FV70" s="0"/>
+      <c r="FW70" s="0"/>
+      <c r="FX70" s="0"/>
+      <c r="FY70" s="0"/>
+      <c r="FZ70" s="0"/>
+      <c r="GA70" s="0"/>
+      <c r="GB70" s="0"/>
+      <c r="GC70" s="0"/>
+      <c r="GD70" s="0"/>
+      <c r="GE70" s="0"/>
+      <c r="GF70" s="0"/>
+      <c r="GG70" s="0"/>
+      <c r="GH70" s="0"/>
+      <c r="GI70" s="0"/>
+      <c r="GJ70" s="0"/>
+      <c r="GK70" s="0"/>
+      <c r="GL70" s="0"/>
+      <c r="GM70" s="0"/>
+      <c r="GN70" s="0"/>
+      <c r="GO70" s="0"/>
+      <c r="GP70" s="0"/>
+      <c r="GQ70" s="0"/>
+      <c r="GR70" s="0"/>
+      <c r="GS70" s="0"/>
+      <c r="GT70" s="0"/>
+      <c r="GU70" s="0"/>
+      <c r="GV70" s="0"/>
+      <c r="GW70" s="0"/>
+      <c r="GX70" s="0"/>
+      <c r="GY70" s="0"/>
+      <c r="GZ70" s="0"/>
+      <c r="HA70" s="0"/>
+      <c r="HB70" s="0"/>
+      <c r="HC70" s="0"/>
+      <c r="HD70" s="0"/>
+      <c r="HE70" s="0"/>
+      <c r="HF70" s="0"/>
+      <c r="HG70" s="0"/>
+      <c r="HH70" s="0"/>
+      <c r="HI70" s="0"/>
+      <c r="HJ70" s="0"/>
+      <c r="HK70" s="0"/>
+      <c r="HL70" s="0"/>
+      <c r="HM70" s="0"/>
+      <c r="HN70" s="0"/>
+      <c r="HO70" s="0"/>
+      <c r="HP70" s="0"/>
+      <c r="HQ70" s="0"/>
+      <c r="HR70" s="0"/>
+      <c r="HS70" s="0"/>
+      <c r="HT70" s="0"/>
+      <c r="HU70" s="0"/>
+      <c r="HV70" s="0"/>
+      <c r="HW70" s="0"/>
+      <c r="HX70" s="0"/>
+      <c r="HY70" s="0"/>
+      <c r="HZ70" s="0"/>
+      <c r="IA70" s="0"/>
+      <c r="IB70" s="0"/>
+      <c r="IC70" s="0"/>
+      <c r="ID70" s="0"/>
+      <c r="IE70" s="0"/>
+      <c r="IF70" s="0"/>
+      <c r="IG70" s="0"/>
+      <c r="IH70" s="0"/>
+      <c r="II70" s="0"/>
+      <c r="IJ70" s="0"/>
+      <c r="IK70" s="0"/>
+      <c r="IL70" s="0"/>
+      <c r="IM70" s="0"/>
+      <c r="IN70" s="0"/>
+      <c r="IO70" s="0"/>
+      <c r="IP70" s="0"/>
+      <c r="IQ70" s="0"/>
+      <c r="IR70" s="0"/>
+      <c r="IS70" s="0"/>
+      <c r="IT70" s="0"/>
+      <c r="IU70" s="0"/>
+      <c r="IV70" s="0"/>
+      <c r="IW70" s="0"/>
+      <c r="IX70" s="0"/>
+      <c r="IY70" s="0"/>
+      <c r="IZ70" s="0"/>
+      <c r="JA70" s="0"/>
+      <c r="JB70" s="0"/>
+      <c r="JC70" s="0"/>
+      <c r="JD70" s="0"/>
+      <c r="JE70" s="0"/>
+      <c r="JF70" s="0"/>
+      <c r="JG70" s="0"/>
+      <c r="JH70" s="0"/>
+      <c r="JI70" s="0"/>
+      <c r="JJ70" s="0"/>
+      <c r="JK70" s="0"/>
+      <c r="JL70" s="0"/>
+      <c r="JM70" s="0"/>
+      <c r="JN70" s="0"/>
+      <c r="JO70" s="0"/>
+      <c r="JP70" s="0"/>
+      <c r="JQ70" s="0"/>
+      <c r="JR70" s="0"/>
+      <c r="JS70" s="0"/>
+      <c r="JT70" s="0"/>
+      <c r="JU70" s="0"/>
+      <c r="JV70" s="0"/>
+      <c r="JW70" s="0"/>
+      <c r="JX70" s="0"/>
+      <c r="JY70" s="0"/>
+      <c r="JZ70" s="0"/>
+      <c r="KA70" s="0"/>
+      <c r="KB70" s="0"/>
+      <c r="KC70" s="0"/>
+      <c r="KD70" s="0"/>
+      <c r="KE70" s="0"/>
+      <c r="KF70" s="0"/>
+      <c r="KG70" s="0"/>
+      <c r="KH70" s="0"/>
+      <c r="KI70" s="0"/>
+      <c r="KJ70" s="0"/>
+      <c r="KK70" s="0"/>
+      <c r="KL70" s="0"/>
+      <c r="KM70" s="0"/>
+      <c r="KN70" s="0"/>
+      <c r="KO70" s="0"/>
+      <c r="KP70" s="0"/>
+      <c r="KQ70" s="0"/>
+      <c r="KR70" s="0"/>
+      <c r="KS70" s="0"/>
+      <c r="KT70" s="0"/>
+      <c r="KU70" s="0"/>
+      <c r="KV70" s="0"/>
+      <c r="KW70" s="0"/>
+      <c r="KX70" s="0"/>
+      <c r="KY70" s="0"/>
+      <c r="KZ70" s="0"/>
+      <c r="LA70" s="0"/>
+      <c r="LB70" s="0"/>
+      <c r="LC70" s="0"/>
+      <c r="LD70" s="0"/>
+      <c r="LE70" s="0"/>
+      <c r="LF70" s="0"/>
+      <c r="LG70" s="0"/>
+      <c r="LH70" s="0"/>
+      <c r="LI70" s="0"/>
+      <c r="LJ70" s="0"/>
+      <c r="LK70" s="0"/>
+      <c r="LL70" s="0"/>
+      <c r="LM70" s="0"/>
+      <c r="LN70" s="0"/>
+      <c r="LO70" s="0"/>
+      <c r="LP70" s="0"/>
+      <c r="LQ70" s="0"/>
+      <c r="LR70" s="0"/>
+      <c r="LS70" s="0"/>
+      <c r="LT70" s="0"/>
+      <c r="LU70" s="0"/>
+      <c r="LV70" s="0"/>
+      <c r="LW70" s="0"/>
+      <c r="LX70" s="0"/>
+      <c r="LY70" s="0"/>
+      <c r="LZ70" s="0"/>
+      <c r="MA70" s="0"/>
+      <c r="MB70" s="0"/>
+      <c r="MC70" s="0"/>
+      <c r="MD70" s="0"/>
+      <c r="ME70" s="0"/>
+      <c r="MF70" s="0"/>
+      <c r="MG70" s="0"/>
+      <c r="MH70" s="0"/>
+      <c r="MI70" s="0"/>
+      <c r="MJ70" s="0"/>
+      <c r="MK70" s="0"/>
+      <c r="ML70" s="0"/>
+      <c r="MM70" s="0"/>
+      <c r="MN70" s="0"/>
+      <c r="MO70" s="0"/>
+      <c r="MP70" s="0"/>
+      <c r="MQ70" s="0"/>
+      <c r="MR70" s="0"/>
+      <c r="MS70" s="0"/>
+      <c r="MT70" s="0"/>
+      <c r="MU70" s="0"/>
+      <c r="MV70" s="0"/>
+      <c r="MW70" s="0"/>
+      <c r="MX70" s="0"/>
+      <c r="MY70" s="0"/>
+      <c r="MZ70" s="0"/>
+      <c r="NA70" s="0"/>
+      <c r="NB70" s="0"/>
+      <c r="NC70" s="0"/>
+      <c r="ND70" s="0"/>
+      <c r="NE70" s="0"/>
+      <c r="NF70" s="0"/>
+      <c r="NG70" s="0"/>
+      <c r="NH70" s="0"/>
+      <c r="NI70" s="0"/>
+      <c r="NJ70" s="0"/>
+      <c r="NK70" s="0"/>
+      <c r="NL70" s="0"/>
+      <c r="NM70" s="0"/>
+      <c r="NN70" s="0"/>
+      <c r="NO70" s="0"/>
+      <c r="NP70" s="0"/>
+      <c r="NQ70" s="0"/>
+      <c r="NR70" s="0"/>
+      <c r="NS70" s="0"/>
+      <c r="NT70" s="0"/>
+      <c r="NU70" s="0"/>
+      <c r="NV70" s="0"/>
+      <c r="NW70" s="0"/>
+      <c r="NX70" s="0"/>
+      <c r="NY70" s="0"/>
+      <c r="NZ70" s="0"/>
+      <c r="OA70" s="0"/>
+      <c r="OB70" s="0"/>
+      <c r="OC70" s="0"/>
+      <c r="OD70" s="0"/>
+      <c r="OE70" s="0"/>
+      <c r="OF70" s="0"/>
+      <c r="OG70" s="0"/>
+      <c r="OH70" s="0"/>
+      <c r="OI70" s="0"/>
+      <c r="OJ70" s="0"/>
+      <c r="OK70" s="0"/>
+      <c r="OL70" s="0"/>
+      <c r="OM70" s="0"/>
+      <c r="ON70" s="0"/>
+      <c r="OO70" s="0"/>
+      <c r="OP70" s="0"/>
+      <c r="OQ70" s="0"/>
+      <c r="OR70" s="0"/>
+      <c r="OS70" s="0"/>
+      <c r="OT70" s="0"/>
+      <c r="OU70" s="0"/>
+      <c r="OV70" s="0"/>
+      <c r="OW70" s="0"/>
+      <c r="OX70" s="0"/>
+      <c r="OY70" s="0"/>
+      <c r="OZ70" s="0"/>
+      <c r="PA70" s="0"/>
+      <c r="PB70" s="0"/>
+      <c r="PC70" s="0"/>
+      <c r="PD70" s="0"/>
+      <c r="PE70" s="0"/>
+      <c r="PF70" s="0"/>
+      <c r="PG70" s="0"/>
+      <c r="PH70" s="0"/>
+      <c r="PI70" s="0"/>
+      <c r="PJ70" s="0"/>
+      <c r="PK70" s="0"/>
+      <c r="PL70" s="0"/>
+      <c r="PM70" s="0"/>
+      <c r="PN70" s="0"/>
+      <c r="PO70" s="0"/>
+      <c r="PP70" s="0"/>
+      <c r="PQ70" s="0"/>
+      <c r="PR70" s="0"/>
+      <c r="PS70" s="0"/>
+      <c r="PT70" s="0"/>
+      <c r="PU70" s="0"/>
+      <c r="PV70" s="0"/>
+      <c r="PW70" s="0"/>
+      <c r="PX70" s="0"/>
+      <c r="PY70" s="0"/>
+      <c r="PZ70" s="0"/>
+      <c r="QA70" s="0"/>
+      <c r="QB70" s="0"/>
+      <c r="QC70" s="0"/>
+      <c r="QD70" s="0"/>
+      <c r="QE70" s="0"/>
+      <c r="QF70" s="0"/>
+      <c r="QG70" s="0"/>
+      <c r="QH70" s="0"/>
+      <c r="QI70" s="0"/>
+      <c r="QJ70" s="0"/>
+      <c r="QK70" s="0"/>
+      <c r="QL70" s="0"/>
+      <c r="QM70" s="0"/>
+      <c r="QN70" s="0"/>
+      <c r="QO70" s="0"/>
+      <c r="QP70" s="0"/>
+      <c r="QQ70" s="0"/>
+      <c r="QR70" s="0"/>
+      <c r="QS70" s="0"/>
+      <c r="QT70" s="0"/>
+      <c r="QU70" s="0"/>
+      <c r="QV70" s="0"/>
+      <c r="QW70" s="0"/>
+      <c r="QX70" s="0"/>
+      <c r="QY70" s="0"/>
+      <c r="QZ70" s="0"/>
+      <c r="RA70" s="0"/>
+      <c r="RB70" s="0"/>
+      <c r="RC70" s="0"/>
+      <c r="RD70" s="0"/>
+      <c r="RE70" s="0"/>
+      <c r="RF70" s="0"/>
+      <c r="RG70" s="0"/>
+      <c r="RH70" s="0"/>
+      <c r="RI70" s="0"/>
+      <c r="RJ70" s="0"/>
+      <c r="RK70" s="0"/>
+      <c r="RL70" s="0"/>
+      <c r="RM70" s="0"/>
+      <c r="RN70" s="0"/>
+      <c r="RO70" s="0"/>
+      <c r="RP70" s="0"/>
+      <c r="RQ70" s="0"/>
+      <c r="RR70" s="0"/>
+      <c r="RS70" s="0"/>
+      <c r="RT70" s="0"/>
+      <c r="RU70" s="0"/>
+      <c r="RV70" s="0"/>
+      <c r="RW70" s="0"/>
+      <c r="RX70" s="0"/>
+      <c r="RY70" s="0"/>
+      <c r="RZ70" s="0"/>
+      <c r="SA70" s="0"/>
+      <c r="SB70" s="0"/>
+      <c r="SC70" s="0"/>
+      <c r="SD70" s="0"/>
+      <c r="SE70" s="0"/>
+      <c r="SF70" s="0"/>
+      <c r="SG70" s="0"/>
+      <c r="SH70" s="0"/>
+      <c r="SI70" s="0"/>
+      <c r="SJ70" s="0"/>
+      <c r="SK70" s="0"/>
+      <c r="SL70" s="0"/>
+      <c r="SM70" s="0"/>
+      <c r="SN70" s="0"/>
+      <c r="SO70" s="0"/>
+      <c r="SP70" s="0"/>
+      <c r="SQ70" s="0"/>
+      <c r="SR70" s="0"/>
+      <c r="SS70" s="0"/>
+      <c r="ST70" s="0"/>
+      <c r="SU70" s="0"/>
+      <c r="SV70" s="0"/>
+      <c r="SW70" s="0"/>
+      <c r="SX70" s="0"/>
+      <c r="SY70" s="0"/>
+      <c r="SZ70" s="0"/>
+      <c r="TA70" s="0"/>
+      <c r="TB70" s="0"/>
+      <c r="TC70" s="0"/>
+      <c r="TD70" s="0"/>
+      <c r="TE70" s="0"/>
+      <c r="TF70" s="0"/>
+      <c r="TG70" s="0"/>
+      <c r="TH70" s="0"/>
+      <c r="TI70" s="0"/>
+      <c r="TJ70" s="0"/>
+      <c r="TK70" s="0"/>
+      <c r="TL70" s="0"/>
+      <c r="TM70" s="0"/>
+      <c r="TN70" s="0"/>
+      <c r="TO70" s="0"/>
+      <c r="TP70" s="0"/>
+      <c r="TQ70" s="0"/>
+      <c r="TR70" s="0"/>
+      <c r="TS70" s="0"/>
+      <c r="TT70" s="0"/>
+      <c r="TU70" s="0"/>
+      <c r="TV70" s="0"/>
+      <c r="TW70" s="0"/>
+      <c r="TX70" s="0"/>
+      <c r="TY70" s="0"/>
+      <c r="TZ70" s="0"/>
+      <c r="UA70" s="0"/>
+      <c r="UB70" s="0"/>
+      <c r="UC70" s="0"/>
+      <c r="UD70" s="0"/>
+      <c r="UE70" s="0"/>
+      <c r="UF70" s="0"/>
+      <c r="UG70" s="0"/>
+      <c r="UH70" s="0"/>
+      <c r="UI70" s="0"/>
+      <c r="UJ70" s="0"/>
+      <c r="UK70" s="0"/>
+      <c r="UL70" s="0"/>
+      <c r="UM70" s="0"/>
+      <c r="UN70" s="0"/>
+      <c r="UO70" s="0"/>
+      <c r="UP70" s="0"/>
+      <c r="UQ70" s="0"/>
+      <c r="UR70" s="0"/>
+      <c r="US70" s="0"/>
+      <c r="UT70" s="0"/>
+      <c r="UU70" s="0"/>
+      <c r="UV70" s="0"/>
+      <c r="UW70" s="0"/>
+      <c r="UX70" s="0"/>
+      <c r="UY70" s="0"/>
+      <c r="UZ70" s="0"/>
+      <c r="VA70" s="0"/>
+      <c r="VB70" s="0"/>
+      <c r="VC70" s="0"/>
+      <c r="VD70" s="0"/>
+      <c r="VE70" s="0"/>
+      <c r="VF70" s="0"/>
+      <c r="VG70" s="0"/>
+      <c r="VH70" s="0"/>
+      <c r="VI70" s="0"/>
+      <c r="VJ70" s="0"/>
+      <c r="VK70" s="0"/>
+      <c r="VL70" s="0"/>
+      <c r="VM70" s="0"/>
+      <c r="VN70" s="0"/>
+      <c r="VO70" s="0"/>
+      <c r="VP70" s="0"/>
+      <c r="VQ70" s="0"/>
+      <c r="VR70" s="0"/>
+      <c r="VS70" s="0"/>
+      <c r="VT70" s="0"/>
+      <c r="VU70" s="0"/>
+      <c r="VV70" s="0"/>
+      <c r="VW70" s="0"/>
+      <c r="VX70" s="0"/>
+      <c r="VY70" s="0"/>
+      <c r="VZ70" s="0"/>
+      <c r="WA70" s="0"/>
+      <c r="WB70" s="0"/>
+      <c r="WC70" s="0"/>
+      <c r="WD70" s="0"/>
+      <c r="WE70" s="0"/>
+      <c r="WF70" s="0"/>
+      <c r="WG70" s="0"/>
+      <c r="WH70" s="0"/>
+      <c r="WI70" s="0"/>
+      <c r="WJ70" s="0"/>
+      <c r="WK70" s="0"/>
+      <c r="WL70" s="0"/>
+      <c r="WM70" s="0"/>
+      <c r="WN70" s="0"/>
+      <c r="WO70" s="0"/>
+      <c r="WP70" s="0"/>
+      <c r="WQ70" s="0"/>
+      <c r="WR70" s="0"/>
+      <c r="WS70" s="0"/>
+      <c r="WT70" s="0"/>
+      <c r="WU70" s="0"/>
+      <c r="WV70" s="0"/>
+      <c r="WW70" s="0"/>
+      <c r="WX70" s="0"/>
+      <c r="WY70" s="0"/>
+      <c r="WZ70" s="0"/>
+      <c r="XA70" s="0"/>
+      <c r="XB70" s="0"/>
+      <c r="XC70" s="0"/>
+      <c r="XD70" s="0"/>
+      <c r="XE70" s="0"/>
+      <c r="XF70" s="0"/>
+      <c r="XG70" s="0"/>
+      <c r="XH70" s="0"/>
+      <c r="XI70" s="0"/>
+      <c r="XJ70" s="0"/>
+      <c r="XK70" s="0"/>
+      <c r="XL70" s="0"/>
+      <c r="XM70" s="0"/>
+      <c r="XN70" s="0"/>
+      <c r="XO70" s="0"/>
+      <c r="XP70" s="0"/>
+      <c r="XQ70" s="0"/>
+      <c r="XR70" s="0"/>
+      <c r="XS70" s="0"/>
+      <c r="XT70" s="0"/>
+      <c r="XU70" s="0"/>
+      <c r="XV70" s="0"/>
+      <c r="XW70" s="0"/>
+      <c r="XX70" s="0"/>
+      <c r="XY70" s="0"/>
+      <c r="XZ70" s="0"/>
+      <c r="YA70" s="0"/>
+      <c r="YB70" s="0"/>
+      <c r="YC70" s="0"/>
+      <c r="YD70" s="0"/>
+      <c r="YE70" s="0"/>
+      <c r="YF70" s="0"/>
+      <c r="YG70" s="0"/>
+      <c r="YH70" s="0"/>
+      <c r="YI70" s="0"/>
+      <c r="YJ70" s="0"/>
+      <c r="YK70" s="0"/>
+      <c r="YL70" s="0"/>
+      <c r="YM70" s="0"/>
+      <c r="YN70" s="0"/>
+      <c r="YO70" s="0"/>
+      <c r="YP70" s="0"/>
+      <c r="YQ70" s="0"/>
+      <c r="YR70" s="0"/>
+      <c r="YS70" s="0"/>
+      <c r="YT70" s="0"/>
+      <c r="YU70" s="0"/>
+      <c r="YV70" s="0"/>
+      <c r="YW70" s="0"/>
+      <c r="YX70" s="0"/>
+      <c r="YY70" s="0"/>
+      <c r="YZ70" s="0"/>
+      <c r="ZA70" s="0"/>
+      <c r="ZB70" s="0"/>
+      <c r="ZC70" s="0"/>
+      <c r="ZD70" s="0"/>
+      <c r="ZE70" s="0"/>
+      <c r="ZF70" s="0"/>
+      <c r="ZG70" s="0"/>
+      <c r="ZH70" s="0"/>
+      <c r="ZI70" s="0"/>
+      <c r="ZJ70" s="0"/>
+      <c r="ZK70" s="0"/>
+      <c r="ZL70" s="0"/>
+      <c r="ZM70" s="0"/>
+      <c r="ZN70" s="0"/>
+      <c r="ZO70" s="0"/>
+      <c r="ZP70" s="0"/>
+      <c r="ZQ70" s="0"/>
+      <c r="ZR70" s="0"/>
+      <c r="ZS70" s="0"/>
+      <c r="ZT70" s="0"/>
+      <c r="ZU70" s="0"/>
+      <c r="ZV70" s="0"/>
+      <c r="ZW70" s="0"/>
+      <c r="ZX70" s="0"/>
+      <c r="ZY70" s="0"/>
+      <c r="ZZ70" s="0"/>
+      <c r="AAA70" s="0"/>
+      <c r="AAB70" s="0"/>
+      <c r="AAC70" s="0"/>
+      <c r="AAD70" s="0"/>
+      <c r="AAE70" s="0"/>
+      <c r="AAF70" s="0"/>
+      <c r="AAG70" s="0"/>
+      <c r="AAH70" s="0"/>
+      <c r="AAI70" s="0"/>
+      <c r="AAJ70" s="0"/>
+      <c r="AAK70" s="0"/>
+      <c r="AAL70" s="0"/>
+      <c r="AAM70" s="0"/>
+      <c r="AAN70" s="0"/>
+      <c r="AAO70" s="0"/>
+      <c r="AAP70" s="0"/>
+      <c r="AAQ70" s="0"/>
+      <c r="AAR70" s="0"/>
+      <c r="AAS70" s="0"/>
+      <c r="AAT70" s="0"/>
+      <c r="AAU70" s="0"/>
+      <c r="AAV70" s="0"/>
+      <c r="AAW70" s="0"/>
+      <c r="AAX70" s="0"/>
+      <c r="AAY70" s="0"/>
+      <c r="AAZ70" s="0"/>
+      <c r="ABA70" s="0"/>
+      <c r="ABB70" s="0"/>
+      <c r="ABC70" s="0"/>
+      <c r="ABD70" s="0"/>
+      <c r="ABE70" s="0"/>
+      <c r="ABF70" s="0"/>
+      <c r="ABG70" s="0"/>
+      <c r="ABH70" s="0"/>
+      <c r="ABI70" s="0"/>
+      <c r="ABJ70" s="0"/>
+      <c r="ABK70" s="0"/>
+      <c r="ABL70" s="0"/>
+      <c r="ABM70" s="0"/>
+      <c r="ABN70" s="0"/>
+      <c r="ABO70" s="0"/>
+      <c r="ABP70" s="0"/>
+      <c r="ABQ70" s="0"/>
+      <c r="ABR70" s="0"/>
+      <c r="ABS70" s="0"/>
+      <c r="ABT70" s="0"/>
+      <c r="ABU70" s="0"/>
+      <c r="ABV70" s="0"/>
+      <c r="ABW70" s="0"/>
+      <c r="ABX70" s="0"/>
+      <c r="ABY70" s="0"/>
+      <c r="ABZ70" s="0"/>
+      <c r="ACA70" s="0"/>
+      <c r="ACB70" s="0"/>
+      <c r="ACC70" s="0"/>
+      <c r="ACD70" s="0"/>
+      <c r="ACE70" s="0"/>
+      <c r="ACF70" s="0"/>
+      <c r="ACG70" s="0"/>
+      <c r="ACH70" s="0"/>
+      <c r="ACI70" s="0"/>
+      <c r="ACJ70" s="0"/>
+      <c r="ACK70" s="0"/>
+      <c r="ACL70" s="0"/>
+      <c r="ACM70" s="0"/>
+      <c r="ACN70" s="0"/>
+      <c r="ACO70" s="0"/>
+      <c r="ACP70" s="0"/>
+      <c r="ACQ70" s="0"/>
+      <c r="ACR70" s="0"/>
+      <c r="ACS70" s="0"/>
+      <c r="ACT70" s="0"/>
+      <c r="ACU70" s="0"/>
+      <c r="ACV70" s="0"/>
+      <c r="ACW70" s="0"/>
+      <c r="ACX70" s="0"/>
+      <c r="ACY70" s="0"/>
+      <c r="ACZ70" s="0"/>
+      <c r="ADA70" s="0"/>
+      <c r="ADB70" s="0"/>
+      <c r="ADC70" s="0"/>
+      <c r="ADD70" s="0"/>
+      <c r="ADE70" s="0"/>
+      <c r="ADF70" s="0"/>
+      <c r="ADG70" s="0"/>
+      <c r="ADH70" s="0"/>
+      <c r="ADI70" s="0"/>
+      <c r="ADJ70" s="0"/>
+      <c r="ADK70" s="0"/>
+      <c r="ADL70" s="0"/>
+      <c r="ADM70" s="0"/>
+      <c r="ADN70" s="0"/>
+      <c r="ADO70" s="0"/>
+      <c r="ADP70" s="0"/>
+      <c r="ADQ70" s="0"/>
+      <c r="ADR70" s="0"/>
+      <c r="ADS70" s="0"/>
+      <c r="ADT70" s="0"/>
+      <c r="ADU70" s="0"/>
+      <c r="ADV70" s="0"/>
+      <c r="ADW70" s="0"/>
+      <c r="ADX70" s="0"/>
+      <c r="ADY70" s="0"/>
+      <c r="ADZ70" s="0"/>
+      <c r="AEA70" s="0"/>
+      <c r="AEB70" s="0"/>
+      <c r="AEC70" s="0"/>
+      <c r="AED70" s="0"/>
+      <c r="AEE70" s="0"/>
+      <c r="AEF70" s="0"/>
+      <c r="AEG70" s="0"/>
+      <c r="AEH70" s="0"/>
+      <c r="AEI70" s="0"/>
+      <c r="AEJ70" s="0"/>
+      <c r="AEK70" s="0"/>
+      <c r="AEL70" s="0"/>
+      <c r="AEM70" s="0"/>
+      <c r="AEN70" s="0"/>
+      <c r="AEO70" s="0"/>
+      <c r="AEP70" s="0"/>
+      <c r="AEQ70" s="0"/>
+      <c r="AER70" s="0"/>
+      <c r="AES70" s="0"/>
+      <c r="AET70" s="0"/>
+      <c r="AEU70" s="0"/>
+      <c r="AEV70" s="0"/>
+      <c r="AEW70" s="0"/>
+      <c r="AEX70" s="0"/>
+      <c r="AEY70" s="0"/>
+      <c r="AEZ70" s="0"/>
+      <c r="AFA70" s="0"/>
+      <c r="AFB70" s="0"/>
+      <c r="AFC70" s="0"/>
+      <c r="AFD70" s="0"/>
+      <c r="AFE70" s="0"/>
+      <c r="AFF70" s="0"/>
+      <c r="AFG70" s="0"/>
+      <c r="AFH70" s="0"/>
+      <c r="AFI70" s="0"/>
+      <c r="AFJ70" s="0"/>
+      <c r="AFK70" s="0"/>
+      <c r="AFL70" s="0"/>
+      <c r="AFM70" s="0"/>
+      <c r="AFN70" s="0"/>
+      <c r="AFO70" s="0"/>
+      <c r="AFP70" s="0"/>
+      <c r="AFQ70" s="0"/>
+      <c r="AFR70" s="0"/>
+      <c r="AFS70" s="0"/>
+      <c r="AFT70" s="0"/>
+      <c r="AFU70" s="0"/>
+      <c r="AFV70" s="0"/>
+      <c r="AFW70" s="0"/>
+      <c r="AFX70" s="0"/>
+      <c r="AFY70" s="0"/>
+      <c r="AFZ70" s="0"/>
+      <c r="AGA70" s="0"/>
+      <c r="AGB70" s="0"/>
+      <c r="AGC70" s="0"/>
+      <c r="AGD70" s="0"/>
+      <c r="AGE70" s="0"/>
+      <c r="AGF70" s="0"/>
+      <c r="AGG70" s="0"/>
+      <c r="AGH70" s="0"/>
+      <c r="AGI70" s="0"/>
+      <c r="AGJ70" s="0"/>
+      <c r="AGK70" s="0"/>
+      <c r="AGL70" s="0"/>
+      <c r="AGM70" s="0"/>
+      <c r="AGN70" s="0"/>
+      <c r="AGO70" s="0"/>
+      <c r="AGP70" s="0"/>
+      <c r="AGQ70" s="0"/>
+      <c r="AGR70" s="0"/>
+      <c r="AGS70" s="0"/>
+      <c r="AGT70" s="0"/>
+      <c r="AGU70" s="0"/>
+      <c r="AGV70" s="0"/>
+      <c r="AGW70" s="0"/>
+      <c r="AGX70" s="0"/>
+      <c r="AGY70" s="0"/>
+      <c r="AGZ70" s="0"/>
+      <c r="AHA70" s="0"/>
+      <c r="AHB70" s="0"/>
+      <c r="AHC70" s="0"/>
+      <c r="AHD70" s="0"/>
+      <c r="AHE70" s="0"/>
+      <c r="AHF70" s="0"/>
+      <c r="AHG70" s="0"/>
+      <c r="AHH70" s="0"/>
+      <c r="AHI70" s="0"/>
+      <c r="AHJ70" s="0"/>
+      <c r="AHK70" s="0"/>
+      <c r="AHL70" s="0"/>
+      <c r="AHM70" s="0"/>
+      <c r="AHN70" s="0"/>
+      <c r="AHO70" s="0"/>
+      <c r="AHP70" s="0"/>
+      <c r="AHQ70" s="0"/>
+      <c r="AHR70" s="0"/>
+      <c r="AHS70" s="0"/>
+      <c r="AHT70" s="0"/>
+      <c r="AHU70" s="0"/>
+      <c r="AHV70" s="0"/>
+      <c r="AHW70" s="0"/>
+      <c r="AHX70" s="0"/>
+      <c r="AHY70" s="0"/>
+      <c r="AHZ70" s="0"/>
+      <c r="AIA70" s="0"/>
+      <c r="AIB70" s="0"/>
+      <c r="AIC70" s="0"/>
+      <c r="AID70" s="0"/>
+      <c r="AIE70" s="0"/>
+      <c r="AIF70" s="0"/>
+      <c r="AIG70" s="0"/>
+      <c r="AIH70" s="0"/>
+      <c r="AII70" s="0"/>
+      <c r="AIJ70" s="0"/>
+      <c r="AIK70" s="0"/>
+      <c r="AIL70" s="0"/>
+      <c r="AIM70" s="0"/>
+      <c r="AIN70" s="0"/>
+      <c r="AIO70" s="0"/>
+      <c r="AIP70" s="0"/>
+      <c r="AIQ70" s="0"/>
+      <c r="AIR70" s="0"/>
+      <c r="AIS70" s="0"/>
+      <c r="AIT70" s="0"/>
+      <c r="AIU70" s="0"/>
+      <c r="AIV70" s="0"/>
+      <c r="AIW70" s="0"/>
+      <c r="AIX70" s="0"/>
+      <c r="AIY70" s="0"/>
+      <c r="AIZ70" s="0"/>
+      <c r="AJA70" s="0"/>
+      <c r="AJB70" s="0"/>
+      <c r="AJC70" s="0"/>
+      <c r="AJD70" s="0"/>
+      <c r="AJE70" s="0"/>
+      <c r="AJF70" s="0"/>
+      <c r="AJG70" s="0"/>
+      <c r="AJH70" s="0"/>
+      <c r="AJI70" s="0"/>
+      <c r="AJJ70" s="0"/>
+      <c r="AJK70" s="0"/>
+      <c r="AJL70" s="0"/>
+      <c r="AJM70" s="0"/>
+      <c r="AJN70" s="0"/>
+      <c r="AJO70" s="0"/>
+      <c r="AJP70" s="0"/>
+      <c r="AJQ70" s="0"/>
+      <c r="AJR70" s="0"/>
+      <c r="AJS70" s="0"/>
+      <c r="AJT70" s="0"/>
+      <c r="AJU70" s="0"/>
+      <c r="AJV70" s="0"/>
+      <c r="AJW70" s="0"/>
+      <c r="AJX70" s="0"/>
+      <c r="AJY70" s="0"/>
+      <c r="AJZ70" s="0"/>
+      <c r="AKA70" s="0"/>
+      <c r="AKB70" s="0"/>
+      <c r="AKC70" s="0"/>
+      <c r="AKD70" s="0"/>
+      <c r="AKE70" s="0"/>
+      <c r="AKF70" s="0"/>
+      <c r="AKG70" s="0"/>
+      <c r="AKH70" s="0"/>
+      <c r="AKI70" s="0"/>
+      <c r="AKJ70" s="0"/>
+      <c r="AKK70" s="0"/>
+      <c r="AKL70" s="0"/>
+      <c r="AKM70" s="0"/>
+      <c r="AKN70" s="0"/>
+      <c r="AKO70" s="0"/>
+      <c r="AKP70" s="0"/>
+      <c r="AKQ70" s="0"/>
+      <c r="AKR70" s="0"/>
+      <c r="AKS70" s="0"/>
+      <c r="AKT70" s="0"/>
+      <c r="AKU70" s="0"/>
+      <c r="AKV70" s="0"/>
+      <c r="AKW70" s="0"/>
+      <c r="AKX70" s="0"/>
+      <c r="AKY70" s="0"/>
+      <c r="AKZ70" s="0"/>
+      <c r="ALA70" s="0"/>
+      <c r="ALB70" s="0"/>
+      <c r="ALC70" s="0"/>
+      <c r="ALD70" s="0"/>
+      <c r="ALE70" s="0"/>
+      <c r="ALF70" s="0"/>
+      <c r="ALG70" s="0"/>
+      <c r="ALH70" s="0"/>
+      <c r="ALI70" s="0"/>
+      <c r="ALJ70" s="0"/>
+      <c r="ALK70" s="0"/>
+      <c r="ALL70" s="0"/>
+      <c r="ALM70" s="0"/>
+      <c r="ALN70" s="0"/>
+      <c r="ALO70" s="0"/>
+      <c r="ALP70" s="0"/>
+      <c r="ALQ70" s="0"/>
+      <c r="ALR70" s="0"/>
+      <c r="ALS70" s="0"/>
+      <c r="ALT70" s="0"/>
+      <c r="ALU70" s="0"/>
+      <c r="ALV70" s="0"/>
+      <c r="ALW70" s="0"/>
+      <c r="ALX70" s="0"/>
+      <c r="ALY70" s="0"/>
+      <c r="ALZ70" s="0"/>
+      <c r="AMA70" s="0"/>
+      <c r="AMB70" s="0"/>
+      <c r="AMC70" s="0"/>
+      <c r="AMD70" s="0"/>
+      <c r="AME70" s="0"/>
+      <c r="AMF70" s="0"/>
+      <c r="AMG70" s="0"/>
+      <c r="AMH70" s="0"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -54992,7 +56026,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="33.98"/>
@@ -55000,84 +56034,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.56"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>165</v>
+    <row r="1" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>168</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>166</v>
+      <c r="D1" s="35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55107,35 +56141,35 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>185</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
